--- a/src/test/resources/TestData/Team05-APISquadTestData.xlsx
+++ b/src/test/resources/TestData/Team05-APISquadTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/Team05APISquadHackathon/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5CBDB-819B-EE45-BD92-A5044FDB4E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F5CAA-4847-D34A-A6B9-FA2024144D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45460" yWindow="-2960" windowWidth="23260" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="325">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -768,9 +768,6 @@
     <t>Admin@123</t>
   </si>
   <si>
-    <t>invalid password</t>
-  </si>
-  <si>
     <t>dhuruvalak01@gmail.com</t>
   </si>
   <si>
@@ -801,16 +798,7 @@
     <t>invalid endpoint</t>
   </si>
   <si>
-    <t>invalid base url</t>
-  </si>
-  <si>
-    <t>invalid content type</t>
-  </si>
-  <si>
     <t>application/jsonnn</t>
-  </si>
-  <si>
-    <t>invalid method</t>
   </si>
   <si>
     <t>valid email</t>
@@ -962,12 +950,63 @@
   <si>
     <t>logoutlms</t>
   </si>
+  <si>
+    <t>numbers in email</t>
+  </si>
+  <si>
+    <t>Team5@USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid content </t>
+  </si>
+  <si>
+    <t>invalid base URL</t>
+  </si>
+  <si>
+    <t>loginn</t>
+  </si>
+  <si>
+    <t>$#%%^&amp;@gmailcom</t>
+  </si>
+  <si>
+    <t>123456@gmail.com</t>
+  </si>
+  <si>
+    <t>/login/forgotpassword/confirmEmaill</t>
+  </si>
+  <si>
+    <t>Bearer Token</t>
+  </si>
+  <si>
+    <t>No Auth</t>
+  </si>
+  <si>
+    <t>invalid method</t>
+  </si>
+  <si>
+    <t>numbers in password</t>
+  </si>
+  <si>
+    <t>GET method test</t>
+  </si>
+  <si>
+    <t>invalid content</t>
+  </si>
+  <si>
+    <t>InvalidJason</t>
+  </si>
+  <si>
+    <t>special chars in confirmEmail</t>
+  </si>
+  <si>
+    <t>Team5@USAA3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,6 +1157,11 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1217,7 +1261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1425,12 +1469,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1600,14 +1657,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1621,6 +1673,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1837,15 +1906,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DO995"/>
+  <dimension ref="A1:DO998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
     <col min="4" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
@@ -1858,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C1" s="63" t="s">
         <v>1</v>
@@ -1914,7 +1984,7 @@
       <c r="E2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" t="s">
         <v>242</v>
       </c>
       <c r="G2" s="64" t="s">
@@ -1943,7 +2013,7 @@
     </row>
     <row r="3" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="64" t="s">
@@ -1953,10 +2023,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>245</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
       </c>
       <c r="G3" s="64" t="s">
         <v>246</v>
@@ -1984,7 +2054,7 @@
     </row>
     <row r="4" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="64" t="s">
@@ -1997,10 +2067,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H4" s="64">
         <v>401</v>
@@ -2025,7 +2095,7 @@
     </row>
     <row r="5" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64" t="s">
@@ -2038,10 +2108,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H5" s="64">
         <v>401</v>
@@ -2066,7 +2136,7 @@
     </row>
     <row r="6" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="64" t="s">
@@ -2078,15 +2148,11 @@
       <c r="E6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="H6" s="64">
-        <v>401</v>
-      </c>
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="64"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2107,7 +2173,7 @@
     </row>
     <row r="7" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="64" t="s">
@@ -2119,9 +2185,11 @@
       <c r="E7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
       <c r="G7" s="64" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H7" s="64">
         <v>401</v>
@@ -2146,7 +2214,7 @@
     </row>
     <row r="8" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="64" t="s">
@@ -2183,7 +2251,7 @@
     </row>
     <row r="9" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64" t="s">
@@ -2196,9 +2264,11 @@
         <v>9</v>
       </c>
       <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="G9" s="64" t="s">
+        <v>246</v>
+      </c>
       <c r="H9" s="64">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I9" s="64"/>
       <c r="J9" s="1"/>
@@ -2220,7 +2290,7 @@
     </row>
     <row r="10" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64" t="s">
@@ -2232,14 +2302,10 @@
       <c r="E10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>246</v>
-      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="64">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="1"/>
@@ -2261,11 +2327,11 @@
     </row>
     <row r="11" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="64" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>8</v>
@@ -2273,14 +2339,14 @@
       <c r="E11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="65" t="s">
-        <v>248</v>
+      <c r="F11" t="s">
+        <v>247</v>
       </c>
       <c r="G11" s="64" t="s">
         <v>246</v>
       </c>
       <c r="H11" s="64">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="1"/>
@@ -2302,26 +2368,26 @@
     </row>
     <row r="12" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="64" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="65" t="s">
-        <v>248</v>
+      <c r="F12" t="s">
+        <v>247</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>246</v>
       </c>
       <c r="H12" s="64">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="1"/>
@@ -2341,28 +2407,28 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:119" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>248</v>
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>246</v>
       </c>
       <c r="H13" s="64">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="1"/>
@@ -2382,26 +2448,28 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:119" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="64" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="64"/>
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>246</v>
+      </c>
       <c r="H14" s="64">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="1"/>
@@ -2420,123 +2488,29 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-      <c r="CU14" s="1"/>
-      <c r="CV14" s="1"/>
-      <c r="CW14" s="1"/>
-      <c r="CX14" s="1"/>
-      <c r="CY14" s="1"/>
-      <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
-      <c r="DB14" s="1"/>
-      <c r="DC14" s="1"/>
-      <c r="DD14" s="1"/>
-      <c r="DE14" s="1"/>
-      <c r="DF14" s="1"/>
-      <c r="DG14" s="1"/>
-      <c r="DH14" s="1"/>
-      <c r="DI14" s="1"/>
-      <c r="DJ14" s="1"/>
-      <c r="DK14" s="1"/>
-      <c r="DL14" s="1"/>
-      <c r="DM14" s="1"/>
-      <c r="DN14" s="1"/>
-      <c r="DO14" s="1"/>
     </row>
     <row r="15" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="64" t="s">
+      <c r="A15" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64">
-        <v>401</v>
-      </c>
-      <c r="I15" s="64"/>
+      <c r="F15" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71">
+        <v>201</v>
+      </c>
+      <c r="I15" s="71"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2553,29 +2527,123 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
+      <c r="CZ15" s="1"/>
+      <c r="DA15" s="1"/>
+      <c r="DB15" s="1"/>
+      <c r="DC15" s="1"/>
+      <c r="DD15" s="1"/>
+      <c r="DE15" s="1"/>
+      <c r="DF15" s="1"/>
+      <c r="DG15" s="1"/>
+      <c r="DH15" s="1"/>
+      <c r="DI15" s="1"/>
+      <c r="DJ15" s="1"/>
+      <c r="DK15" s="1"/>
+      <c r="DL15" s="1"/>
+      <c r="DM15" s="1"/>
+      <c r="DN15" s="1"/>
+      <c r="DO15" s="1"/>
     </row>
     <row r="16" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="64" t="s">
+      <c r="A16" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64">
-        <v>401</v>
-      </c>
-      <c r="I16" s="64"/>
+      <c r="F16" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71">
+        <v>400</v>
+      </c>
+      <c r="I16" s="71"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2592,29 +2660,123 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1"/>
+      <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
+      <c r="DE16" s="1"/>
+      <c r="DF16" s="1"/>
+      <c r="DG16" s="1"/>
+      <c r="DH16" s="1"/>
+      <c r="DI16" s="1"/>
+      <c r="DJ16" s="1"/>
+      <c r="DK16" s="1"/>
+      <c r="DL16" s="1"/>
+      <c r="DM16" s="1"/>
+      <c r="DN16" s="1"/>
+      <c r="DO16" s="1"/>
     </row>
     <row r="17" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="64" t="s">
+      <c r="A17" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64">
-        <v>404</v>
-      </c>
-      <c r="I17" s="64"/>
+      <c r="F17" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71">
+        <v>401</v>
+      </c>
+      <c r="I17" s="71"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2633,29 +2795,25 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="67" t="s">
+      <c r="A18" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" s="67">
-        <v>200</v>
-      </c>
-      <c r="I18" s="67"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71">
+        <v>401</v>
+      </c>
+      <c r="I18" s="71"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2674,19 +2832,27 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="A19" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71">
+        <v>404</v>
+      </c>
+      <c r="I19" s="71"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2705,29 +2871,27 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="67">
-        <v>400</v>
-      </c>
-      <c r="I20" s="67"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="71">
+        <v>404</v>
+      </c>
+      <c r="I20" s="71"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2746,29 +2910,31 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="67" t="s">
+      <c r="A21" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="H21" s="67">
-        <v>400</v>
-      </c>
-      <c r="I21" s="67"/>
+      <c r="F21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="74">
+        <v>200</v>
+      </c>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2787,25 +2953,29 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="D22" s="69" t="s">
+      <c r="A22" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69">
-        <v>200</v>
-      </c>
-      <c r="I22" s="69"/>
+      <c r="E22" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2824,25 +2994,31 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69">
-        <v>401</v>
-      </c>
-      <c r="I23" s="69"/>
+      <c r="G23" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="65">
+        <v>400</v>
+      </c>
+      <c r="I23" s="65"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2861,25 +3037,31 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" s="69" t="s">
+      <c r="B24" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69">
-        <v>401</v>
-      </c>
-      <c r="I24" s="69"/>
+      <c r="E24" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="65">
+        <v>400</v>
+      </c>
+      <c r="I24" s="65"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2898,25 +3080,29 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="64" t="s">
+      <c r="A25" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="64">
+      <c r="F25" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="66">
         <v>200</v>
       </c>
-      <c r="I25" s="64"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2933,121 +3119,31 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="1"/>
-      <c r="BV25" s="1"/>
-      <c r="BW25" s="1"/>
-      <c r="BX25" s="1"/>
-      <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
-      <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
-      <c r="CG25" s="1"/>
-      <c r="CH25" s="1"/>
-      <c r="CI25" s="1"/>
-      <c r="CJ25" s="1"/>
-      <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
-      <c r="CT25" s="1"/>
-      <c r="CU25" s="1"/>
-      <c r="CV25" s="1"/>
-      <c r="CW25" s="1"/>
-      <c r="CX25" s="1"/>
-      <c r="CY25" s="1"/>
-      <c r="CZ25" s="1"/>
-      <c r="DA25" s="1"/>
-      <c r="DB25" s="1"/>
-      <c r="DC25" s="1"/>
-      <c r="DD25" s="1"/>
-      <c r="DE25" s="1"/>
-      <c r="DF25" s="1"/>
-      <c r="DG25" s="1"/>
-      <c r="DH25" s="1"/>
-      <c r="DI25" s="1"/>
-      <c r="DJ25" s="1"/>
-      <c r="DK25" s="1"/>
-      <c r="DL25" s="1"/>
-      <c r="DM25" s="1"/>
-      <c r="DN25" s="1"/>
-      <c r="DO25" s="1"/>
     </row>
     <row r="26" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="D26" s="64" t="s">
+      <c r="A26" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="64">
+      <c r="F26" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="66">
         <v>401</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3064,121 +3160,31 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
-      <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
-      <c r="BN26" s="1"/>
-      <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="1"/>
-      <c r="BR26" s="1"/>
-      <c r="BS26" s="1"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="1"/>
-      <c r="BV26" s="1"/>
-      <c r="BW26" s="1"/>
-      <c r="BX26" s="1"/>
-      <c r="BY26" s="1"/>
-      <c r="BZ26" s="1"/>
-      <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
-      <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
-      <c r="CG26" s="1"/>
-      <c r="CH26" s="1"/>
-      <c r="CI26" s="1"/>
-      <c r="CJ26" s="1"/>
-      <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
-      <c r="CT26" s="1"/>
-      <c r="CU26" s="1"/>
-      <c r="CV26" s="1"/>
-      <c r="CW26" s="1"/>
-      <c r="CX26" s="1"/>
-      <c r="CY26" s="1"/>
-      <c r="CZ26" s="1"/>
-      <c r="DA26" s="1"/>
-      <c r="DB26" s="1"/>
-      <c r="DC26" s="1"/>
-      <c r="DD26" s="1"/>
-      <c r="DE26" s="1"/>
-      <c r="DF26" s="1"/>
-      <c r="DG26" s="1"/>
-      <c r="DH26" s="1"/>
-      <c r="DI26" s="1"/>
-      <c r="DJ26" s="1"/>
-      <c r="DK26" s="1"/>
-      <c r="DL26" s="1"/>
-      <c r="DM26" s="1"/>
-      <c r="DN26" s="1"/>
-      <c r="DO26" s="1"/>
     </row>
     <row r="27" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="64" t="s">
+      <c r="A27" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="64">
+      <c r="F27" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" s="66">
         <v>401</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3195,111 +3201,27 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
-      <c r="BL27" s="1"/>
-      <c r="BM27" s="1"/>
-      <c r="BN27" s="1"/>
-      <c r="BO27" s="1"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="1"/>
-      <c r="BV27" s="1"/>
-      <c r="BW27" s="1"/>
-      <c r="BX27" s="1"/>
-      <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
-      <c r="CD27" s="1"/>
-      <c r="CE27" s="1"/>
-      <c r="CF27" s="1"/>
-      <c r="CG27" s="1"/>
-      <c r="CH27" s="1"/>
-      <c r="CI27" s="1"/>
-      <c r="CJ27" s="1"/>
-      <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
-      <c r="CT27" s="1"/>
-      <c r="CU27" s="1"/>
-      <c r="CV27" s="1"/>
-      <c r="CW27" s="1"/>
-      <c r="CX27" s="1"/>
-      <c r="CY27" s="1"/>
-      <c r="CZ27" s="1"/>
-      <c r="DA27" s="1"/>
-      <c r="DB27" s="1"/>
-      <c r="DC27" s="1"/>
-      <c r="DD27" s="1"/>
-      <c r="DE27" s="1"/>
-      <c r="DF27" s="1"/>
-      <c r="DG27" s="1"/>
-      <c r="DH27" s="1"/>
-      <c r="DI27" s="1"/>
-      <c r="DJ27" s="1"/>
-      <c r="DK27" s="1"/>
-      <c r="DL27" s="1"/>
-      <c r="DM27" s="1"/>
-      <c r="DN27" s="1"/>
-      <c r="DO27" s="1"/>
     </row>
     <row r="28" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="64">
+        <v>200</v>
+      </c>
+      <c r="I28" s="64"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3316,17 +3238,121 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
+      <c r="CZ28" s="1"/>
+      <c r="DA28" s="1"/>
+      <c r="DB28" s="1"/>
+      <c r="DC28" s="1"/>
+      <c r="DD28" s="1"/>
+      <c r="DE28" s="1"/>
+      <c r="DF28" s="1"/>
+      <c r="DG28" s="1"/>
+      <c r="DH28" s="1"/>
+      <c r="DI28" s="1"/>
+      <c r="DJ28" s="1"/>
+      <c r="DK28" s="1"/>
+      <c r="DL28" s="1"/>
+      <c r="DM28" s="1"/>
+      <c r="DN28" s="1"/>
+      <c r="DO28" s="1"/>
     </row>
     <row r="29" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="64">
+        <v>401</v>
+      </c>
+      <c r="I29" s="64"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3343,17 +3369,121 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
+      <c r="CZ29" s="1"/>
+      <c r="DA29" s="1"/>
+      <c r="DB29" s="1"/>
+      <c r="DC29" s="1"/>
+      <c r="DD29" s="1"/>
+      <c r="DE29" s="1"/>
+      <c r="DF29" s="1"/>
+      <c r="DG29" s="1"/>
+      <c r="DH29" s="1"/>
+      <c r="DI29" s="1"/>
+      <c r="DJ29" s="1"/>
+      <c r="DK29" s="1"/>
+      <c r="DL29" s="1"/>
+      <c r="DM29" s="1"/>
+      <c r="DN29" s="1"/>
+      <c r="DO29" s="1"/>
     </row>
     <row r="30" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="64">
+        <v>401</v>
+      </c>
+      <c r="I30" s="64"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3370,6 +3500,100 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
+      <c r="DA30" s="1"/>
+      <c r="DB30" s="1"/>
+      <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
+      <c r="DE30" s="1"/>
+      <c r="DF30" s="1"/>
+      <c r="DG30" s="1"/>
+      <c r="DH30" s="1"/>
+      <c r="DI30" s="1"/>
+      <c r="DJ30" s="1"/>
+      <c r="DK30" s="1"/>
+      <c r="DL30" s="1"/>
+      <c r="DM30" s="1"/>
+      <c r="DN30" s="1"/>
+      <c r="DO30" s="1"/>
     </row>
     <row r="31" spans="1:119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -28616,9 +28840,87 @@
       <c r="X965" s="1"/>
       <c r="Y965" s="1"/>
     </row>
-    <row r="966" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A966" s="1"/>
+      <c r="B966" s="1"/>
+      <c r="C966" s="1"/>
+      <c r="D966" s="1"/>
+      <c r="E966" s="1"/>
+      <c r="F966" s="1"/>
+      <c r="G966" s="1"/>
+      <c r="H966" s="1"/>
+      <c r="I966" s="1"/>
+      <c r="J966" s="1"/>
+      <c r="K966" s="1"/>
+      <c r="L966" s="1"/>
+      <c r="M966" s="1"/>
+      <c r="N966" s="1"/>
+      <c r="O966" s="1"/>
+      <c r="P966" s="1"/>
+      <c r="Q966" s="1"/>
+      <c r="R966" s="1"/>
+      <c r="S966" s="1"/>
+      <c r="T966" s="1"/>
+      <c r="U966" s="1"/>
+      <c r="V966" s="1"/>
+      <c r="W966" s="1"/>
+      <c r="X966" s="1"/>
+      <c r="Y966" s="1"/>
+    </row>
+    <row r="967" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A967" s="1"/>
+      <c r="B967" s="1"/>
+      <c r="C967" s="1"/>
+      <c r="D967" s="1"/>
+      <c r="E967" s="1"/>
+      <c r="F967" s="1"/>
+      <c r="G967" s="1"/>
+      <c r="H967" s="1"/>
+      <c r="I967" s="1"/>
+      <c r="J967" s="1"/>
+      <c r="K967" s="1"/>
+      <c r="L967" s="1"/>
+      <c r="M967" s="1"/>
+      <c r="N967" s="1"/>
+      <c r="O967" s="1"/>
+      <c r="P967" s="1"/>
+      <c r="Q967" s="1"/>
+      <c r="R967" s="1"/>
+      <c r="S967" s="1"/>
+      <c r="T967" s="1"/>
+      <c r="U967" s="1"/>
+      <c r="V967" s="1"/>
+      <c r="W967" s="1"/>
+      <c r="X967" s="1"/>
+      <c r="Y967" s="1"/>
+    </row>
+    <row r="968" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A968" s="1"/>
+      <c r="B968" s="1"/>
+      <c r="C968" s="1"/>
+      <c r="D968" s="1"/>
+      <c r="E968" s="1"/>
+      <c r="F968" s="1"/>
+      <c r="G968" s="1"/>
+      <c r="H968" s="1"/>
+      <c r="I968" s="1"/>
+      <c r="J968" s="1"/>
+      <c r="K968" s="1"/>
+      <c r="L968" s="1"/>
+      <c r="M968" s="1"/>
+      <c r="N968" s="1"/>
+      <c r="O968" s="1"/>
+      <c r="P968" s="1"/>
+      <c r="Q968" s="1"/>
+      <c r="R968" s="1"/>
+      <c r="S968" s="1"/>
+      <c r="T968" s="1"/>
+      <c r="U968" s="1"/>
+      <c r="V968" s="1"/>
+      <c r="W968" s="1"/>
+      <c r="X968" s="1"/>
+      <c r="Y968" s="1"/>
+    </row>
     <row r="969" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="970" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="971" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28646,13 +28948,12 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{3F9AAE22-B143-3242-A58F-C55E2A24C1B1}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{DACCDA94-F617-FA49-B7CF-8C8EBFE78BB0}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{F86BFBDD-9EBF-F048-87E2-22C083FE86D0}"/>
-    <hyperlink ref="F11:F13" r:id="rId4" display="dhuruvalak01@gmail.com" xr:uid="{6D346379-42AB-F741-90BB-79F8AE3F8D98}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{A36D8596-FA7D-7540-84D3-6D80C05776CD}"/>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{6C5DA17E-080D-3F48-A6CE-8BA90C254F2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -28732,7 +29033,7 @@
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -28759,7 +29060,7 @@
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>20</v>
@@ -28801,7 +29102,7 @@
         <v>400</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -28819,7 +29120,7 @@
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>20</v>
@@ -28849,7 +29150,7 @@
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51" t="s">
@@ -28883,12 +29184,12 @@
         <v>400</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B8" s="51" t="s">
         <v>23</v>
@@ -28901,10 +29202,10 @@
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>172</v>
@@ -28913,12 +29214,12 @@
         <v>400</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>23</v>
@@ -28941,7 +29242,7 @@
         <v>400</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -28977,7 +29278,7 @@
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G10" s="51">
         <v>123445</v>
@@ -28989,7 +29290,7 @@
         <v>400</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -29012,7 +29313,7 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>23</v>
@@ -29025,10 +29326,10 @@
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="54" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>21</v>
@@ -29129,7 +29430,7 @@
         <v>400</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -29279,10 +29580,10 @@
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H19" s="54" t="s">
         <v>21</v>
@@ -29353,7 +29654,7 @@
         <v>404</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -29381,7 +29682,7 @@
         <v>400</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -29559,10 +29860,10 @@
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>21</v>
@@ -29607,10 +29908,10 @@
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" s="54" t="s">
         <v>302</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>306</v>
       </c>
       <c r="H29" s="54" t="s">
         <v>56</v>
@@ -34467,10 +34768,10 @@
         <v>162</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>167</v>
@@ -34482,10 +34783,10 @@
         <v>164</v>
       </c>
       <c r="T2" s="41" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>165</v>
@@ -34494,7 +34795,7 @@
         <v>166</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
@@ -34507,10 +34808,10 @@
     </row>
     <row r="3" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>8</v>
@@ -34549,10 +34850,10 @@
     </row>
     <row r="4" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>8</v>
@@ -34582,7 +34883,7 @@
       <c r="X4" s="37"/>
       <c r="Y4" s="37"/>
       <c r="Z4" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA4" s="37"/>
       <c r="AB4" s="37"/>
@@ -34593,10 +34894,10 @@
     </row>
     <row r="5" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>8</v>
@@ -34626,7 +34927,7 @@
       <c r="X5" s="37"/>
       <c r="Y5" s="37"/>
       <c r="Z5" s="37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AA5" s="37"/>
       <c r="AB5" s="37"/>
@@ -34637,10 +34938,10 @@
     </row>
     <row r="6" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>8</v>
@@ -34669,7 +34970,7 @@
       <c r="W6" s="37"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37"/>
@@ -34681,10 +34982,10 @@
     </row>
     <row r="7" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>8</v>

--- a/src/test/resources/TestData/Team05-APISquadTestData.xlsx
+++ b/src/test/resources/TestData/Team05-APISquadTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/Team05APISquadHackathon/src/test/resources/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayau\OneDrive\Desktop\NEW REST ASSURED TEAM 5 JAN2026\Team05APISquadHackathon\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566FC588-D22C-4443-BDFF-181175BD6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D423DAE-BA89-4C85-98BA-E963006E0B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22510" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1120,11 +1120,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1650,184 +1657,184 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1837,64 +1844,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2119,14 +2129,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" customWidth="1"/>
-    <col min="11" max="25" width="21.5" customWidth="1"/>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
+    <col min="11" max="25" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:119" ht="14.25" customHeight="1">
@@ -2617,7 +2627,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:119" ht="16" customHeight="1">
+    <row r="13" spans="1:119" ht="15.95" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>258</v>
       </c>
@@ -28939,23 +28949,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="C39" zoomScale="200" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="25" style="78" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="78" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="55.6640625" customWidth="1"/>
-    <col min="11" max="28" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="78" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="55.7109375" customWidth="1"/>
+    <col min="11" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="50" customFormat="1" ht="14.25" customHeight="1">
@@ -31696,7 +31706,7 @@
     <row r="1012" ht="14.25" customHeight="1"/>
     <row r="1013" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -31706,24 +31716,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="28" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
@@ -32349,7 +32359,7 @@
       <c r="E13" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="104" t="s">
         <v>166</v>
       </c>
       <c r="G13" s="26">
@@ -34625,26 +34635,26 @@
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="67.1640625" customWidth="1"/>
-    <col min="20" max="20" width="30.5" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="67.140625" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" customWidth="1"/>
     <col min="21" max="21" width="64" customWidth="1"/>
-    <col min="24" max="24" width="87.1640625" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" customWidth="1"/>
+    <col min="24" max="24" width="87.140625" customWidth="1"/>
+    <col min="27" max="27" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.25" customHeight="1">
@@ -34745,7 +34755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16">
+    <row r="2" spans="1:32" ht="30">
       <c r="A2" s="88" t="s">
         <v>134</v>
       </c>
@@ -34815,7 +34825,7 @@
       <c r="AE2" s="89"/>
       <c r="AF2" s="89"/>
     </row>
-    <row r="3" spans="1:32" ht="16">
+    <row r="3" spans="1:32">
       <c r="A3" s="88" t="s">
         <v>270</v>
       </c>
@@ -34857,7 +34867,7 @@
       <c r="AE3" s="89"/>
       <c r="AF3" s="89"/>
     </row>
-    <row r="4" spans="1:32" ht="16">
+    <row r="4" spans="1:32">
       <c r="A4" s="95" t="s">
         <v>307</v>
       </c>
@@ -34899,7 +34909,7 @@
       <c r="AE4" s="89"/>
       <c r="AF4" s="89"/>
     </row>
-    <row r="5" spans="1:32" ht="16">
+    <row r="5" spans="1:32">
       <c r="A5" s="95" t="s">
         <v>319</v>
       </c>
@@ -34941,7 +34951,7 @@
       <c r="AE5" s="89"/>
       <c r="AF5" s="89"/>
     </row>
-    <row r="6" spans="1:32" ht="17" thickBot="1">
+    <row r="6" spans="1:32" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -34983,7 +34993,7 @@
       <c r="AE6" s="89"/>
       <c r="AF6" s="89"/>
     </row>
-    <row r="7" spans="1:32" ht="17" thickBot="1">
+    <row r="7" spans="1:32" ht="15.75" thickBot="1">
       <c r="A7" t="s">
         <v>320</v>
       </c>
@@ -35025,7 +35035,7 @@
       <c r="AE7" s="89"/>
       <c r="AF7" s="89"/>
     </row>
-    <row r="8" spans="1:32" ht="16">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -35067,7 +35077,7 @@
       <c r="AE8" s="89"/>
       <c r="AF8" s="89"/>
     </row>
-    <row r="9" spans="1:32" ht="16">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>316</v>
       </c>
@@ -35109,7 +35119,7 @@
       <c r="AE9" s="89"/>
       <c r="AF9" s="89"/>
     </row>
-    <row r="10" spans="1:32" ht="16">
+    <row r="10" spans="1:32">
       <c r="A10" s="95" t="s">
         <v>321</v>
       </c>
@@ -35829,7 +35839,7 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" ht="16" thickBot="1">
+    <row r="26" spans="1:32" ht="15.75" thickBot="1">
       <c r="A26" s="103"/>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
@@ -35863,7 +35873,7 @@
       <c r="AE26" s="103"/>
       <c r="AF26" s="103"/>
     </row>
-    <row r="27" spans="1:32" ht="16" thickBot="1">
+    <row r="27" spans="1:32" ht="15.75" thickBot="1">
       <c r="A27" s="96"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -35897,7 +35907,7 @@
       <c r="AE27" s="96"/>
       <c r="AF27" s="96"/>
     </row>
-    <row r="28" spans="1:32" ht="16" thickBot="1">
+    <row r="28" spans="1:32" ht="15.75" thickBot="1">
       <c r="A28" s="96"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
@@ -35931,7 +35941,7 @@
       <c r="AE28" s="96"/>
       <c r="AF28" s="96"/>
     </row>
-    <row r="29" spans="1:32" ht="16" thickBot="1">
+    <row r="29" spans="1:32" ht="15.75" thickBot="1">
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
@@ -35965,7 +35975,7 @@
       <c r="AE29" s="96"/>
       <c r="AF29" s="96"/>
     </row>
-    <row r="30" spans="1:32" ht="16" thickBot="1">
+    <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -35999,7 +36009,7 @@
       <c r="AE30" s="96"/>
       <c r="AF30" s="96"/>
     </row>
-    <row r="31" spans="1:32" ht="16" thickBot="1">
+    <row r="31" spans="1:32" ht="15.75" thickBot="1">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -36033,7 +36043,7 @@
       <c r="AE31" s="96"/>
       <c r="AF31" s="96"/>
     </row>
-    <row r="32" spans="1:32" ht="16" thickBot="1">
+    <row r="32" spans="1:32" ht="15.75" thickBot="1">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -36067,7 +36077,7 @@
       <c r="AE32" s="96"/>
       <c r="AF32" s="96"/>
     </row>
-    <row r="33" spans="1:32" ht="16" thickBot="1">
+    <row r="33" spans="1:32" ht="15.75" thickBot="1">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -36101,7 +36111,7 @@
       <c r="AE33" s="96"/>
       <c r="AF33" s="96"/>
     </row>
-    <row r="34" spans="1:32" ht="16" thickBot="1">
+    <row r="34" spans="1:32" ht="15.75" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -36135,7 +36145,7 @@
       <c r="AE34" s="96"/>
       <c r="AF34" s="96"/>
     </row>
-    <row r="35" spans="1:32" ht="16" thickBot="1">
+    <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96"/>
@@ -36169,7 +36179,7 @@
       <c r="AE35" s="96"/>
       <c r="AF35" s="96"/>
     </row>
-    <row r="36" spans="1:32" ht="16" thickBot="1">
+    <row r="36" spans="1:32" ht="15.75" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -36203,7 +36213,7 @@
       <c r="AE36" s="96"/>
       <c r="AF36" s="96"/>
     </row>
-    <row r="37" spans="1:32" ht="16" thickBot="1">
+    <row r="37" spans="1:32" ht="15.75" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="96"/>
       <c r="C37" s="96"/>
@@ -36237,7 +36247,7 @@
       <c r="AE37" s="96"/>
       <c r="AF37" s="96"/>
     </row>
-    <row r="38" spans="1:32" ht="16" thickBot="1">
+    <row r="38" spans="1:32" ht="15.75" thickBot="1">
       <c r="A38" s="96"/>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
@@ -36271,7 +36281,7 @@
       <c r="AE38" s="96"/>
       <c r="AF38" s="96"/>
     </row>
-    <row r="39" spans="1:32" ht="16" thickBot="1">
+    <row r="39" spans="1:32" ht="15.75" thickBot="1">
       <c r="A39" s="96"/>
       <c r="B39" s="96"/>
       <c r="C39" s="96"/>
@@ -36305,7 +36315,7 @@
       <c r="AE39" s="96"/>
       <c r="AF39" s="96"/>
     </row>
-    <row r="40" spans="1:32" ht="16" thickBot="1">
+    <row r="40" spans="1:32" ht="15.75" thickBot="1">
       <c r="A40" s="96"/>
       <c r="B40" s="96"/>
       <c r="C40" s="96"/>
@@ -36339,7 +36349,7 @@
       <c r="AE40" s="96"/>
       <c r="AF40" s="96"/>
     </row>
-    <row r="41" spans="1:32" ht="16" thickBot="1">
+    <row r="41" spans="1:32" ht="15.75" thickBot="1">
       <c r="A41" s="96"/>
       <c r="B41" s="96"/>
       <c r="C41" s="96"/>
@@ -36373,7 +36383,7 @@
       <c r="AE41" s="96"/>
       <c r="AF41" s="96"/>
     </row>
-    <row r="42" spans="1:32" ht="16" thickBot="1">
+    <row r="42" spans="1:32" ht="15.75" thickBot="1">
       <c r="A42" s="96"/>
       <c r="B42" s="96"/>
       <c r="C42" s="96"/>
@@ -36407,7 +36417,7 @@
       <c r="AE42" s="96"/>
       <c r="AF42" s="96"/>
     </row>
-    <row r="43" spans="1:32" ht="16" thickBot="1">
+    <row r="43" spans="1:32" ht="15.75" thickBot="1">
       <c r="A43" s="96"/>
       <c r="B43" s="96"/>
       <c r="C43" s="96"/>
@@ -36441,7 +36451,7 @@
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
     </row>
-    <row r="44" spans="1:32" ht="16" thickBot="1">
+    <row r="44" spans="1:32" ht="15.75" thickBot="1">
       <c r="A44" s="96"/>
       <c r="B44" s="96"/>
       <c r="C44" s="96"/>
@@ -36475,7 +36485,7 @@
       <c r="AE44" s="96"/>
       <c r="AF44" s="96"/>
     </row>
-    <row r="45" spans="1:32" ht="16" thickBot="1">
+    <row r="45" spans="1:32" ht="15.75" thickBot="1">
       <c r="A45" s="96"/>
       <c r="B45" s="96"/>
       <c r="C45" s="96"/>
@@ -36509,7 +36519,7 @@
       <c r="AE45" s="96"/>
       <c r="AF45" s="96"/>
     </row>
-    <row r="46" spans="1:32" ht="16" thickBot="1">
+    <row r="46" spans="1:32" ht="15.75" thickBot="1">
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
       <c r="C46" s="96"/>
@@ -36543,7 +36553,7 @@
       <c r="AE46" s="96"/>
       <c r="AF46" s="96"/>
     </row>
-    <row r="47" spans="1:32" ht="16" thickBot="1">
+    <row r="47" spans="1:32" ht="15.75" thickBot="1">
       <c r="A47" s="96"/>
       <c r="B47" s="96"/>
       <c r="C47" s="96"/>
@@ -36577,7 +36587,7 @@
       <c r="AE47" s="96"/>
       <c r="AF47" s="96"/>
     </row>
-    <row r="48" spans="1:32" ht="16" thickBot="1">
+    <row r="48" spans="1:32" ht="15.75" thickBot="1">
       <c r="A48" s="96"/>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
@@ -36611,7 +36621,7 @@
       <c r="AE48" s="96"/>
       <c r="AF48" s="96"/>
     </row>
-    <row r="49" spans="1:32" ht="16" thickBot="1">
+    <row r="49" spans="1:32" ht="15.75" thickBot="1">
       <c r="A49" s="96"/>
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
@@ -36645,7 +36655,7 @@
       <c r="AE49" s="96"/>
       <c r="AF49" s="96"/>
     </row>
-    <row r="50" spans="1:32" ht="16" thickBot="1">
+    <row r="50" spans="1:32" ht="15.75" thickBot="1">
       <c r="A50" s="96"/>
       <c r="B50" s="96"/>
       <c r="C50" s="96"/>
@@ -36679,7 +36689,7 @@
       <c r="AE50" s="96"/>
       <c r="AF50" s="96"/>
     </row>
-    <row r="51" spans="1:32" ht="16" thickBot="1">
+    <row r="51" spans="1:32" ht="15.75" thickBot="1">
       <c r="A51" s="96"/>
       <c r="B51" s="96"/>
       <c r="C51" s="96"/>
@@ -36713,7 +36723,7 @@
       <c r="AE51" s="96"/>
       <c r="AF51" s="96"/>
     </row>
-    <row r="52" spans="1:32" ht="16" thickBot="1">
+    <row r="52" spans="1:32" ht="15.75" thickBot="1">
       <c r="A52" s="96"/>
       <c r="B52" s="96"/>
       <c r="C52" s="96"/>
@@ -36747,7 +36757,7 @@
       <c r="AE52" s="96"/>
       <c r="AF52" s="96"/>
     </row>
-    <row r="53" spans="1:32" ht="16" thickBot="1">
+    <row r="53" spans="1:32" ht="15.75" thickBot="1">
       <c r="A53" s="96"/>
       <c r="B53" s="96"/>
       <c r="C53" s="96"/>
@@ -36781,7 +36791,7 @@
       <c r="AE53" s="96"/>
       <c r="AF53" s="96"/>
     </row>
-    <row r="54" spans="1:32" ht="16" thickBot="1">
+    <row r="54" spans="1:32" ht="15.75" thickBot="1">
       <c r="A54" s="96"/>
       <c r="B54" s="96"/>
       <c r="C54" s="96"/>
@@ -36815,7 +36825,7 @@
       <c r="AE54" s="96"/>
       <c r="AF54" s="96"/>
     </row>
-    <row r="55" spans="1:32" ht="16" thickBot="1">
+    <row r="55" spans="1:32" ht="15.75" thickBot="1">
       <c r="A55" s="96"/>
       <c r="B55" s="96"/>
       <c r="C55" s="96"/>
@@ -36849,7 +36859,7 @@
       <c r="AE55" s="96"/>
       <c r="AF55" s="96"/>
     </row>
-    <row r="56" spans="1:32" ht="16" thickBot="1">
+    <row r="56" spans="1:32" ht="15.75" thickBot="1">
       <c r="A56" s="96"/>
       <c r="B56" s="96"/>
       <c r="C56" s="96"/>
@@ -36883,7 +36893,7 @@
       <c r="AE56" s="96"/>
       <c r="AF56" s="96"/>
     </row>
-    <row r="57" spans="1:32" ht="16" thickBot="1">
+    <row r="57" spans="1:32" ht="15.75" thickBot="1">
       <c r="A57" s="96"/>
       <c r="B57" s="96"/>
       <c r="C57" s="96"/>
@@ -36917,7 +36927,7 @@
       <c r="AE57" s="96"/>
       <c r="AF57" s="96"/>
     </row>
-    <row r="58" spans="1:32" ht="16" thickBot="1">
+    <row r="58" spans="1:32" ht="15.75" thickBot="1">
       <c r="A58" s="96"/>
       <c r="B58" s="96"/>
       <c r="C58" s="96"/>
@@ -36951,7 +36961,7 @@
       <c r="AE58" s="96"/>
       <c r="AF58" s="96"/>
     </row>
-    <row r="59" spans="1:32" ht="16" thickBot="1">
+    <row r="59" spans="1:32" ht="15.75" thickBot="1">
       <c r="A59" s="96"/>
       <c r="B59" s="96"/>
       <c r="C59" s="96"/>
@@ -36985,7 +36995,7 @@
       <c r="AE59" s="96"/>
       <c r="AF59" s="96"/>
     </row>
-    <row r="60" spans="1:32" ht="16" thickBot="1">
+    <row r="60" spans="1:32" ht="15.75" thickBot="1">
       <c r="A60" s="96"/>
       <c r="B60" s="96"/>
       <c r="C60" s="96"/>
@@ -37019,7 +37029,7 @@
       <c r="AE60" s="96"/>
       <c r="AF60" s="96"/>
     </row>
-    <row r="61" spans="1:32" ht="16" thickBot="1">
+    <row r="61" spans="1:32" ht="15.75" thickBot="1">
       <c r="A61" s="96"/>
       <c r="B61" s="96"/>
       <c r="C61" s="96"/>
@@ -37053,7 +37063,7 @@
       <c r="AE61" s="96"/>
       <c r="AF61" s="96"/>
     </row>
-    <row r="62" spans="1:32" ht="16" thickBot="1">
+    <row r="62" spans="1:32" ht="15.75" thickBot="1">
       <c r="A62" s="96"/>
       <c r="B62" s="96"/>
       <c r="C62" s="96"/>
@@ -37087,7 +37097,7 @@
       <c r="AE62" s="96"/>
       <c r="AF62" s="96"/>
     </row>
-    <row r="63" spans="1:32" ht="16" thickBot="1">
+    <row r="63" spans="1:32" ht="15.75" thickBot="1">
       <c r="A63" s="96"/>
       <c r="B63" s="96"/>
       <c r="C63" s="96"/>
@@ -37121,7 +37131,7 @@
       <c r="AE63" s="96"/>
       <c r="AF63" s="96"/>
     </row>
-    <row r="64" spans="1:32" ht="16" thickBot="1">
+    <row r="64" spans="1:32" ht="15.75" thickBot="1">
       <c r="A64" s="96"/>
       <c r="B64" s="96"/>
       <c r="C64" s="96"/>
@@ -37155,7 +37165,7 @@
       <c r="AE64" s="96"/>
       <c r="AF64" s="96"/>
     </row>
-    <row r="65" spans="1:32" ht="16" thickBot="1">
+    <row r="65" spans="1:32" ht="15.75" thickBot="1">
       <c r="A65" s="96"/>
       <c r="B65" s="96"/>
       <c r="C65" s="96"/>
@@ -37189,7 +37199,7 @@
       <c r="AE65" s="96"/>
       <c r="AF65" s="96"/>
     </row>
-    <row r="66" spans="1:32" ht="16" thickBot="1">
+    <row r="66" spans="1:32" ht="15.75" thickBot="1">
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
@@ -37223,7 +37233,7 @@
       <c r="AE66" s="96"/>
       <c r="AF66" s="96"/>
     </row>
-    <row r="67" spans="1:32" ht="16" thickBot="1">
+    <row r="67" spans="1:32" ht="15.75" thickBot="1">
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
@@ -37257,7 +37267,7 @@
       <c r="AE67" s="96"/>
       <c r="AF67" s="96"/>
     </row>
-    <row r="68" spans="1:32" ht="16" thickBot="1">
+    <row r="68" spans="1:32" ht="15.75" thickBot="1">
       <c r="A68" s="96"/>
       <c r="B68" s="96"/>
       <c r="C68" s="96"/>
@@ -37291,7 +37301,7 @@
       <c r="AE68" s="96"/>
       <c r="AF68" s="96"/>
     </row>
-    <row r="69" spans="1:32" ht="16" thickBot="1">
+    <row r="69" spans="1:32" ht="15.75" thickBot="1">
       <c r="A69" s="96"/>
       <c r="B69" s="96"/>
       <c r="C69" s="96"/>
@@ -37325,7 +37335,7 @@
       <c r="AE69" s="96"/>
       <c r="AF69" s="96"/>
     </row>
-    <row r="70" spans="1:32" ht="16" thickBot="1">
+    <row r="70" spans="1:32" ht="15.75" thickBot="1">
       <c r="A70" s="96"/>
       <c r="B70" s="96"/>
       <c r="C70" s="96"/>
@@ -37359,7 +37369,7 @@
       <c r="AE70" s="96"/>
       <c r="AF70" s="96"/>
     </row>
-    <row r="71" spans="1:32" ht="16" thickBot="1">
+    <row r="71" spans="1:32" ht="15.75" thickBot="1">
       <c r="A71" s="96"/>
       <c r="B71" s="96"/>
       <c r="C71" s="96"/>
@@ -37393,7 +37403,7 @@
       <c r="AE71" s="96"/>
       <c r="AF71" s="96"/>
     </row>
-    <row r="72" spans="1:32" ht="16" thickBot="1">
+    <row r="72" spans="1:32" ht="15.75" thickBot="1">
       <c r="A72" s="96"/>
       <c r="B72" s="96"/>
       <c r="C72" s="96"/>
@@ -37427,7 +37437,7 @@
       <c r="AE72" s="96"/>
       <c r="AF72" s="96"/>
     </row>
-    <row r="73" spans="1:32" ht="16" thickBot="1">
+    <row r="73" spans="1:32" ht="15.75" thickBot="1">
       <c r="A73" s="96"/>
       <c r="B73" s="96"/>
       <c r="C73" s="96"/>
@@ -37461,7 +37471,7 @@
       <c r="AE73" s="96"/>
       <c r="AF73" s="96"/>
     </row>
-    <row r="74" spans="1:32" ht="16" thickBot="1">
+    <row r="74" spans="1:32" ht="15.75" thickBot="1">
       <c r="A74" s="96"/>
       <c r="B74" s="96"/>
       <c r="C74" s="96"/>
@@ -37495,7 +37505,7 @@
       <c r="AE74" s="96"/>
       <c r="AF74" s="96"/>
     </row>
-    <row r="75" spans="1:32" ht="16" thickBot="1">
+    <row r="75" spans="1:32" ht="15.75" thickBot="1">
       <c r="A75" s="96"/>
       <c r="B75" s="96"/>
       <c r="C75" s="96"/>
@@ -37529,7 +37539,7 @@
       <c r="AE75" s="96"/>
       <c r="AF75" s="96"/>
     </row>
-    <row r="76" spans="1:32" ht="16" thickBot="1">
+    <row r="76" spans="1:32" ht="15.75" thickBot="1">
       <c r="A76" s="96"/>
       <c r="B76" s="96"/>
       <c r="C76" s="96"/>
@@ -37563,7 +37573,7 @@
       <c r="AE76" s="96"/>
       <c r="AF76" s="96"/>
     </row>
-    <row r="77" spans="1:32" ht="16" thickBot="1">
+    <row r="77" spans="1:32" ht="15.75" thickBot="1">
       <c r="A77" s="96"/>
       <c r="B77" s="96"/>
       <c r="C77" s="96"/>
@@ -37597,7 +37607,7 @@
       <c r="AE77" s="96"/>
       <c r="AF77" s="96"/>
     </row>
-    <row r="78" spans="1:32" ht="16" thickBot="1">
+    <row r="78" spans="1:32" ht="15.75" thickBot="1">
       <c r="A78" s="96"/>
       <c r="B78" s="96"/>
       <c r="C78" s="96"/>
@@ -37631,7 +37641,7 @@
       <c r="AE78" s="96"/>
       <c r="AF78" s="96"/>
     </row>
-    <row r="79" spans="1:32" ht="16" thickBot="1">
+    <row r="79" spans="1:32" ht="15.75" thickBot="1">
       <c r="A79" s="96"/>
       <c r="B79" s="96"/>
       <c r="C79" s="96"/>
@@ -37665,7 +37675,7 @@
       <c r="AE79" s="96"/>
       <c r="AF79" s="96"/>
     </row>
-    <row r="80" spans="1:32" ht="16" thickBot="1">
+    <row r="80" spans="1:32" ht="15.75" thickBot="1">
       <c r="A80" s="96"/>
       <c r="B80" s="96"/>
       <c r="C80" s="96"/>
@@ -37699,7 +37709,7 @@
       <c r="AE80" s="96"/>
       <c r="AF80" s="96"/>
     </row>
-    <row r="81" spans="1:32" ht="16" thickBot="1">
+    <row r="81" spans="1:32" ht="15.75" thickBot="1">
       <c r="A81" s="96"/>
       <c r="B81" s="96"/>
       <c r="C81" s="96"/>
@@ -37733,7 +37743,7 @@
       <c r="AE81" s="96"/>
       <c r="AF81" s="96"/>
     </row>
-    <row r="82" spans="1:32" ht="16" thickBot="1">
+    <row r="82" spans="1:32" ht="15.75" thickBot="1">
       <c r="A82" s="96"/>
       <c r="B82" s="96"/>
       <c r="C82" s="96"/>
@@ -37767,7 +37777,7 @@
       <c r="AE82" s="96"/>
       <c r="AF82" s="96"/>
     </row>
-    <row r="83" spans="1:32" ht="16" thickBot="1">
+    <row r="83" spans="1:32" ht="15.75" thickBot="1">
       <c r="A83" s="96"/>
       <c r="B83" s="96"/>
       <c r="C83" s="96"/>
@@ -37801,7 +37811,7 @@
       <c r="AE83" s="96"/>
       <c r="AF83" s="96"/>
     </row>
-    <row r="84" spans="1:32" ht="16" thickBot="1">
+    <row r="84" spans="1:32" ht="15.75" thickBot="1">
       <c r="A84" s="96"/>
       <c r="B84" s="96"/>
       <c r="C84" s="96"/>
@@ -37835,7 +37845,7 @@
       <c r="AE84" s="96"/>
       <c r="AF84" s="96"/>
     </row>
-    <row r="85" spans="1:32" ht="16" thickBot="1">
+    <row r="85" spans="1:32" ht="15.75" thickBot="1">
       <c r="A85" s="96"/>
       <c r="B85" s="96"/>
       <c r="C85" s="96"/>
@@ -37869,7 +37879,7 @@
       <c r="AE85" s="96"/>
       <c r="AF85" s="96"/>
     </row>
-    <row r="86" spans="1:32" ht="16" thickBot="1">
+    <row r="86" spans="1:32" ht="15.75" thickBot="1">
       <c r="A86" s="96"/>
       <c r="B86" s="96"/>
       <c r="C86" s="96"/>
@@ -37903,7 +37913,7 @@
       <c r="AE86" s="96"/>
       <c r="AF86" s="96"/>
     </row>
-    <row r="87" spans="1:32" ht="16" thickBot="1">
+    <row r="87" spans="1:32" ht="15.75" thickBot="1">
       <c r="A87" s="96"/>
       <c r="B87" s="96"/>
       <c r="C87" s="96"/>
@@ -37937,7 +37947,7 @@
       <c r="AE87" s="96"/>
       <c r="AF87" s="96"/>
     </row>
-    <row r="88" spans="1:32" ht="16" thickBot="1">
+    <row r="88" spans="1:32" ht="15.75" thickBot="1">
       <c r="A88" s="96"/>
       <c r="B88" s="96"/>
       <c r="C88" s="96"/>
@@ -37971,7 +37981,7 @@
       <c r="AE88" s="96"/>
       <c r="AF88" s="96"/>
     </row>
-    <row r="89" spans="1:32" ht="16" thickBot="1">
+    <row r="89" spans="1:32" ht="15.75" thickBot="1">
       <c r="A89" s="96"/>
       <c r="B89" s="96"/>
       <c r="C89" s="96"/>
@@ -38005,7 +38015,7 @@
       <c r="AE89" s="96"/>
       <c r="AF89" s="96"/>
     </row>
-    <row r="90" spans="1:32" ht="16" thickBot="1">
+    <row r="90" spans="1:32" ht="15.75" thickBot="1">
       <c r="A90" s="96"/>
       <c r="B90" s="96"/>
       <c r="C90" s="96"/>
@@ -38039,7 +38049,7 @@
       <c r="AE90" s="96"/>
       <c r="AF90" s="96"/>
     </row>
-    <row r="91" spans="1:32" ht="16" thickBot="1">
+    <row r="91" spans="1:32" ht="15.75" thickBot="1">
       <c r="A91" s="96"/>
       <c r="B91" s="96"/>
       <c r="C91" s="96"/>
@@ -38073,7 +38083,7 @@
       <c r="AE91" s="96"/>
       <c r="AF91" s="96"/>
     </row>
-    <row r="92" spans="1:32" ht="16" thickBot="1">
+    <row r="92" spans="1:32" ht="15.75" thickBot="1">
       <c r="A92" s="96"/>
       <c r="B92" s="96"/>
       <c r="C92" s="96"/>
@@ -38107,7 +38117,7 @@
       <c r="AE92" s="96"/>
       <c r="AF92" s="96"/>
     </row>
-    <row r="93" spans="1:32" ht="16" thickBot="1">
+    <row r="93" spans="1:32" ht="15.75" thickBot="1">
       <c r="A93" s="96"/>
       <c r="B93" s="96"/>
       <c r="C93" s="96"/>
@@ -38141,7 +38151,7 @@
       <c r="AE93" s="96"/>
       <c r="AF93" s="96"/>
     </row>
-    <row r="94" spans="1:32" ht="16" thickBot="1">
+    <row r="94" spans="1:32" ht="15.75" thickBot="1">
       <c r="A94" s="96"/>
       <c r="B94" s="96"/>
       <c r="C94" s="96"/>
@@ -38175,7 +38185,7 @@
       <c r="AE94" s="96"/>
       <c r="AF94" s="96"/>
     </row>
-    <row r="95" spans="1:32" ht="16" thickBot="1">
+    <row r="95" spans="1:32" ht="15.75" thickBot="1">
       <c r="A95" s="96"/>
       <c r="B95" s="96"/>
       <c r="C95" s="96"/>
@@ -38209,7 +38219,7 @@
       <c r="AE95" s="96"/>
       <c r="AF95" s="96"/>
     </row>
-    <row r="96" spans="1:32" ht="16" thickBot="1">
+    <row r="96" spans="1:32" ht="15.75" thickBot="1">
       <c r="A96" s="96"/>
       <c r="B96" s="96"/>
       <c r="C96" s="96"/>
@@ -38243,7 +38253,7 @@
       <c r="AE96" s="96"/>
       <c r="AF96" s="96"/>
     </row>
-    <row r="97" spans="1:32" ht="16" thickBot="1">
+    <row r="97" spans="1:32" ht="15.75" thickBot="1">
       <c r="A97" s="96"/>
       <c r="B97" s="96"/>
       <c r="C97" s="96"/>
@@ -38277,7 +38287,7 @@
       <c r="AE97" s="96"/>
       <c r="AF97" s="96"/>
     </row>
-    <row r="98" spans="1:32" ht="16" thickBot="1">
+    <row r="98" spans="1:32" ht="15.75" thickBot="1">
       <c r="A98" s="96"/>
       <c r="B98" s="96"/>
       <c r="C98" s="96"/>
@@ -38311,7 +38321,7 @@
       <c r="AE98" s="96"/>
       <c r="AF98" s="96"/>
     </row>
-    <row r="99" spans="1:32" ht="16" thickBot="1">
+    <row r="99" spans="1:32" ht="15.75" thickBot="1">
       <c r="A99" s="96"/>
       <c r="B99" s="96"/>
       <c r="C99" s="96"/>
@@ -38345,7 +38355,7 @@
       <c r="AE99" s="96"/>
       <c r="AF99" s="96"/>
     </row>
-    <row r="100" spans="1:32" ht="16" thickBot="1">
+    <row r="100" spans="1:32" ht="15.75" thickBot="1">
       <c r="A100" s="96"/>
       <c r="B100" s="96"/>
       <c r="C100" s="96"/>
@@ -38379,7 +38389,7 @@
       <c r="AE100" s="96"/>
       <c r="AF100" s="96"/>
     </row>
-    <row r="101" spans="1:32" ht="16" thickBot="1">
+    <row r="101" spans="1:32" ht="15.75" thickBot="1">
       <c r="A101" s="96"/>
       <c r="B101" s="96"/>
       <c r="C101" s="96"/>
@@ -38413,7 +38423,7 @@
       <c r="AE101" s="96"/>
       <c r="AF101" s="96"/>
     </row>
-    <row r="102" spans="1:32" ht="16" thickBot="1">
+    <row r="102" spans="1:32" ht="15.75" thickBot="1">
       <c r="A102" s="96"/>
       <c r="B102" s="96"/>
       <c r="C102" s="96"/>
@@ -38447,7 +38457,7 @@
       <c r="AE102" s="96"/>
       <c r="AF102" s="96"/>
     </row>
-    <row r="103" spans="1:32" ht="16" thickBot="1">
+    <row r="103" spans="1:32" ht="15.75" thickBot="1">
       <c r="A103" s="96"/>
       <c r="B103" s="96"/>
       <c r="C103" s="96"/>
@@ -38481,7 +38491,7 @@
       <c r="AE103" s="96"/>
       <c r="AF103" s="96"/>
     </row>
-    <row r="104" spans="1:32" ht="16" thickBot="1">
+    <row r="104" spans="1:32" ht="15.75" thickBot="1">
       <c r="A104" s="96"/>
       <c r="B104" s="96"/>
       <c r="C104" s="96"/>
@@ -38515,7 +38525,7 @@
       <c r="AE104" s="96"/>
       <c r="AF104" s="96"/>
     </row>
-    <row r="105" spans="1:32" ht="16" thickBot="1">
+    <row r="105" spans="1:32" ht="15.75" thickBot="1">
       <c r="A105" s="96"/>
       <c r="B105" s="96"/>
       <c r="C105" s="96"/>
@@ -38549,7 +38559,7 @@
       <c r="AE105" s="96"/>
       <c r="AF105" s="96"/>
     </row>
-    <row r="106" spans="1:32" ht="16" thickBot="1">
+    <row r="106" spans="1:32" ht="15.75" thickBot="1">
       <c r="A106" s="96"/>
       <c r="B106" s="96"/>
       <c r="C106" s="96"/>
@@ -38583,7 +38593,7 @@
       <c r="AE106" s="96"/>
       <c r="AF106" s="96"/>
     </row>
-    <row r="107" spans="1:32" ht="16" thickBot="1">
+    <row r="107" spans="1:32" ht="15.75" thickBot="1">
       <c r="A107" s="96"/>
       <c r="B107" s="96"/>
       <c r="C107" s="96"/>
@@ -38617,7 +38627,7 @@
       <c r="AE107" s="96"/>
       <c r="AF107" s="96"/>
     </row>
-    <row r="108" spans="1:32" ht="16" thickBot="1">
+    <row r="108" spans="1:32" ht="15.75" thickBot="1">
       <c r="A108" s="96"/>
       <c r="B108" s="96"/>
       <c r="C108" s="96"/>
@@ -38651,7 +38661,7 @@
       <c r="AE108" s="96"/>
       <c r="AF108" s="96"/>
     </row>
-    <row r="109" spans="1:32" ht="16" thickBot="1">
+    <row r="109" spans="1:32" ht="15.75" thickBot="1">
       <c r="A109" s="96"/>
       <c r="B109" s="96"/>
       <c r="C109" s="96"/>
@@ -38685,7 +38695,7 @@
       <c r="AE109" s="96"/>
       <c r="AF109" s="96"/>
     </row>
-    <row r="110" spans="1:32" ht="16" thickBot="1">
+    <row r="110" spans="1:32" ht="15.75" thickBot="1">
       <c r="A110" s="96"/>
       <c r="B110" s="96"/>
       <c r="C110" s="96"/>
@@ -38719,7 +38729,7 @@
       <c r="AE110" s="96"/>
       <c r="AF110" s="96"/>
     </row>
-    <row r="111" spans="1:32" ht="16" thickBot="1">
+    <row r="111" spans="1:32" ht="15.75" thickBot="1">
       <c r="A111" s="96"/>
       <c r="B111" s="96"/>
       <c r="C111" s="96"/>
@@ -38753,7 +38763,7 @@
       <c r="AE111" s="96"/>
       <c r="AF111" s="96"/>
     </row>
-    <row r="112" spans="1:32" ht="16" thickBot="1">
+    <row r="112" spans="1:32" ht="15.75" thickBot="1">
       <c r="A112" s="96"/>
       <c r="B112" s="96"/>
       <c r="C112" s="96"/>
@@ -38787,7 +38797,7 @@
       <c r="AE112" s="96"/>
       <c r="AF112" s="96"/>
     </row>
-    <row r="113" spans="1:32" ht="16" thickBot="1">
+    <row r="113" spans="1:32" ht="15.75" thickBot="1">
       <c r="A113" s="96"/>
       <c r="B113" s="96"/>
       <c r="C113" s="96"/>
@@ -38821,7 +38831,7 @@
       <c r="AE113" s="96"/>
       <c r="AF113" s="96"/>
     </row>
-    <row r="114" spans="1:32" ht="16" thickBot="1">
+    <row r="114" spans="1:32" ht="15.75" thickBot="1">
       <c r="A114" s="96"/>
       <c r="B114" s="96"/>
       <c r="C114" s="96"/>
@@ -38855,7 +38865,7 @@
       <c r="AE114" s="96"/>
       <c r="AF114" s="96"/>
     </row>
-    <row r="115" spans="1:32" ht="16" thickBot="1">
+    <row r="115" spans="1:32" ht="15.75" thickBot="1">
       <c r="A115" s="96"/>
       <c r="B115" s="96"/>
       <c r="C115" s="96"/>
@@ -38889,7 +38899,7 @@
       <c r="AE115" s="96"/>
       <c r="AF115" s="96"/>
     </row>
-    <row r="116" spans="1:32" ht="16" thickBot="1">
+    <row r="116" spans="1:32" ht="15.75" thickBot="1">
       <c r="A116" s="96"/>
       <c r="B116" s="96"/>
       <c r="C116" s="96"/>
@@ -38923,7 +38933,7 @@
       <c r="AE116" s="96"/>
       <c r="AF116" s="96"/>
     </row>
-    <row r="117" spans="1:32" ht="16" thickBot="1">
+    <row r="117" spans="1:32" ht="15.75" thickBot="1">
       <c r="A117" s="96"/>
       <c r="B117" s="96"/>
       <c r="C117" s="96"/>
@@ -38957,7 +38967,7 @@
       <c r="AE117" s="96"/>
       <c r="AF117" s="96"/>
     </row>
-    <row r="118" spans="1:32" ht="16" thickBot="1">
+    <row r="118" spans="1:32" ht="15.75" thickBot="1">
       <c r="A118" s="96"/>
       <c r="B118" s="96"/>
       <c r="C118" s="96"/>
@@ -38991,7 +39001,7 @@
       <c r="AE118" s="96"/>
       <c r="AF118" s="96"/>
     </row>
-    <row r="119" spans="1:32" ht="16" thickBot="1">
+    <row r="119" spans="1:32" ht="15.75" thickBot="1">
       <c r="A119" s="96"/>
       <c r="B119" s="96"/>
       <c r="C119" s="96"/>
@@ -39025,7 +39035,7 @@
       <c r="AE119" s="96"/>
       <c r="AF119" s="96"/>
     </row>
-    <row r="120" spans="1:32" ht="16" thickBot="1">
+    <row r="120" spans="1:32" ht="15.75" thickBot="1">
       <c r="A120" s="96"/>
       <c r="B120" s="96"/>
       <c r="C120" s="96"/>
@@ -39059,7 +39069,7 @@
       <c r="AE120" s="96"/>
       <c r="AF120" s="96"/>
     </row>
-    <row r="121" spans="1:32" ht="16" thickBot="1">
+    <row r="121" spans="1:32" ht="15.75" thickBot="1">
       <c r="A121" s="96"/>
       <c r="B121" s="96"/>
       <c r="C121" s="96"/>
@@ -39093,7 +39103,7 @@
       <c r="AE121" s="96"/>
       <c r="AF121" s="96"/>
     </row>
-    <row r="122" spans="1:32" ht="16" thickBot="1">
+    <row r="122" spans="1:32" ht="15.75" thickBot="1">
       <c r="A122" s="96"/>
       <c r="B122" s="96"/>
       <c r="C122" s="96"/>
@@ -39127,7 +39137,7 @@
       <c r="AE122" s="96"/>
       <c r="AF122" s="96"/>
     </row>
-    <row r="123" spans="1:32" ht="16" thickBot="1">
+    <row r="123" spans="1:32" ht="15.75" thickBot="1">
       <c r="A123" s="96"/>
       <c r="B123" s="96"/>
       <c r="C123" s="96"/>
@@ -39161,7 +39171,7 @@
       <c r="AE123" s="96"/>
       <c r="AF123" s="96"/>
     </row>
-    <row r="124" spans="1:32" ht="16" thickBot="1">
+    <row r="124" spans="1:32" ht="15.75" thickBot="1">
       <c r="A124" s="96"/>
       <c r="B124" s="96"/>
       <c r="C124" s="96"/>
@@ -39195,7 +39205,7 @@
       <c r="AE124" s="96"/>
       <c r="AF124" s="96"/>
     </row>
-    <row r="125" spans="1:32" ht="16" thickBot="1">
+    <row r="125" spans="1:32" ht="15.75" thickBot="1">
       <c r="A125" s="96"/>
       <c r="B125" s="96"/>
       <c r="C125" s="96"/>
@@ -39229,7 +39239,7 @@
       <c r="AE125" s="96"/>
       <c r="AF125" s="96"/>
     </row>
-    <row r="126" spans="1:32" ht="16" thickBot="1">
+    <row r="126" spans="1:32" ht="15.75" thickBot="1">
       <c r="A126" s="96"/>
       <c r="B126" s="96"/>
       <c r="C126" s="96"/>
@@ -39263,7 +39273,7 @@
       <c r="AE126" s="96"/>
       <c r="AF126" s="96"/>
     </row>
-    <row r="127" spans="1:32" ht="16" thickBot="1">
+    <row r="127" spans="1:32" ht="15.75" thickBot="1">
       <c r="A127" s="96"/>
       <c r="B127" s="96"/>
       <c r="C127" s="96"/>
@@ -39297,7 +39307,7 @@
       <c r="AE127" s="96"/>
       <c r="AF127" s="96"/>
     </row>
-    <row r="128" spans="1:32" ht="16" thickBot="1">
+    <row r="128" spans="1:32" ht="15.75" thickBot="1">
       <c r="A128" s="96"/>
       <c r="B128" s="96"/>
       <c r="C128" s="96"/>
@@ -39331,7 +39341,7 @@
       <c r="AE128" s="96"/>
       <c r="AF128" s="96"/>
     </row>
-    <row r="129" spans="1:32" ht="16" thickBot="1">
+    <row r="129" spans="1:32" ht="15.75" thickBot="1">
       <c r="A129" s="96"/>
       <c r="B129" s="96"/>
       <c r="C129" s="96"/>
@@ -39365,7 +39375,7 @@
       <c r="AE129" s="96"/>
       <c r="AF129" s="96"/>
     </row>
-    <row r="130" spans="1:32" ht="16" thickBot="1">
+    <row r="130" spans="1:32" ht="15.75" thickBot="1">
       <c r="A130" s="96"/>
       <c r="B130" s="96"/>
       <c r="C130" s="96"/>
@@ -39399,7 +39409,7 @@
       <c r="AE130" s="96"/>
       <c r="AF130" s="96"/>
     </row>
-    <row r="131" spans="1:32" ht="16" thickBot="1">
+    <row r="131" spans="1:32" ht="15.75" thickBot="1">
       <c r="A131" s="96"/>
       <c r="B131" s="96"/>
       <c r="C131" s="96"/>
@@ -39433,7 +39443,7 @@
       <c r="AE131" s="96"/>
       <c r="AF131" s="96"/>
     </row>
-    <row r="132" spans="1:32" ht="16" thickBot="1">
+    <row r="132" spans="1:32" ht="15.75" thickBot="1">
       <c r="A132" s="96"/>
       <c r="B132" s="96"/>
       <c r="C132" s="96"/>
@@ -39467,7 +39477,7 @@
       <c r="AE132" s="96"/>
       <c r="AF132" s="96"/>
     </row>
-    <row r="133" spans="1:32" ht="16" thickBot="1">
+    <row r="133" spans="1:32" ht="15.75" thickBot="1">
       <c r="A133" s="96"/>
       <c r="B133" s="96"/>
       <c r="C133" s="96"/>
@@ -39501,7 +39511,7 @@
       <c r="AE133" s="96"/>
       <c r="AF133" s="96"/>
     </row>
-    <row r="134" spans="1:32" ht="16" thickBot="1">
+    <row r="134" spans="1:32" ht="15.75" thickBot="1">
       <c r="A134" s="96"/>
       <c r="B134" s="96"/>
       <c r="C134" s="96"/>
@@ -39535,7 +39545,7 @@
       <c r="AE134" s="96"/>
       <c r="AF134" s="96"/>
     </row>
-    <row r="135" spans="1:32" ht="16" thickBot="1">
+    <row r="135" spans="1:32" ht="15.75" thickBot="1">
       <c r="A135" s="96"/>
       <c r="B135" s="96"/>
       <c r="C135" s="96"/>
@@ -39569,7 +39579,7 @@
       <c r="AE135" s="96"/>
       <c r="AF135" s="96"/>
     </row>
-    <row r="136" spans="1:32" ht="16" thickBot="1">
+    <row r="136" spans="1:32" ht="15.75" thickBot="1">
       <c r="A136" s="96"/>
       <c r="B136" s="96"/>
       <c r="C136" s="96"/>
@@ -39603,7 +39613,7 @@
       <c r="AE136" s="96"/>
       <c r="AF136" s="96"/>
     </row>
-    <row r="137" spans="1:32" ht="16" thickBot="1">
+    <row r="137" spans="1:32" ht="15.75" thickBot="1">
       <c r="A137" s="96"/>
       <c r="B137" s="96"/>
       <c r="C137" s="96"/>
@@ -39637,7 +39647,7 @@
       <c r="AE137" s="96"/>
       <c r="AF137" s="96"/>
     </row>
-    <row r="138" spans="1:32" ht="16" thickBot="1">
+    <row r="138" spans="1:32" ht="15.75" thickBot="1">
       <c r="A138" s="96"/>
       <c r="B138" s="96"/>
       <c r="C138" s="96"/>
@@ -39671,7 +39681,7 @@
       <c r="AE138" s="96"/>
       <c r="AF138" s="96"/>
     </row>
-    <row r="139" spans="1:32" ht="16" thickBot="1">
+    <row r="139" spans="1:32" ht="15.75" thickBot="1">
       <c r="A139" s="96"/>
       <c r="B139" s="96"/>
       <c r="C139" s="96"/>
@@ -39705,7 +39715,7 @@
       <c r="AE139" s="96"/>
       <c r="AF139" s="96"/>
     </row>
-    <row r="140" spans="1:32" ht="16" thickBot="1">
+    <row r="140" spans="1:32" ht="15.75" thickBot="1">
       <c r="A140" s="96"/>
       <c r="B140" s="96"/>
       <c r="C140" s="96"/>
@@ -39739,7 +39749,7 @@
       <c r="AE140" s="96"/>
       <c r="AF140" s="96"/>
     </row>
-    <row r="141" spans="1:32" ht="16" thickBot="1">
+    <row r="141" spans="1:32" ht="15.75" thickBot="1">
       <c r="A141" s="96"/>
       <c r="B141" s="96"/>
       <c r="C141" s="96"/>
@@ -39773,7 +39783,7 @@
       <c r="AE141" s="96"/>
       <c r="AF141" s="96"/>
     </row>
-    <row r="142" spans="1:32" ht="16" thickBot="1">
+    <row r="142" spans="1:32" ht="15.75" thickBot="1">
       <c r="A142" s="96"/>
       <c r="B142" s="96"/>
       <c r="C142" s="96"/>
@@ -39807,7 +39817,7 @@
       <c r="AE142" s="96"/>
       <c r="AF142" s="96"/>
     </row>
-    <row r="143" spans="1:32" ht="16" thickBot="1">
+    <row r="143" spans="1:32" ht="15.75" thickBot="1">
       <c r="A143" s="96"/>
       <c r="B143" s="96"/>
       <c r="C143" s="96"/>
@@ -39841,7 +39851,7 @@
       <c r="AE143" s="96"/>
       <c r="AF143" s="96"/>
     </row>
-    <row r="144" spans="1:32" ht="16" thickBot="1">
+    <row r="144" spans="1:32" ht="15.75" thickBot="1">
       <c r="A144" s="96"/>
       <c r="B144" s="96"/>
       <c r="C144" s="96"/>
@@ -39875,7 +39885,7 @@
       <c r="AE144" s="96"/>
       <c r="AF144" s="96"/>
     </row>
-    <row r="145" spans="1:32" ht="16" thickBot="1">
+    <row r="145" spans="1:32" ht="15.75" thickBot="1">
       <c r="A145" s="96"/>
       <c r="B145" s="96"/>
       <c r="C145" s="96"/>
@@ -39909,7 +39919,7 @@
       <c r="AE145" s="96"/>
       <c r="AF145" s="96"/>
     </row>
-    <row r="146" spans="1:32" ht="16" thickBot="1">
+    <row r="146" spans="1:32" ht="15.75" thickBot="1">
       <c r="A146" s="96"/>
       <c r="B146" s="96"/>
       <c r="C146" s="96"/>
@@ -39943,7 +39953,7 @@
       <c r="AE146" s="96"/>
       <c r="AF146" s="96"/>
     </row>
-    <row r="147" spans="1:32" ht="16" thickBot="1">
+    <row r="147" spans="1:32" ht="15.75" thickBot="1">
       <c r="A147" s="96"/>
       <c r="B147" s="96"/>
       <c r="C147" s="96"/>
@@ -39977,7 +39987,7 @@
       <c r="AE147" s="96"/>
       <c r="AF147" s="96"/>
     </row>
-    <row r="148" spans="1:32" ht="16" thickBot="1">
+    <row r="148" spans="1:32" ht="15.75" thickBot="1">
       <c r="A148" s="96"/>
       <c r="B148" s="96"/>
       <c r="C148" s="96"/>
@@ -40011,7 +40021,7 @@
       <c r="AE148" s="96"/>
       <c r="AF148" s="96"/>
     </row>
-    <row r="149" spans="1:32" ht="16" thickBot="1">
+    <row r="149" spans="1:32" ht="15.75" thickBot="1">
       <c r="A149" s="96"/>
       <c r="B149" s="96"/>
       <c r="C149" s="96"/>
@@ -40045,7 +40055,7 @@
       <c r="AE149" s="96"/>
       <c r="AF149" s="96"/>
     </row>
-    <row r="150" spans="1:32" ht="16" thickBot="1">
+    <row r="150" spans="1:32" ht="15.75" thickBot="1">
       <c r="A150" s="96"/>
       <c r="B150" s="96"/>
       <c r="C150" s="96"/>
@@ -40079,7 +40089,7 @@
       <c r="AE150" s="96"/>
       <c r="AF150" s="96"/>
     </row>
-    <row r="151" spans="1:32" ht="16" thickBot="1">
+    <row r="151" spans="1:32" ht="15.75" thickBot="1">
       <c r="A151" s="96"/>
       <c r="B151" s="96"/>
       <c r="C151" s="96"/>
@@ -40113,7 +40123,7 @@
       <c r="AE151" s="96"/>
       <c r="AF151" s="96"/>
     </row>
-    <row r="152" spans="1:32" ht="16" thickBot="1">
+    <row r="152" spans="1:32" ht="15.75" thickBot="1">
       <c r="A152" s="96"/>
       <c r="B152" s="96"/>
       <c r="C152" s="96"/>
@@ -40147,7 +40157,7 @@
       <c r="AE152" s="96"/>
       <c r="AF152" s="96"/>
     </row>
-    <row r="153" spans="1:32" ht="16" thickBot="1">
+    <row r="153" spans="1:32" ht="15.75" thickBot="1">
       <c r="A153" s="96"/>
       <c r="B153" s="96"/>
       <c r="C153" s="96"/>
@@ -40181,7 +40191,7 @@
       <c r="AE153" s="96"/>
       <c r="AF153" s="96"/>
     </row>
-    <row r="154" spans="1:32" ht="16" thickBot="1">
+    <row r="154" spans="1:32" ht="15.75" thickBot="1">
       <c r="A154" s="96"/>
       <c r="B154" s="96"/>
       <c r="C154" s="96"/>
@@ -40215,7 +40225,7 @@
       <c r="AE154" s="96"/>
       <c r="AF154" s="96"/>
     </row>
-    <row r="155" spans="1:32" ht="16" thickBot="1">
+    <row r="155" spans="1:32" ht="15.75" thickBot="1">
       <c r="A155" s="96"/>
       <c r="B155" s="96"/>
       <c r="C155" s="96"/>
@@ -40249,7 +40259,7 @@
       <c r="AE155" s="96"/>
       <c r="AF155" s="96"/>
     </row>
-    <row r="156" spans="1:32" ht="16" thickBot="1">
+    <row r="156" spans="1:32" ht="15.75" thickBot="1">
       <c r="A156" s="96"/>
       <c r="B156" s="96"/>
       <c r="C156" s="96"/>
@@ -40283,7 +40293,7 @@
       <c r="AE156" s="96"/>
       <c r="AF156" s="96"/>
     </row>
-    <row r="157" spans="1:32" ht="16" thickBot="1">
+    <row r="157" spans="1:32" ht="15.75" thickBot="1">
       <c r="A157" s="96"/>
       <c r="B157" s="96"/>
       <c r="C157" s="96"/>
@@ -40317,7 +40327,7 @@
       <c r="AE157" s="96"/>
       <c r="AF157" s="96"/>
     </row>
-    <row r="158" spans="1:32" ht="16" thickBot="1">
+    <row r="158" spans="1:32" ht="15.75" thickBot="1">
       <c r="A158" s="96"/>
       <c r="B158" s="96"/>
       <c r="C158" s="96"/>
@@ -40351,7 +40361,7 @@
       <c r="AE158" s="96"/>
       <c r="AF158" s="96"/>
     </row>
-    <row r="159" spans="1:32" ht="16" thickBot="1">
+    <row r="159" spans="1:32" ht="15.75" thickBot="1">
       <c r="A159" s="96"/>
       <c r="B159" s="96"/>
       <c r="C159" s="96"/>
@@ -40385,7 +40395,7 @@
       <c r="AE159" s="96"/>
       <c r="AF159" s="96"/>
     </row>
-    <row r="160" spans="1:32" ht="16" thickBot="1">
+    <row r="160" spans="1:32" ht="15.75" thickBot="1">
       <c r="A160" s="96"/>
       <c r="B160" s="96"/>
       <c r="C160" s="96"/>
@@ -40419,7 +40429,7 @@
       <c r="AE160" s="96"/>
       <c r="AF160" s="96"/>
     </row>
-    <row r="161" spans="1:32" ht="16" thickBot="1">
+    <row r="161" spans="1:32" ht="15.75" thickBot="1">
       <c r="A161" s="96"/>
       <c r="B161" s="96"/>
       <c r="C161" s="96"/>
@@ -40453,7 +40463,7 @@
       <c r="AE161" s="96"/>
       <c r="AF161" s="96"/>
     </row>
-    <row r="162" spans="1:32" ht="16" thickBot="1">
+    <row r="162" spans="1:32" ht="15.75" thickBot="1">
       <c r="A162" s="96"/>
       <c r="B162" s="96"/>
       <c r="C162" s="96"/>
@@ -40487,7 +40497,7 @@
       <c r="AE162" s="96"/>
       <c r="AF162" s="96"/>
     </row>
-    <row r="163" spans="1:32" ht="16" thickBot="1">
+    <row r="163" spans="1:32" ht="15.75" thickBot="1">
       <c r="A163" s="96"/>
       <c r="B163" s="96"/>
       <c r="C163" s="96"/>
@@ -40521,7 +40531,7 @@
       <c r="AE163" s="96"/>
       <c r="AF163" s="96"/>
     </row>
-    <row r="164" spans="1:32" ht="16" thickBot="1">
+    <row r="164" spans="1:32" ht="15.75" thickBot="1">
       <c r="A164" s="96"/>
       <c r="B164" s="96"/>
       <c r="C164" s="96"/>
@@ -40555,7 +40565,7 @@
       <c r="AE164" s="96"/>
       <c r="AF164" s="96"/>
     </row>
-    <row r="165" spans="1:32" ht="16" thickBot="1">
+    <row r="165" spans="1:32" ht="15.75" thickBot="1">
       <c r="A165" s="96"/>
       <c r="B165" s="96"/>
       <c r="C165" s="96"/>
@@ -40589,7 +40599,7 @@
       <c r="AE165" s="96"/>
       <c r="AF165" s="96"/>
     </row>
-    <row r="166" spans="1:32" ht="16" thickBot="1">
+    <row r="166" spans="1:32" ht="15.75" thickBot="1">
       <c r="A166" s="96"/>
       <c r="B166" s="96"/>
       <c r="C166" s="96"/>
@@ -40623,7 +40633,7 @@
       <c r="AE166" s="96"/>
       <c r="AF166" s="96"/>
     </row>
-    <row r="167" spans="1:32" ht="16" thickBot="1">
+    <row r="167" spans="1:32" ht="15.75" thickBot="1">
       <c r="A167" s="96"/>
       <c r="B167" s="96"/>
       <c r="C167" s="96"/>
@@ -40657,7 +40667,7 @@
       <c r="AE167" s="96"/>
       <c r="AF167" s="96"/>
     </row>
-    <row r="168" spans="1:32" ht="16" thickBot="1">
+    <row r="168" spans="1:32" ht="15.75" thickBot="1">
       <c r="A168" s="96"/>
       <c r="B168" s="96"/>
       <c r="C168" s="96"/>
@@ -40691,7 +40701,7 @@
       <c r="AE168" s="96"/>
       <c r="AF168" s="96"/>
     </row>
-    <row r="169" spans="1:32" ht="16" thickBot="1">
+    <row r="169" spans="1:32" ht="15.75" thickBot="1">
       <c r="A169" s="96"/>
       <c r="B169" s="96"/>
       <c r="C169" s="96"/>
@@ -40725,7 +40735,7 @@
       <c r="AE169" s="96"/>
       <c r="AF169" s="96"/>
     </row>
-    <row r="170" spans="1:32" ht="16" thickBot="1">
+    <row r="170" spans="1:32" ht="15.75" thickBot="1">
       <c r="A170" s="96"/>
       <c r="B170" s="96"/>
       <c r="C170" s="96"/>
@@ -40759,7 +40769,7 @@
       <c r="AE170" s="96"/>
       <c r="AF170" s="96"/>
     </row>
-    <row r="171" spans="1:32" ht="16" thickBot="1">
+    <row r="171" spans="1:32" ht="15.75" thickBot="1">
       <c r="A171" s="96"/>
       <c r="B171" s="96"/>
       <c r="C171" s="96"/>
@@ -40793,7 +40803,7 @@
       <c r="AE171" s="96"/>
       <c r="AF171" s="96"/>
     </row>
-    <row r="172" spans="1:32" ht="16" thickBot="1">
+    <row r="172" spans="1:32" ht="15.75" thickBot="1">
       <c r="A172" s="96"/>
       <c r="B172" s="96"/>
       <c r="C172" s="96"/>
@@ -40827,7 +40837,7 @@
       <c r="AE172" s="96"/>
       <c r="AF172" s="96"/>
     </row>
-    <row r="173" spans="1:32" ht="16" thickBot="1">
+    <row r="173" spans="1:32" ht="15.75" thickBot="1">
       <c r="A173" s="96"/>
       <c r="B173" s="96"/>
       <c r="C173" s="96"/>
@@ -40861,7 +40871,7 @@
       <c r="AE173" s="96"/>
       <c r="AF173" s="96"/>
     </row>
-    <row r="174" spans="1:32" ht="16" thickBot="1">
+    <row r="174" spans="1:32" ht="15.75" thickBot="1">
       <c r="A174" s="96"/>
       <c r="B174" s="96"/>
       <c r="C174" s="96"/>
@@ -40895,7 +40905,7 @@
       <c r="AE174" s="96"/>
       <c r="AF174" s="96"/>
     </row>
-    <row r="175" spans="1:32" ht="16" thickBot="1">
+    <row r="175" spans="1:32" ht="15.75" thickBot="1">
       <c r="A175" s="96"/>
       <c r="B175" s="96"/>
       <c r="C175" s="96"/>
@@ -40929,7 +40939,7 @@
       <c r="AE175" s="96"/>
       <c r="AF175" s="96"/>
     </row>
-    <row r="176" spans="1:32" ht="16" thickBot="1">
+    <row r="176" spans="1:32" ht="15.75" thickBot="1">
       <c r="A176" s="96"/>
       <c r="B176" s="96"/>
       <c r="C176" s="96"/>
@@ -40963,7 +40973,7 @@
       <c r="AE176" s="96"/>
       <c r="AF176" s="96"/>
     </row>
-    <row r="177" spans="1:32" ht="16" thickBot="1">
+    <row r="177" spans="1:32" ht="15.75" thickBot="1">
       <c r="A177" s="96"/>
       <c r="B177" s="96"/>
       <c r="C177" s="96"/>
@@ -40997,7 +41007,7 @@
       <c r="AE177" s="96"/>
       <c r="AF177" s="96"/>
     </row>
-    <row r="178" spans="1:32" ht="16" thickBot="1">
+    <row r="178" spans="1:32" ht="15.75" thickBot="1">
       <c r="A178" s="96"/>
       <c r="B178" s="96"/>
       <c r="C178" s="96"/>
@@ -41031,7 +41041,7 @@
       <c r="AE178" s="96"/>
       <c r="AF178" s="96"/>
     </row>
-    <row r="179" spans="1:32" ht="16" thickBot="1">
+    <row r="179" spans="1:32" ht="15.75" thickBot="1">
       <c r="A179" s="96"/>
       <c r="B179" s="96"/>
       <c r="C179" s="96"/>
@@ -41065,7 +41075,7 @@
       <c r="AE179" s="96"/>
       <c r="AF179" s="96"/>
     </row>
-    <row r="180" spans="1:32" ht="16" thickBot="1">
+    <row r="180" spans="1:32" ht="15.75" thickBot="1">
       <c r="A180" s="96"/>
       <c r="B180" s="96"/>
       <c r="C180" s="96"/>
@@ -41099,7 +41109,7 @@
       <c r="AE180" s="96"/>
       <c r="AF180" s="96"/>
     </row>
-    <row r="181" spans="1:32" ht="16" thickBot="1">
+    <row r="181" spans="1:32" ht="15.75" thickBot="1">
       <c r="A181" s="96"/>
       <c r="B181" s="96"/>
       <c r="C181" s="96"/>
@@ -41133,7 +41143,7 @@
       <c r="AE181" s="96"/>
       <c r="AF181" s="96"/>
     </row>
-    <row r="182" spans="1:32" ht="16" thickBot="1">
+    <row r="182" spans="1:32" ht="15.75" thickBot="1">
       <c r="A182" s="96"/>
       <c r="B182" s="96"/>
       <c r="C182" s="96"/>
@@ -41167,7 +41177,7 @@
       <c r="AE182" s="96"/>
       <c r="AF182" s="96"/>
     </row>
-    <row r="183" spans="1:32" ht="16" thickBot="1">
+    <row r="183" spans="1:32" ht="15.75" thickBot="1">
       <c r="A183" s="96"/>
       <c r="B183" s="96"/>
       <c r="C183" s="96"/>
@@ -41201,7 +41211,7 @@
       <c r="AE183" s="96"/>
       <c r="AF183" s="96"/>
     </row>
-    <row r="184" spans="1:32" ht="16" thickBot="1">
+    <row r="184" spans="1:32" ht="15.75" thickBot="1">
       <c r="A184" s="96"/>
       <c r="B184" s="96"/>
       <c r="C184" s="96"/>
@@ -41235,7 +41245,7 @@
       <c r="AE184" s="96"/>
       <c r="AF184" s="96"/>
     </row>
-    <row r="185" spans="1:32" ht="16" thickBot="1">
+    <row r="185" spans="1:32" ht="15.75" thickBot="1">
       <c r="A185" s="96"/>
       <c r="B185" s="96"/>
       <c r="C185" s="96"/>
@@ -41269,7 +41279,7 @@
       <c r="AE185" s="96"/>
       <c r="AF185" s="96"/>
     </row>
-    <row r="186" spans="1:32" ht="16" thickBot="1">
+    <row r="186" spans="1:32" ht="15.75" thickBot="1">
       <c r="A186" s="96"/>
       <c r="B186" s="96"/>
       <c r="C186" s="96"/>
@@ -41303,7 +41313,7 @@
       <c r="AE186" s="96"/>
       <c r="AF186" s="96"/>
     </row>
-    <row r="187" spans="1:32" ht="16" thickBot="1">
+    <row r="187" spans="1:32" ht="15.75" thickBot="1">
       <c r="A187" s="96"/>
       <c r="B187" s="96"/>
       <c r="C187" s="96"/>
@@ -41337,7 +41347,7 @@
       <c r="AE187" s="96"/>
       <c r="AF187" s="96"/>
     </row>
-    <row r="188" spans="1:32" ht="16" thickBot="1">
+    <row r="188" spans="1:32" ht="15.75" thickBot="1">
       <c r="A188" s="96"/>
       <c r="B188" s="96"/>
       <c r="C188" s="96"/>
@@ -41371,7 +41381,7 @@
       <c r="AE188" s="96"/>
       <c r="AF188" s="96"/>
     </row>
-    <row r="189" spans="1:32" ht="16" thickBot="1">
+    <row r="189" spans="1:32" ht="15.75" thickBot="1">
       <c r="A189" s="96"/>
       <c r="B189" s="96"/>
       <c r="C189" s="96"/>
@@ -41405,7 +41415,7 @@
       <c r="AE189" s="96"/>
       <c r="AF189" s="96"/>
     </row>
-    <row r="190" spans="1:32" ht="16" thickBot="1">
+    <row r="190" spans="1:32" ht="15.75" thickBot="1">
       <c r="A190" s="96"/>
       <c r="B190" s="96"/>
       <c r="C190" s="96"/>
@@ -41439,7 +41449,7 @@
       <c r="AE190" s="96"/>
       <c r="AF190" s="96"/>
     </row>
-    <row r="191" spans="1:32" ht="16" thickBot="1">
+    <row r="191" spans="1:32" ht="15.75" thickBot="1">
       <c r="A191" s="96"/>
       <c r="B191" s="96"/>
       <c r="C191" s="96"/>
@@ -41473,7 +41483,7 @@
       <c r="AE191" s="96"/>
       <c r="AF191" s="96"/>
     </row>
-    <row r="192" spans="1:32" ht="16" thickBot="1">
+    <row r="192" spans="1:32" ht="15.75" thickBot="1">
       <c r="A192" s="96"/>
       <c r="B192" s="96"/>
       <c r="C192" s="96"/>
@@ -41507,7 +41517,7 @@
       <c r="AE192" s="96"/>
       <c r="AF192" s="96"/>
     </row>
-    <row r="193" spans="1:32" ht="16" thickBot="1">
+    <row r="193" spans="1:32" ht="15.75" thickBot="1">
       <c r="A193" s="96"/>
       <c r="B193" s="96"/>
       <c r="C193" s="96"/>
@@ -41541,7 +41551,7 @@
       <c r="AE193" s="96"/>
       <c r="AF193" s="96"/>
     </row>
-    <row r="194" spans="1:32" ht="16" thickBot="1">
+    <row r="194" spans="1:32" ht="15.75" thickBot="1">
       <c r="A194" s="96"/>
       <c r="B194" s="96"/>
       <c r="C194" s="96"/>
@@ -41575,7 +41585,7 @@
       <c r="AE194" s="96"/>
       <c r="AF194" s="96"/>
     </row>
-    <row r="195" spans="1:32" ht="16" thickBot="1">
+    <row r="195" spans="1:32" ht="15.75" thickBot="1">
       <c r="A195" s="96"/>
       <c r="B195" s="96"/>
       <c r="C195" s="96"/>
@@ -41609,7 +41619,7 @@
       <c r="AE195" s="96"/>
       <c r="AF195" s="96"/>
     </row>
-    <row r="196" spans="1:32" ht="16" thickBot="1">
+    <row r="196" spans="1:32" ht="15.75" thickBot="1">
       <c r="A196" s="96"/>
       <c r="B196" s="96"/>
       <c r="C196" s="96"/>
@@ -41643,7 +41653,7 @@
       <c r="AE196" s="96"/>
       <c r="AF196" s="96"/>
     </row>
-    <row r="197" spans="1:32" ht="16" thickBot="1">
+    <row r="197" spans="1:32" ht="15.75" thickBot="1">
       <c r="A197" s="96"/>
       <c r="B197" s="96"/>
       <c r="C197" s="96"/>
@@ -41677,7 +41687,7 @@
       <c r="AE197" s="96"/>
       <c r="AF197" s="96"/>
     </row>
-    <row r="198" spans="1:32" ht="16" thickBot="1">
+    <row r="198" spans="1:32" ht="15.75" thickBot="1">
       <c r="A198" s="96"/>
       <c r="B198" s="96"/>
       <c r="C198" s="96"/>
@@ -41711,7 +41721,7 @@
       <c r="AE198" s="96"/>
       <c r="AF198" s="96"/>
     </row>
-    <row r="199" spans="1:32" ht="16" thickBot="1">
+    <row r="199" spans="1:32" ht="15.75" thickBot="1">
       <c r="A199" s="96"/>
       <c r="B199" s="96"/>
       <c r="C199" s="96"/>
@@ -41745,7 +41755,7 @@
       <c r="AE199" s="96"/>
       <c r="AF199" s="96"/>
     </row>
-    <row r="200" spans="1:32" ht="16" thickBot="1">
+    <row r="200" spans="1:32" ht="15.75" thickBot="1">
       <c r="A200" s="96"/>
       <c r="B200" s="96"/>
       <c r="C200" s="96"/>
@@ -41779,7 +41789,7 @@
       <c r="AE200" s="96"/>
       <c r="AF200" s="96"/>
     </row>
-    <row r="201" spans="1:32" ht="16" thickBot="1">
+    <row r="201" spans="1:32" ht="15.75" thickBot="1">
       <c r="A201" s="96"/>
       <c r="B201" s="96"/>
       <c r="C201" s="96"/>
@@ -41813,7 +41823,7 @@
       <c r="AE201" s="96"/>
       <c r="AF201" s="96"/>
     </row>
-    <row r="202" spans="1:32" ht="16" thickBot="1">
+    <row r="202" spans="1:32" ht="15.75" thickBot="1">
       <c r="A202" s="96"/>
       <c r="B202" s="96"/>
       <c r="C202" s="96"/>
@@ -41847,7 +41857,7 @@
       <c r="AE202" s="96"/>
       <c r="AF202" s="96"/>
     </row>
-    <row r="203" spans="1:32" ht="16" thickBot="1">
+    <row r="203" spans="1:32" ht="15.75" thickBot="1">
       <c r="A203" s="96"/>
       <c r="B203" s="96"/>
       <c r="C203" s="96"/>
@@ -41881,7 +41891,7 @@
       <c r="AE203" s="96"/>
       <c r="AF203" s="96"/>
     </row>
-    <row r="204" spans="1:32" ht="16" thickBot="1">
+    <row r="204" spans="1:32" ht="15.75" thickBot="1">
       <c r="A204" s="96"/>
       <c r="B204" s="96"/>
       <c r="C204" s="96"/>
@@ -41915,7 +41925,7 @@
       <c r="AE204" s="96"/>
       <c r="AF204" s="96"/>
     </row>
-    <row r="205" spans="1:32" ht="16" thickBot="1">
+    <row r="205" spans="1:32" ht="15.75" thickBot="1">
       <c r="A205" s="96"/>
       <c r="B205" s="96"/>
       <c r="C205" s="96"/>
@@ -41949,7 +41959,7 @@
       <c r="AE205" s="96"/>
       <c r="AF205" s="96"/>
     </row>
-    <row r="206" spans="1:32" ht="16" thickBot="1">
+    <row r="206" spans="1:32" ht="15.75" thickBot="1">
       <c r="A206" s="96"/>
       <c r="B206" s="96"/>
       <c r="C206" s="96"/>
@@ -41983,7 +41993,7 @@
       <c r="AE206" s="96"/>
       <c r="AF206" s="96"/>
     </row>
-    <row r="207" spans="1:32" ht="16" thickBot="1">
+    <row r="207" spans="1:32" ht="15.75" thickBot="1">
       <c r="A207" s="96"/>
       <c r="B207" s="96"/>
       <c r="C207" s="96"/>
@@ -42017,7 +42027,7 @@
       <c r="AE207" s="96"/>
       <c r="AF207" s="96"/>
     </row>
-    <row r="208" spans="1:32" ht="16" thickBot="1">
+    <row r="208" spans="1:32" ht="15.75" thickBot="1">
       <c r="A208" s="96"/>
       <c r="B208" s="96"/>
       <c r="C208" s="96"/>
@@ -42051,7 +42061,7 @@
       <c r="AE208" s="96"/>
       <c r="AF208" s="96"/>
     </row>
-    <row r="209" spans="1:32" ht="16" thickBot="1">
+    <row r="209" spans="1:32" ht="15.75" thickBot="1">
       <c r="A209" s="96"/>
       <c r="B209" s="96"/>
       <c r="C209" s="96"/>
@@ -42085,7 +42095,7 @@
       <c r="AE209" s="96"/>
       <c r="AF209" s="96"/>
     </row>
-    <row r="210" spans="1:32" ht="16" thickBot="1">
+    <row r="210" spans="1:32" ht="15.75" thickBot="1">
       <c r="A210" s="96"/>
       <c r="B210" s="96"/>
       <c r="C210" s="96"/>
@@ -42119,7 +42129,7 @@
       <c r="AE210" s="96"/>
       <c r="AF210" s="96"/>
     </row>
-    <row r="211" spans="1:32" ht="16" thickBot="1">
+    <row r="211" spans="1:32" ht="15.75" thickBot="1">
       <c r="A211" s="96"/>
       <c r="B211" s="96"/>
       <c r="C211" s="96"/>
@@ -42153,7 +42163,7 @@
       <c r="AE211" s="96"/>
       <c r="AF211" s="96"/>
     </row>
-    <row r="212" spans="1:32" ht="16" thickBot="1">
+    <row r="212" spans="1:32" ht="15.75" thickBot="1">
       <c r="A212" s="96"/>
       <c r="B212" s="96"/>
       <c r="C212" s="96"/>
@@ -42187,7 +42197,7 @@
       <c r="AE212" s="96"/>
       <c r="AF212" s="96"/>
     </row>
-    <row r="213" spans="1:32" ht="16" thickBot="1">
+    <row r="213" spans="1:32" ht="15.75" thickBot="1">
       <c r="A213" s="96"/>
       <c r="B213" s="96"/>
       <c r="C213" s="96"/>
@@ -42221,7 +42231,7 @@
       <c r="AE213" s="96"/>
       <c r="AF213" s="96"/>
     </row>
-    <row r="214" spans="1:32" ht="16" thickBot="1">
+    <row r="214" spans="1:32" ht="15.75" thickBot="1">
       <c r="A214" s="96"/>
       <c r="B214" s="96"/>
       <c r="C214" s="96"/>
@@ -42255,7 +42265,7 @@
       <c r="AE214" s="96"/>
       <c r="AF214" s="96"/>
     </row>
-    <row r="215" spans="1:32" ht="16" thickBot="1">
+    <row r="215" spans="1:32" ht="15.75" thickBot="1">
       <c r="A215" s="96"/>
       <c r="B215" s="96"/>
       <c r="C215" s="96"/>
@@ -42289,7 +42299,7 @@
       <c r="AE215" s="96"/>
       <c r="AF215" s="96"/>
     </row>
-    <row r="216" spans="1:32" ht="16" thickBot="1">
+    <row r="216" spans="1:32" ht="15.75" thickBot="1">
       <c r="A216" s="96"/>
       <c r="B216" s="96"/>
       <c r="C216" s="96"/>
@@ -42323,7 +42333,7 @@
       <c r="AE216" s="96"/>
       <c r="AF216" s="96"/>
     </row>
-    <row r="217" spans="1:32" ht="16" thickBot="1">
+    <row r="217" spans="1:32" ht="15.75" thickBot="1">
       <c r="A217" s="96"/>
       <c r="B217" s="96"/>
       <c r="C217" s="96"/>
@@ -42357,7 +42367,7 @@
       <c r="AE217" s="96"/>
       <c r="AF217" s="96"/>
     </row>
-    <row r="218" spans="1:32" ht="16" thickBot="1">
+    <row r="218" spans="1:32" ht="15.75" thickBot="1">
       <c r="A218" s="96"/>
       <c r="B218" s="96"/>
       <c r="C218" s="96"/>
@@ -42391,7 +42401,7 @@
       <c r="AE218" s="96"/>
       <c r="AF218" s="96"/>
     </row>
-    <row r="219" spans="1:32" ht="16" thickBot="1">
+    <row r="219" spans="1:32" ht="15.75" thickBot="1">
       <c r="A219" s="96"/>
       <c r="B219" s="96"/>
       <c r="C219" s="96"/>
@@ -42425,7 +42435,7 @@
       <c r="AE219" s="96"/>
       <c r="AF219" s="96"/>
     </row>
-    <row r="220" spans="1:32" ht="16" thickBot="1">
+    <row r="220" spans="1:32" ht="15.75" thickBot="1">
       <c r="A220" s="96"/>
       <c r="B220" s="96"/>
       <c r="C220" s="96"/>
@@ -42459,7 +42469,7 @@
       <c r="AE220" s="96"/>
       <c r="AF220" s="96"/>
     </row>
-    <row r="221" spans="1:32" ht="16" thickBot="1">
+    <row r="221" spans="1:32" ht="15.75" thickBot="1">
       <c r="A221" s="96"/>
       <c r="B221" s="96"/>
       <c r="C221" s="96"/>
@@ -42493,7 +42503,7 @@
       <c r="AE221" s="96"/>
       <c r="AF221" s="96"/>
     </row>
-    <row r="222" spans="1:32" ht="16" thickBot="1">
+    <row r="222" spans="1:32" ht="15.75" thickBot="1">
       <c r="A222" s="96"/>
       <c r="B222" s="96"/>
       <c r="C222" s="96"/>
@@ -42527,7 +42537,7 @@
       <c r="AE222" s="96"/>
       <c r="AF222" s="96"/>
     </row>
-    <row r="223" spans="1:32" ht="16" thickBot="1">
+    <row r="223" spans="1:32" ht="15.75" thickBot="1">
       <c r="A223" s="96"/>
       <c r="B223" s="96"/>
       <c r="C223" s="96"/>
@@ -42561,7 +42571,7 @@
       <c r="AE223" s="96"/>
       <c r="AF223" s="96"/>
     </row>
-    <row r="224" spans="1:32" ht="16" thickBot="1">
+    <row r="224" spans="1:32" ht="15.75" thickBot="1">
       <c r="A224" s="96"/>
       <c r="B224" s="96"/>
       <c r="C224" s="96"/>
@@ -42595,7 +42605,7 @@
       <c r="AE224" s="96"/>
       <c r="AF224" s="96"/>
     </row>
-    <row r="225" spans="1:32" ht="16" thickBot="1">
+    <row r="225" spans="1:32" ht="15.75" thickBot="1">
       <c r="A225" s="96"/>
       <c r="B225" s="96"/>
       <c r="C225" s="96"/>
@@ -42629,7 +42639,7 @@
       <c r="AE225" s="96"/>
       <c r="AF225" s="96"/>
     </row>
-    <row r="226" spans="1:32" ht="16" thickBot="1">
+    <row r="226" spans="1:32" ht="15.75" thickBot="1">
       <c r="A226" s="96"/>
       <c r="B226" s="96"/>
       <c r="C226" s="96"/>
@@ -42663,7 +42673,7 @@
       <c r="AE226" s="96"/>
       <c r="AF226" s="96"/>
     </row>
-    <row r="227" spans="1:32" ht="16" thickBot="1">
+    <row r="227" spans="1:32" ht="15.75" thickBot="1">
       <c r="A227" s="96"/>
       <c r="B227" s="96"/>
       <c r="C227" s="96"/>
@@ -42697,7 +42707,7 @@
       <c r="AE227" s="96"/>
       <c r="AF227" s="96"/>
     </row>
-    <row r="228" spans="1:32" ht="16" thickBot="1">
+    <row r="228" spans="1:32" ht="15.75" thickBot="1">
       <c r="A228" s="96"/>
       <c r="B228" s="96"/>
       <c r="C228" s="96"/>
@@ -42731,7 +42741,7 @@
       <c r="AE228" s="96"/>
       <c r="AF228" s="96"/>
     </row>
-    <row r="229" spans="1:32" ht="16" thickBot="1">
+    <row r="229" spans="1:32" ht="15.75" thickBot="1">
       <c r="A229" s="96"/>
       <c r="B229" s="96"/>
       <c r="C229" s="96"/>
@@ -42765,7 +42775,7 @@
       <c r="AE229" s="96"/>
       <c r="AF229" s="96"/>
     </row>
-    <row r="230" spans="1:32" ht="16" thickBot="1">
+    <row r="230" spans="1:32" ht="15.75" thickBot="1">
       <c r="A230" s="96"/>
       <c r="B230" s="96"/>
       <c r="C230" s="96"/>
@@ -42799,7 +42809,7 @@
       <c r="AE230" s="96"/>
       <c r="AF230" s="96"/>
     </row>
-    <row r="231" spans="1:32" ht="16" thickBot="1">
+    <row r="231" spans="1:32" ht="15.75" thickBot="1">
       <c r="A231" s="96"/>
       <c r="B231" s="96"/>
       <c r="C231" s="96"/>
@@ -42833,7 +42843,7 @@
       <c r="AE231" s="96"/>
       <c r="AF231" s="96"/>
     </row>
-    <row r="232" spans="1:32" ht="16" thickBot="1">
+    <row r="232" spans="1:32" ht="15.75" thickBot="1">
       <c r="A232" s="96"/>
       <c r="B232" s="96"/>
       <c r="C232" s="96"/>
@@ -42867,7 +42877,7 @@
       <c r="AE232" s="96"/>
       <c r="AF232" s="96"/>
     </row>
-    <row r="233" spans="1:32" ht="16" thickBot="1">
+    <row r="233" spans="1:32" ht="15.75" thickBot="1">
       <c r="A233" s="96"/>
       <c r="B233" s="96"/>
       <c r="C233" s="96"/>
@@ -42901,7 +42911,7 @@
       <c r="AE233" s="96"/>
       <c r="AF233" s="96"/>
     </row>
-    <row r="234" spans="1:32" ht="16" thickBot="1">
+    <row r="234" spans="1:32" ht="15.75" thickBot="1">
       <c r="A234" s="96"/>
       <c r="B234" s="96"/>
       <c r="C234" s="96"/>
@@ -42935,7 +42945,7 @@
       <c r="AE234" s="96"/>
       <c r="AF234" s="96"/>
     </row>
-    <row r="235" spans="1:32" ht="16" thickBot="1">
+    <row r="235" spans="1:32" ht="15.75" thickBot="1">
       <c r="A235" s="96"/>
       <c r="B235" s="96"/>
       <c r="C235" s="96"/>
@@ -42969,7 +42979,7 @@
       <c r="AE235" s="96"/>
       <c r="AF235" s="96"/>
     </row>
-    <row r="236" spans="1:32" ht="16" thickBot="1">
+    <row r="236" spans="1:32" ht="15.75" thickBot="1">
       <c r="A236" s="96"/>
       <c r="B236" s="96"/>
       <c r="C236" s="96"/>
@@ -43003,7 +43013,7 @@
       <c r="AE236" s="96"/>
       <c r="AF236" s="96"/>
     </row>
-    <row r="237" spans="1:32" ht="16" thickBot="1">
+    <row r="237" spans="1:32" ht="15.75" thickBot="1">
       <c r="A237" s="96"/>
       <c r="B237" s="96"/>
       <c r="C237" s="96"/>
@@ -43037,7 +43047,7 @@
       <c r="AE237" s="96"/>
       <c r="AF237" s="96"/>
     </row>
-    <row r="238" spans="1:32" ht="16" thickBot="1">
+    <row r="238" spans="1:32" ht="15.75" thickBot="1">
       <c r="A238" s="96"/>
       <c r="B238" s="96"/>
       <c r="C238" s="96"/>
@@ -43071,7 +43081,7 @@
       <c r="AE238" s="96"/>
       <c r="AF238" s="96"/>
     </row>
-    <row r="239" spans="1:32" ht="16" thickBot="1">
+    <row r="239" spans="1:32" ht="15.75" thickBot="1">
       <c r="A239" s="96"/>
       <c r="B239" s="96"/>
       <c r="C239" s="96"/>
@@ -43105,7 +43115,7 @@
       <c r="AE239" s="96"/>
       <c r="AF239" s="96"/>
     </row>
-    <row r="240" spans="1:32" ht="16" thickBot="1">
+    <row r="240" spans="1:32" ht="15.75" thickBot="1">
       <c r="A240" s="96"/>
       <c r="B240" s="96"/>
       <c r="C240" s="96"/>
@@ -43139,7 +43149,7 @@
       <c r="AE240" s="96"/>
       <c r="AF240" s="96"/>
     </row>
-    <row r="241" spans="1:32" ht="16" thickBot="1">
+    <row r="241" spans="1:32" ht="15.75" thickBot="1">
       <c r="A241" s="96"/>
       <c r="B241" s="96"/>
       <c r="C241" s="96"/>
@@ -43173,7 +43183,7 @@
       <c r="AE241" s="96"/>
       <c r="AF241" s="96"/>
     </row>
-    <row r="242" spans="1:32" ht="16" thickBot="1">
+    <row r="242" spans="1:32" ht="15.75" thickBot="1">
       <c r="A242" s="96"/>
       <c r="B242" s="96"/>
       <c r="C242" s="96"/>
@@ -43207,7 +43217,7 @@
       <c r="AE242" s="96"/>
       <c r="AF242" s="96"/>
     </row>
-    <row r="243" spans="1:32" ht="16" thickBot="1">
+    <row r="243" spans="1:32" ht="15.75" thickBot="1">
       <c r="A243" s="96"/>
       <c r="B243" s="96"/>
       <c r="C243" s="96"/>
@@ -43241,7 +43251,7 @@
       <c r="AE243" s="96"/>
       <c r="AF243" s="96"/>
     </row>
-    <row r="244" spans="1:32" ht="16" thickBot="1">
+    <row r="244" spans="1:32" ht="15.75" thickBot="1">
       <c r="A244" s="96"/>
       <c r="B244" s="96"/>
       <c r="C244" s="96"/>
@@ -43275,7 +43285,7 @@
       <c r="AE244" s="96"/>
       <c r="AF244" s="96"/>
     </row>
-    <row r="245" spans="1:32" ht="16" thickBot="1">
+    <row r="245" spans="1:32" ht="15.75" thickBot="1">
       <c r="A245" s="96"/>
       <c r="B245" s="96"/>
       <c r="C245" s="96"/>
@@ -43309,7 +43319,7 @@
       <c r="AE245" s="96"/>
       <c r="AF245" s="96"/>
     </row>
-    <row r="246" spans="1:32" ht="16" thickBot="1">
+    <row r="246" spans="1:32" ht="15.75" thickBot="1">
       <c r="A246" s="96"/>
       <c r="B246" s="96"/>
       <c r="C246" s="96"/>
@@ -43343,7 +43353,7 @@
       <c r="AE246" s="96"/>
       <c r="AF246" s="96"/>
     </row>
-    <row r="247" spans="1:32" ht="16" thickBot="1">
+    <row r="247" spans="1:32" ht="15.75" thickBot="1">
       <c r="A247" s="96"/>
       <c r="B247" s="96"/>
       <c r="C247" s="96"/>
@@ -43377,7 +43387,7 @@
       <c r="AE247" s="96"/>
       <c r="AF247" s="96"/>
     </row>
-    <row r="248" spans="1:32" ht="16" thickBot="1">
+    <row r="248" spans="1:32" ht="15.75" thickBot="1">
       <c r="A248" s="96"/>
       <c r="B248" s="96"/>
       <c r="C248" s="96"/>
@@ -43411,7 +43421,7 @@
       <c r="AE248" s="96"/>
       <c r="AF248" s="96"/>
     </row>
-    <row r="249" spans="1:32" ht="16" thickBot="1">
+    <row r="249" spans="1:32" ht="15.75" thickBot="1">
       <c r="A249" s="96"/>
       <c r="B249" s="96"/>
       <c r="C249" s="96"/>
@@ -43445,7 +43455,7 @@
       <c r="AE249" s="96"/>
       <c r="AF249" s="96"/>
     </row>
-    <row r="250" spans="1:32" ht="16" thickBot="1">
+    <row r="250" spans="1:32" ht="15.75" thickBot="1">
       <c r="A250" s="96"/>
       <c r="B250" s="96"/>
       <c r="C250" s="96"/>
@@ -43479,7 +43489,7 @@
       <c r="AE250" s="96"/>
       <c r="AF250" s="96"/>
     </row>
-    <row r="251" spans="1:32" ht="16" thickBot="1">
+    <row r="251" spans="1:32" ht="15.75" thickBot="1">
       <c r="A251" s="96"/>
       <c r="B251" s="96"/>
       <c r="C251" s="96"/>
@@ -43513,7 +43523,7 @@
       <c r="AE251" s="96"/>
       <c r="AF251" s="96"/>
     </row>
-    <row r="252" spans="1:32" ht="16" thickBot="1">
+    <row r="252" spans="1:32" ht="15.75" thickBot="1">
       <c r="A252" s="96"/>
       <c r="B252" s="96"/>
       <c r="C252" s="96"/>
@@ -43547,7 +43557,7 @@
       <c r="AE252" s="96"/>
       <c r="AF252" s="96"/>
     </row>
-    <row r="253" spans="1:32" ht="16" thickBot="1">
+    <row r="253" spans="1:32" ht="15.75" thickBot="1">
       <c r="A253" s="96"/>
       <c r="B253" s="96"/>
       <c r="C253" s="96"/>
@@ -43581,7 +43591,7 @@
       <c r="AE253" s="96"/>
       <c r="AF253" s="96"/>
     </row>
-    <row r="254" spans="1:32" ht="16" thickBot="1">
+    <row r="254" spans="1:32" ht="15.75" thickBot="1">
       <c r="A254" s="96"/>
       <c r="B254" s="96"/>
       <c r="C254" s="96"/>
@@ -43615,7 +43625,7 @@
       <c r="AE254" s="96"/>
       <c r="AF254" s="96"/>
     </row>
-    <row r="255" spans="1:32" ht="16" thickBot="1">
+    <row r="255" spans="1:32" ht="15.75" thickBot="1">
       <c r="A255" s="96"/>
       <c r="B255" s="96"/>
       <c r="C255" s="96"/>
@@ -43649,7 +43659,7 @@
       <c r="AE255" s="96"/>
       <c r="AF255" s="96"/>
     </row>
-    <row r="256" spans="1:32" ht="16" thickBot="1">
+    <row r="256" spans="1:32" ht="15.75" thickBot="1">
       <c r="A256" s="96"/>
       <c r="B256" s="96"/>
       <c r="C256" s="96"/>
@@ -43683,7 +43693,7 @@
       <c r="AE256" s="96"/>
       <c r="AF256" s="96"/>
     </row>
-    <row r="257" spans="1:32" ht="16" thickBot="1">
+    <row r="257" spans="1:32" ht="15.75" thickBot="1">
       <c r="A257" s="96"/>
       <c r="B257" s="96"/>
       <c r="C257" s="96"/>
@@ -43717,7 +43727,7 @@
       <c r="AE257" s="96"/>
       <c r="AF257" s="96"/>
     </row>
-    <row r="258" spans="1:32" ht="16" thickBot="1">
+    <row r="258" spans="1:32" ht="15.75" thickBot="1">
       <c r="A258" s="96"/>
       <c r="B258" s="96"/>
       <c r="C258" s="96"/>
@@ -43751,7 +43761,7 @@
       <c r="AE258" s="96"/>
       <c r="AF258" s="96"/>
     </row>
-    <row r="259" spans="1:32" ht="16" thickBot="1">
+    <row r="259" spans="1:32" ht="15.75" thickBot="1">
       <c r="A259" s="96"/>
       <c r="B259" s="96"/>
       <c r="C259" s="96"/>
@@ -43785,7 +43795,7 @@
       <c r="AE259" s="96"/>
       <c r="AF259" s="96"/>
     </row>
-    <row r="260" spans="1:32" ht="16" thickBot="1">
+    <row r="260" spans="1:32" ht="15.75" thickBot="1">
       <c r="A260" s="96"/>
       <c r="B260" s="96"/>
       <c r="C260" s="96"/>
@@ -43819,7 +43829,7 @@
       <c r="AE260" s="96"/>
       <c r="AF260" s="96"/>
     </row>
-    <row r="261" spans="1:32" ht="16" thickBot="1">
+    <row r="261" spans="1:32" ht="15.75" thickBot="1">
       <c r="A261" s="96"/>
       <c r="B261" s="96"/>
       <c r="C261" s="96"/>
@@ -43853,7 +43863,7 @@
       <c r="AE261" s="96"/>
       <c r="AF261" s="96"/>
     </row>
-    <row r="262" spans="1:32" ht="16" thickBot="1">
+    <row r="262" spans="1:32" ht="15.75" thickBot="1">
       <c r="A262" s="96"/>
       <c r="B262" s="96"/>
       <c r="C262" s="96"/>
@@ -43887,7 +43897,7 @@
       <c r="AE262" s="96"/>
       <c r="AF262" s="96"/>
     </row>
-    <row r="263" spans="1:32" ht="16" thickBot="1">
+    <row r="263" spans="1:32" ht="15.75" thickBot="1">
       <c r="A263" s="96"/>
       <c r="B263" s="96"/>
       <c r="C263" s="96"/>
@@ -43921,7 +43931,7 @@
       <c r="AE263" s="96"/>
       <c r="AF263" s="96"/>
     </row>
-    <row r="264" spans="1:32" ht="16" thickBot="1">
+    <row r="264" spans="1:32" ht="15.75" thickBot="1">
       <c r="A264" s="96"/>
       <c r="B264" s="96"/>
       <c r="C264" s="96"/>
@@ -43955,7 +43965,7 @@
       <c r="AE264" s="96"/>
       <c r="AF264" s="96"/>
     </row>
-    <row r="265" spans="1:32" ht="16" thickBot="1">
+    <row r="265" spans="1:32" ht="15.75" thickBot="1">
       <c r="A265" s="96"/>
       <c r="B265" s="96"/>
       <c r="C265" s="96"/>
@@ -43989,7 +43999,7 @@
       <c r="AE265" s="96"/>
       <c r="AF265" s="96"/>
     </row>
-    <row r="266" spans="1:32" ht="16" thickBot="1">
+    <row r="266" spans="1:32" ht="15.75" thickBot="1">
       <c r="A266" s="96"/>
       <c r="B266" s="96"/>
       <c r="C266" s="96"/>
@@ -44023,7 +44033,7 @@
       <c r="AE266" s="96"/>
       <c r="AF266" s="96"/>
     </row>
-    <row r="267" spans="1:32" ht="16" thickBot="1">
+    <row r="267" spans="1:32" ht="15.75" thickBot="1">
       <c r="A267" s="96"/>
       <c r="B267" s="96"/>
       <c r="C267" s="96"/>
@@ -44057,7 +44067,7 @@
       <c r="AE267" s="96"/>
       <c r="AF267" s="96"/>
     </row>
-    <row r="268" spans="1:32" ht="16" thickBot="1">
+    <row r="268" spans="1:32" ht="15.75" thickBot="1">
       <c r="A268" s="96"/>
       <c r="B268" s="96"/>
       <c r="C268" s="96"/>
@@ -44091,7 +44101,7 @@
       <c r="AE268" s="96"/>
       <c r="AF268" s="96"/>
     </row>
-    <row r="269" spans="1:32" ht="16" thickBot="1">
+    <row r="269" spans="1:32" ht="15.75" thickBot="1">
       <c r="A269" s="96"/>
       <c r="B269" s="96"/>
       <c r="C269" s="96"/>
@@ -44125,7 +44135,7 @@
       <c r="AE269" s="96"/>
       <c r="AF269" s="96"/>
     </row>
-    <row r="270" spans="1:32" ht="16" thickBot="1">
+    <row r="270" spans="1:32" ht="15.75" thickBot="1">
       <c r="A270" s="96"/>
       <c r="B270" s="96"/>
       <c r="C270" s="96"/>
@@ -44159,7 +44169,7 @@
       <c r="AE270" s="96"/>
       <c r="AF270" s="96"/>
     </row>
-    <row r="271" spans="1:32" ht="16" thickBot="1">
+    <row r="271" spans="1:32" ht="15.75" thickBot="1">
       <c r="A271" s="96"/>
       <c r="B271" s="96"/>
       <c r="C271" s="96"/>
@@ -44193,7 +44203,7 @@
       <c r="AE271" s="96"/>
       <c r="AF271" s="96"/>
     </row>
-    <row r="272" spans="1:32" ht="16" thickBot="1">
+    <row r="272" spans="1:32" ht="15.75" thickBot="1">
       <c r="A272" s="96"/>
       <c r="B272" s="96"/>
       <c r="C272" s="96"/>
@@ -44227,7 +44237,7 @@
       <c r="AE272" s="96"/>
       <c r="AF272" s="96"/>
     </row>
-    <row r="273" spans="1:32" ht="16" thickBot="1">
+    <row r="273" spans="1:32" ht="15.75" thickBot="1">
       <c r="A273" s="96"/>
       <c r="B273" s="96"/>
       <c r="C273" s="96"/>
@@ -44261,7 +44271,7 @@
       <c r="AE273" s="96"/>
       <c r="AF273" s="96"/>
     </row>
-    <row r="274" spans="1:32" ht="16" thickBot="1">
+    <row r="274" spans="1:32" ht="15.75" thickBot="1">
       <c r="A274" s="96"/>
       <c r="B274" s="96"/>
       <c r="C274" s="96"/>
@@ -44295,7 +44305,7 @@
       <c r="AE274" s="96"/>
       <c r="AF274" s="96"/>
     </row>
-    <row r="275" spans="1:32" ht="16" thickBot="1">
+    <row r="275" spans="1:32" ht="15.75" thickBot="1">
       <c r="A275" s="96"/>
       <c r="B275" s="96"/>
       <c r="C275" s="96"/>
@@ -44329,7 +44339,7 @@
       <c r="AE275" s="96"/>
       <c r="AF275" s="96"/>
     </row>
-    <row r="276" spans="1:32" ht="16" thickBot="1">
+    <row r="276" spans="1:32" ht="15.75" thickBot="1">
       <c r="A276" s="96"/>
       <c r="B276" s="96"/>
       <c r="C276" s="96"/>
@@ -44363,7 +44373,7 @@
       <c r="AE276" s="96"/>
       <c r="AF276" s="96"/>
     </row>
-    <row r="277" spans="1:32" ht="16" thickBot="1">
+    <row r="277" spans="1:32" ht="15.75" thickBot="1">
       <c r="A277" s="96"/>
       <c r="B277" s="96"/>
       <c r="C277" s="96"/>
@@ -44397,7 +44407,7 @@
       <c r="AE277" s="96"/>
       <c r="AF277" s="96"/>
     </row>
-    <row r="278" spans="1:32" ht="16" thickBot="1">
+    <row r="278" spans="1:32" ht="15.75" thickBot="1">
       <c r="A278" s="96"/>
       <c r="B278" s="96"/>
       <c r="C278" s="96"/>
@@ -44431,7 +44441,7 @@
       <c r="AE278" s="96"/>
       <c r="AF278" s="96"/>
     </row>
-    <row r="279" spans="1:32" ht="16" thickBot="1">
+    <row r="279" spans="1:32" ht="15.75" thickBot="1">
       <c r="A279" s="96"/>
       <c r="B279" s="96"/>
       <c r="C279" s="96"/>
@@ -44465,7 +44475,7 @@
       <c r="AE279" s="96"/>
       <c r="AF279" s="96"/>
     </row>
-    <row r="280" spans="1:32" ht="16" thickBot="1">
+    <row r="280" spans="1:32" ht="15.75" thickBot="1">
       <c r="A280" s="96"/>
       <c r="B280" s="96"/>
       <c r="C280" s="96"/>
@@ -44499,7 +44509,7 @@
       <c r="AE280" s="96"/>
       <c r="AF280" s="96"/>
     </row>
-    <row r="281" spans="1:32" ht="16" thickBot="1">
+    <row r="281" spans="1:32" ht="15.75" thickBot="1">
       <c r="A281" s="96"/>
       <c r="B281" s="96"/>
       <c r="C281" s="96"/>
@@ -44533,7 +44543,7 @@
       <c r="AE281" s="96"/>
       <c r="AF281" s="96"/>
     </row>
-    <row r="282" spans="1:32" ht="16" thickBot="1">
+    <row r="282" spans="1:32" ht="15.75" thickBot="1">
       <c r="A282" s="96"/>
       <c r="B282" s="96"/>
       <c r="C282" s="96"/>
@@ -44567,7 +44577,7 @@
       <c r="AE282" s="96"/>
       <c r="AF282" s="96"/>
     </row>
-    <row r="283" spans="1:32" ht="16" thickBot="1">
+    <row r="283" spans="1:32" ht="15.75" thickBot="1">
       <c r="A283" s="96"/>
       <c r="B283" s="96"/>
       <c r="C283" s="96"/>
@@ -44601,7 +44611,7 @@
       <c r="AE283" s="96"/>
       <c r="AF283" s="96"/>
     </row>
-    <row r="284" spans="1:32" ht="16" thickBot="1">
+    <row r="284" spans="1:32" ht="15.75" thickBot="1">
       <c r="A284" s="96"/>
       <c r="B284" s="96"/>
       <c r="C284" s="96"/>
@@ -44635,7 +44645,7 @@
       <c r="AE284" s="96"/>
       <c r="AF284" s="96"/>
     </row>
-    <row r="285" spans="1:32" ht="16" thickBot="1">
+    <row r="285" spans="1:32" ht="15.75" thickBot="1">
       <c r="A285" s="96"/>
       <c r="B285" s="96"/>
       <c r="C285" s="96"/>
@@ -44669,7 +44679,7 @@
       <c r="AE285" s="96"/>
       <c r="AF285" s="96"/>
     </row>
-    <row r="286" spans="1:32" ht="16" thickBot="1">
+    <row r="286" spans="1:32" ht="15.75" thickBot="1">
       <c r="A286" s="96"/>
       <c r="B286" s="96"/>
       <c r="C286" s="96"/>
@@ -44703,7 +44713,7 @@
       <c r="AE286" s="96"/>
       <c r="AF286" s="96"/>
     </row>
-    <row r="287" spans="1:32" ht="16" thickBot="1">
+    <row r="287" spans="1:32" ht="15.75" thickBot="1">
       <c r="A287" s="96"/>
       <c r="B287" s="96"/>
       <c r="C287" s="96"/>
@@ -44737,7 +44747,7 @@
       <c r="AE287" s="96"/>
       <c r="AF287" s="96"/>
     </row>
-    <row r="288" spans="1:32" ht="16" thickBot="1">
+    <row r="288" spans="1:32" ht="15.75" thickBot="1">
       <c r="A288" s="96"/>
       <c r="B288" s="96"/>
       <c r="C288" s="96"/>
@@ -44771,7 +44781,7 @@
       <c r="AE288" s="96"/>
       <c r="AF288" s="96"/>
     </row>
-    <row r="289" spans="1:32" ht="16" thickBot="1">
+    <row r="289" spans="1:32" ht="15.75" thickBot="1">
       <c r="A289" s="96"/>
       <c r="B289" s="96"/>
       <c r="C289" s="96"/>
@@ -44805,7 +44815,7 @@
       <c r="AE289" s="96"/>
       <c r="AF289" s="96"/>
     </row>
-    <row r="290" spans="1:32" ht="16" thickBot="1">
+    <row r="290" spans="1:32" ht="15.75" thickBot="1">
       <c r="A290" s="96"/>
       <c r="B290" s="96"/>
       <c r="C290" s="96"/>
@@ -44839,7 +44849,7 @@
       <c r="AE290" s="96"/>
       <c r="AF290" s="96"/>
     </row>
-    <row r="291" spans="1:32" ht="16" thickBot="1">
+    <row r="291" spans="1:32" ht="15.75" thickBot="1">
       <c r="A291" s="96"/>
       <c r="B291" s="96"/>
       <c r="C291" s="96"/>
@@ -44873,7 +44883,7 @@
       <c r="AE291" s="96"/>
       <c r="AF291" s="96"/>
     </row>
-    <row r="292" spans="1:32" ht="16" thickBot="1">
+    <row r="292" spans="1:32" ht="15.75" thickBot="1">
       <c r="A292" s="96"/>
       <c r="B292" s="96"/>
       <c r="C292" s="96"/>
@@ -44907,7 +44917,7 @@
       <c r="AE292" s="96"/>
       <c r="AF292" s="96"/>
     </row>
-    <row r="293" spans="1:32" ht="16" thickBot="1">
+    <row r="293" spans="1:32" ht="15.75" thickBot="1">
       <c r="A293" s="96"/>
       <c r="B293" s="96"/>
       <c r="C293" s="96"/>
@@ -44941,7 +44951,7 @@
       <c r="AE293" s="96"/>
       <c r="AF293" s="96"/>
     </row>
-    <row r="294" spans="1:32" ht="16" thickBot="1">
+    <row r="294" spans="1:32" ht="15.75" thickBot="1">
       <c r="A294" s="96"/>
       <c r="B294" s="96"/>
       <c r="C294" s="96"/>
@@ -44975,7 +44985,7 @@
       <c r="AE294" s="96"/>
       <c r="AF294" s="96"/>
     </row>
-    <row r="295" spans="1:32" ht="16" thickBot="1">
+    <row r="295" spans="1:32" ht="15.75" thickBot="1">
       <c r="A295" s="96"/>
       <c r="B295" s="96"/>
       <c r="C295" s="96"/>
@@ -45009,7 +45019,7 @@
       <c r="AE295" s="96"/>
       <c r="AF295" s="96"/>
     </row>
-    <row r="296" spans="1:32" ht="16" thickBot="1">
+    <row r="296" spans="1:32" ht="15.75" thickBot="1">
       <c r="A296" s="96"/>
       <c r="B296" s="96"/>
       <c r="C296" s="96"/>
@@ -45043,7 +45053,7 @@
       <c r="AE296" s="96"/>
       <c r="AF296" s="96"/>
     </row>
-    <row r="297" spans="1:32" ht="16" thickBot="1">
+    <row r="297" spans="1:32" ht="15.75" thickBot="1">
       <c r="A297" s="96"/>
       <c r="B297" s="96"/>
       <c r="C297" s="96"/>
@@ -45077,7 +45087,7 @@
       <c r="AE297" s="96"/>
       <c r="AF297" s="96"/>
     </row>
-    <row r="298" spans="1:32" ht="16" thickBot="1">
+    <row r="298" spans="1:32" ht="15.75" thickBot="1">
       <c r="A298" s="96"/>
       <c r="B298" s="96"/>
       <c r="C298" s="96"/>
@@ -45111,7 +45121,7 @@
       <c r="AE298" s="96"/>
       <c r="AF298" s="96"/>
     </row>
-    <row r="299" spans="1:32" ht="16" thickBot="1">
+    <row r="299" spans="1:32" ht="15.75" thickBot="1">
       <c r="A299" s="96"/>
       <c r="B299" s="96"/>
       <c r="C299" s="96"/>
@@ -45145,7 +45155,7 @@
       <c r="AE299" s="96"/>
       <c r="AF299" s="96"/>
     </row>
-    <row r="300" spans="1:32" ht="16" thickBot="1">
+    <row r="300" spans="1:32" ht="15.75" thickBot="1">
       <c r="A300" s="96"/>
       <c r="B300" s="96"/>
       <c r="C300" s="96"/>
@@ -45179,7 +45189,7 @@
       <c r="AE300" s="96"/>
       <c r="AF300" s="96"/>
     </row>
-    <row r="301" spans="1:32" ht="16" thickBot="1">
+    <row r="301" spans="1:32" ht="15.75" thickBot="1">
       <c r="A301" s="96"/>
       <c r="B301" s="96"/>
       <c r="C301" s="96"/>
@@ -45213,7 +45223,7 @@
       <c r="AE301" s="96"/>
       <c r="AF301" s="96"/>
     </row>
-    <row r="302" spans="1:32" ht="16" thickBot="1">
+    <row r="302" spans="1:32" ht="15.75" thickBot="1">
       <c r="A302" s="96"/>
       <c r="B302" s="96"/>
       <c r="C302" s="96"/>
@@ -45247,7 +45257,7 @@
       <c r="AE302" s="96"/>
       <c r="AF302" s="96"/>
     </row>
-    <row r="303" spans="1:32" ht="16" thickBot="1">
+    <row r="303" spans="1:32" ht="15.75" thickBot="1">
       <c r="A303" s="96"/>
       <c r="B303" s="96"/>
       <c r="C303" s="96"/>
@@ -45281,7 +45291,7 @@
       <c r="AE303" s="96"/>
       <c r="AF303" s="96"/>
     </row>
-    <row r="304" spans="1:32" ht="16" thickBot="1">
+    <row r="304" spans="1:32" ht="15.75" thickBot="1">
       <c r="A304" s="96"/>
       <c r="B304" s="96"/>
       <c r="C304" s="96"/>
@@ -45315,7 +45325,7 @@
       <c r="AE304" s="96"/>
       <c r="AF304" s="96"/>
     </row>
-    <row r="305" spans="1:32" ht="16" thickBot="1">
+    <row r="305" spans="1:32" ht="15.75" thickBot="1">
       <c r="A305" s="96"/>
       <c r="B305" s="96"/>
       <c r="C305" s="96"/>
@@ -45349,7 +45359,7 @@
       <c r="AE305" s="96"/>
       <c r="AF305" s="96"/>
     </row>
-    <row r="306" spans="1:32" ht="16" thickBot="1">
+    <row r="306" spans="1:32" ht="15.75" thickBot="1">
       <c r="A306" s="96"/>
       <c r="B306" s="96"/>
       <c r="C306" s="96"/>
@@ -45383,7 +45393,7 @@
       <c r="AE306" s="96"/>
       <c r="AF306" s="96"/>
     </row>
-    <row r="307" spans="1:32" ht="16" thickBot="1">
+    <row r="307" spans="1:32" ht="15.75" thickBot="1">
       <c r="A307" s="96"/>
       <c r="B307" s="96"/>
       <c r="C307" s="96"/>
@@ -45417,7 +45427,7 @@
       <c r="AE307" s="96"/>
       <c r="AF307" s="96"/>
     </row>
-    <row r="308" spans="1:32" ht="16" thickBot="1">
+    <row r="308" spans="1:32" ht="15.75" thickBot="1">
       <c r="A308" s="96"/>
       <c r="B308" s="96"/>
       <c r="C308" s="96"/>
@@ -45451,7 +45461,7 @@
       <c r="AE308" s="96"/>
       <c r="AF308" s="96"/>
     </row>
-    <row r="309" spans="1:32" ht="16" thickBot="1">
+    <row r="309" spans="1:32" ht="15.75" thickBot="1">
       <c r="A309" s="96"/>
       <c r="B309" s="96"/>
       <c r="C309" s="96"/>
@@ -45485,7 +45495,7 @@
       <c r="AE309" s="96"/>
       <c r="AF309" s="96"/>
     </row>
-    <row r="310" spans="1:32" ht="16" thickBot="1">
+    <row r="310" spans="1:32" ht="15.75" thickBot="1">
       <c r="A310" s="96"/>
       <c r="B310" s="96"/>
       <c r="C310" s="96"/>
@@ -45519,7 +45529,7 @@
       <c r="AE310" s="96"/>
       <c r="AF310" s="96"/>
     </row>
-    <row r="311" spans="1:32" ht="16" thickBot="1">
+    <row r="311" spans="1:32" ht="15.75" thickBot="1">
       <c r="A311" s="96"/>
       <c r="B311" s="96"/>
       <c r="C311" s="96"/>
@@ -45553,7 +45563,7 @@
       <c r="AE311" s="96"/>
       <c r="AF311" s="96"/>
     </row>
-    <row r="312" spans="1:32" ht="16" thickBot="1">
+    <row r="312" spans="1:32" ht="15.75" thickBot="1">
       <c r="A312" s="96"/>
       <c r="B312" s="96"/>
       <c r="C312" s="96"/>
@@ -45587,7 +45597,7 @@
       <c r="AE312" s="96"/>
       <c r="AF312" s="96"/>
     </row>
-    <row r="313" spans="1:32" ht="16" thickBot="1">
+    <row r="313" spans="1:32" ht="15.75" thickBot="1">
       <c r="A313" s="96"/>
       <c r="B313" s="96"/>
       <c r="C313" s="96"/>
@@ -45621,7 +45631,7 @@
       <c r="AE313" s="96"/>
       <c r="AF313" s="96"/>
     </row>
-    <row r="314" spans="1:32" ht="16" thickBot="1">
+    <row r="314" spans="1:32" ht="15.75" thickBot="1">
       <c r="A314" s="96"/>
       <c r="B314" s="96"/>
       <c r="C314" s="96"/>
@@ -45655,7 +45665,7 @@
       <c r="AE314" s="96"/>
       <c r="AF314" s="96"/>
     </row>
-    <row r="315" spans="1:32" ht="16" thickBot="1">
+    <row r="315" spans="1:32" ht="15.75" thickBot="1">
       <c r="A315" s="96"/>
       <c r="B315" s="96"/>
       <c r="C315" s="96"/>
@@ -45689,7 +45699,7 @@
       <c r="AE315" s="96"/>
       <c r="AF315" s="96"/>
     </row>
-    <row r="316" spans="1:32" ht="16" thickBot="1">
+    <row r="316" spans="1:32" ht="15.75" thickBot="1">
       <c r="A316" s="96"/>
       <c r="B316" s="96"/>
       <c r="C316" s="96"/>
@@ -45723,7 +45733,7 @@
       <c r="AE316" s="96"/>
       <c r="AF316" s="96"/>
     </row>
-    <row r="317" spans="1:32" ht="16" thickBot="1">
+    <row r="317" spans="1:32" ht="15.75" thickBot="1">
       <c r="A317" s="96"/>
       <c r="B317" s="96"/>
       <c r="C317" s="96"/>
@@ -45757,7 +45767,7 @@
       <c r="AE317" s="96"/>
       <c r="AF317" s="96"/>
     </row>
-    <row r="318" spans="1:32" ht="16" thickBot="1">
+    <row r="318" spans="1:32" ht="15.75" thickBot="1">
       <c r="A318" s="96"/>
       <c r="B318" s="96"/>
       <c r="C318" s="96"/>
@@ -45791,7 +45801,7 @@
       <c r="AE318" s="96"/>
       <c r="AF318" s="96"/>
     </row>
-    <row r="319" spans="1:32" ht="16" thickBot="1">
+    <row r="319" spans="1:32" ht="15.75" thickBot="1">
       <c r="A319" s="96"/>
       <c r="B319" s="96"/>
       <c r="C319" s="96"/>
@@ -45825,7 +45835,7 @@
       <c r="AE319" s="96"/>
       <c r="AF319" s="96"/>
     </row>
-    <row r="320" spans="1:32" ht="16" thickBot="1">
+    <row r="320" spans="1:32" ht="15.75" thickBot="1">
       <c r="A320" s="96"/>
       <c r="B320" s="96"/>
       <c r="C320" s="96"/>
@@ -45859,7 +45869,7 @@
       <c r="AE320" s="96"/>
       <c r="AF320" s="96"/>
     </row>
-    <row r="321" spans="1:32" ht="16" thickBot="1">
+    <row r="321" spans="1:32" ht="15.75" thickBot="1">
       <c r="A321" s="96"/>
       <c r="B321" s="96"/>
       <c r="C321" s="96"/>
@@ -45893,7 +45903,7 @@
       <c r="AE321" s="96"/>
       <c r="AF321" s="96"/>
     </row>
-    <row r="322" spans="1:32" ht="16" thickBot="1">
+    <row r="322" spans="1:32" ht="15.75" thickBot="1">
       <c r="A322" s="96"/>
       <c r="B322" s="96"/>
       <c r="C322" s="96"/>
@@ -45927,7 +45937,7 @@
       <c r="AE322" s="96"/>
       <c r="AF322" s="96"/>
     </row>
-    <row r="323" spans="1:32" ht="16" thickBot="1">
+    <row r="323" spans="1:32" ht="15.75" thickBot="1">
       <c r="A323" s="96"/>
       <c r="B323" s="96"/>
       <c r="C323" s="96"/>
@@ -45961,7 +45971,7 @@
       <c r="AE323" s="96"/>
       <c r="AF323" s="96"/>
     </row>
-    <row r="324" spans="1:32" ht="16" thickBot="1">
+    <row r="324" spans="1:32" ht="15.75" thickBot="1">
       <c r="A324" s="96"/>
       <c r="B324" s="96"/>
       <c r="C324" s="96"/>
@@ -45995,7 +46005,7 @@
       <c r="AE324" s="96"/>
       <c r="AF324" s="96"/>
     </row>
-    <row r="325" spans="1:32" ht="16" thickBot="1">
+    <row r="325" spans="1:32" ht="15.75" thickBot="1">
       <c r="A325" s="96"/>
       <c r="B325" s="96"/>
       <c r="C325" s="96"/>
@@ -46029,7 +46039,7 @@
       <c r="AE325" s="96"/>
       <c r="AF325" s="96"/>
     </row>
-    <row r="326" spans="1:32" ht="16" thickBot="1">
+    <row r="326" spans="1:32" ht="15.75" thickBot="1">
       <c r="A326" s="96"/>
       <c r="B326" s="96"/>
       <c r="C326" s="96"/>
@@ -46063,7 +46073,7 @@
       <c r="AE326" s="96"/>
       <c r="AF326" s="96"/>
     </row>
-    <row r="327" spans="1:32" ht="16" thickBot="1">
+    <row r="327" spans="1:32" ht="15.75" thickBot="1">
       <c r="A327" s="96"/>
       <c r="B327" s="96"/>
       <c r="C327" s="96"/>
@@ -46097,7 +46107,7 @@
       <c r="AE327" s="96"/>
       <c r="AF327" s="96"/>
     </row>
-    <row r="328" spans="1:32" ht="16" thickBot="1">
+    <row r="328" spans="1:32" ht="15.75" thickBot="1">
       <c r="A328" s="96"/>
       <c r="B328" s="96"/>
       <c r="C328" s="96"/>
@@ -46131,7 +46141,7 @@
       <c r="AE328" s="96"/>
       <c r="AF328" s="96"/>
     </row>
-    <row r="329" spans="1:32" ht="16" thickBot="1">
+    <row r="329" spans="1:32" ht="15.75" thickBot="1">
       <c r="A329" s="96"/>
       <c r="B329" s="96"/>
       <c r="C329" s="96"/>
@@ -46165,7 +46175,7 @@
       <c r="AE329" s="96"/>
       <c r="AF329" s="96"/>
     </row>
-    <row r="330" spans="1:32" ht="16" thickBot="1">
+    <row r="330" spans="1:32" ht="15.75" thickBot="1">
       <c r="A330" s="96"/>
       <c r="B330" s="96"/>
       <c r="C330" s="96"/>
@@ -46199,7 +46209,7 @@
       <c r="AE330" s="96"/>
       <c r="AF330" s="96"/>
     </row>
-    <row r="331" spans="1:32" ht="16" thickBot="1">
+    <row r="331" spans="1:32" ht="15.75" thickBot="1">
       <c r="A331" s="96"/>
       <c r="B331" s="96"/>
       <c r="C331" s="96"/>
@@ -46233,7 +46243,7 @@
       <c r="AE331" s="96"/>
       <c r="AF331" s="96"/>
     </row>
-    <row r="332" spans="1:32" ht="16" thickBot="1">
+    <row r="332" spans="1:32" ht="15.75" thickBot="1">
       <c r="A332" s="96"/>
       <c r="B332" s="96"/>
       <c r="C332" s="96"/>
@@ -46267,7 +46277,7 @@
       <c r="AE332" s="96"/>
       <c r="AF332" s="96"/>
     </row>
-    <row r="333" spans="1:32" ht="16" thickBot="1">
+    <row r="333" spans="1:32" ht="15.75" thickBot="1">
       <c r="A333" s="96"/>
       <c r="B333" s="96"/>
       <c r="C333" s="96"/>
@@ -46301,7 +46311,7 @@
       <c r="AE333" s="96"/>
       <c r="AF333" s="96"/>
     </row>
-    <row r="334" spans="1:32" ht="16" thickBot="1">
+    <row r="334" spans="1:32" ht="15.75" thickBot="1">
       <c r="A334" s="96"/>
       <c r="B334" s="96"/>
       <c r="C334" s="96"/>
@@ -46335,7 +46345,7 @@
       <c r="AE334" s="96"/>
       <c r="AF334" s="96"/>
     </row>
-    <row r="335" spans="1:32" ht="16" thickBot="1">
+    <row r="335" spans="1:32" ht="15.75" thickBot="1">
       <c r="A335" s="96"/>
       <c r="B335" s="96"/>
       <c r="C335" s="96"/>
@@ -46369,7 +46379,7 @@
       <c r="AE335" s="96"/>
       <c r="AF335" s="96"/>
     </row>
-    <row r="336" spans="1:32" ht="16" thickBot="1">
+    <row r="336" spans="1:32" ht="15.75" thickBot="1">
       <c r="A336" s="96"/>
       <c r="B336" s="96"/>
       <c r="C336" s="96"/>
@@ -46403,7 +46413,7 @@
       <c r="AE336" s="96"/>
       <c r="AF336" s="96"/>
     </row>
-    <row r="337" spans="1:32" ht="16" thickBot="1">
+    <row r="337" spans="1:32" ht="15.75" thickBot="1">
       <c r="A337" s="96"/>
       <c r="B337" s="96"/>
       <c r="C337" s="96"/>
@@ -46437,7 +46447,7 @@
       <c r="AE337" s="96"/>
       <c r="AF337" s="96"/>
     </row>
-    <row r="338" spans="1:32" ht="16" thickBot="1">
+    <row r="338" spans="1:32" ht="15.75" thickBot="1">
       <c r="A338" s="96"/>
       <c r="B338" s="96"/>
       <c r="C338" s="96"/>
@@ -46471,7 +46481,7 @@
       <c r="AE338" s="96"/>
       <c r="AF338" s="96"/>
     </row>
-    <row r="339" spans="1:32" ht="16" thickBot="1">
+    <row r="339" spans="1:32" ht="15.75" thickBot="1">
       <c r="A339" s="96"/>
       <c r="B339" s="96"/>
       <c r="C339" s="96"/>
@@ -46505,7 +46515,7 @@
       <c r="AE339" s="96"/>
       <c r="AF339" s="96"/>
     </row>
-    <row r="340" spans="1:32" ht="16" thickBot="1">
+    <row r="340" spans="1:32" ht="15.75" thickBot="1">
       <c r="A340" s="96"/>
       <c r="B340" s="96"/>
       <c r="C340" s="96"/>
@@ -46539,7 +46549,7 @@
       <c r="AE340" s="96"/>
       <c r="AF340" s="96"/>
     </row>
-    <row r="341" spans="1:32" ht="16" thickBot="1">
+    <row r="341" spans="1:32" ht="15.75" thickBot="1">
       <c r="A341" s="96"/>
       <c r="B341" s="96"/>
       <c r="C341" s="96"/>
@@ -46573,7 +46583,7 @@
       <c r="AE341" s="96"/>
       <c r="AF341" s="96"/>
     </row>
-    <row r="342" spans="1:32" ht="16" thickBot="1">
+    <row r="342" spans="1:32" ht="15.75" thickBot="1">
       <c r="A342" s="96"/>
       <c r="B342" s="96"/>
       <c r="C342" s="96"/>
@@ -46607,7 +46617,7 @@
       <c r="AE342" s="96"/>
       <c r="AF342" s="96"/>
     </row>
-    <row r="343" spans="1:32" ht="16" thickBot="1">
+    <row r="343" spans="1:32" ht="15.75" thickBot="1">
       <c r="A343" s="96"/>
       <c r="B343" s="96"/>
       <c r="C343" s="96"/>
@@ -46641,7 +46651,7 @@
       <c r="AE343" s="96"/>
       <c r="AF343" s="96"/>
     </row>
-    <row r="344" spans="1:32" ht="16" thickBot="1">
+    <row r="344" spans="1:32" ht="15.75" thickBot="1">
       <c r="A344" s="96"/>
       <c r="B344" s="96"/>
       <c r="C344" s="96"/>
@@ -46675,7 +46685,7 @@
       <c r="AE344" s="96"/>
       <c r="AF344" s="96"/>
     </row>
-    <row r="345" spans="1:32" ht="16" thickBot="1">
+    <row r="345" spans="1:32" ht="15.75" thickBot="1">
       <c r="A345" s="96"/>
       <c r="B345" s="96"/>
       <c r="C345" s="96"/>
@@ -46709,7 +46719,7 @@
       <c r="AE345" s="96"/>
       <c r="AF345" s="96"/>
     </row>
-    <row r="346" spans="1:32" ht="16" thickBot="1">
+    <row r="346" spans="1:32" ht="15.75" thickBot="1">
       <c r="A346" s="96"/>
       <c r="B346" s="96"/>
       <c r="C346" s="96"/>
@@ -46743,7 +46753,7 @@
       <c r="AE346" s="96"/>
       <c r="AF346" s="96"/>
     </row>
-    <row r="347" spans="1:32" ht="16" thickBot="1">
+    <row r="347" spans="1:32" ht="15.75" thickBot="1">
       <c r="A347" s="96"/>
       <c r="B347" s="96"/>
       <c r="C347" s="96"/>
@@ -46777,7 +46787,7 @@
       <c r="AE347" s="96"/>
       <c r="AF347" s="96"/>
     </row>
-    <row r="348" spans="1:32" ht="16" thickBot="1">
+    <row r="348" spans="1:32" ht="15.75" thickBot="1">
       <c r="A348" s="96"/>
       <c r="B348" s="96"/>
       <c r="C348" s="96"/>
@@ -46811,7 +46821,7 @@
       <c r="AE348" s="96"/>
       <c r="AF348" s="96"/>
     </row>
-    <row r="349" spans="1:32" ht="16" thickBot="1">
+    <row r="349" spans="1:32" ht="15.75" thickBot="1">
       <c r="A349" s="96"/>
       <c r="B349" s="96"/>
       <c r="C349" s="96"/>
@@ -46845,7 +46855,7 @@
       <c r="AE349" s="96"/>
       <c r="AF349" s="96"/>
     </row>
-    <row r="350" spans="1:32" ht="16" thickBot="1">
+    <row r="350" spans="1:32" ht="15.75" thickBot="1">
       <c r="A350" s="96"/>
       <c r="B350" s="96"/>
       <c r="C350" s="96"/>
@@ -46879,7 +46889,7 @@
       <c r="AE350" s="96"/>
       <c r="AF350" s="96"/>
     </row>
-    <row r="351" spans="1:32" ht="16" thickBot="1">
+    <row r="351" spans="1:32" ht="15.75" thickBot="1">
       <c r="A351" s="96"/>
       <c r="B351" s="96"/>
       <c r="C351" s="96"/>
@@ -46913,7 +46923,7 @@
       <c r="AE351" s="96"/>
       <c r="AF351" s="96"/>
     </row>
-    <row r="352" spans="1:32" ht="16" thickBot="1">
+    <row r="352" spans="1:32" ht="15.75" thickBot="1">
       <c r="A352" s="96"/>
       <c r="B352" s="96"/>
       <c r="C352" s="96"/>
@@ -46947,7 +46957,7 @@
       <c r="AE352" s="96"/>
       <c r="AF352" s="96"/>
     </row>
-    <row r="353" spans="1:32" ht="16" thickBot="1">
+    <row r="353" spans="1:32" ht="15.75" thickBot="1">
       <c r="A353" s="96"/>
       <c r="B353" s="96"/>
       <c r="C353" s="96"/>
@@ -46981,7 +46991,7 @@
       <c r="AE353" s="96"/>
       <c r="AF353" s="96"/>
     </row>
-    <row r="354" spans="1:32" ht="16" thickBot="1">
+    <row r="354" spans="1:32" ht="15.75" thickBot="1">
       <c r="A354" s="96"/>
       <c r="B354" s="96"/>
       <c r="C354" s="96"/>
@@ -47015,7 +47025,7 @@
       <c r="AE354" s="96"/>
       <c r="AF354" s="96"/>
     </row>
-    <row r="355" spans="1:32" ht="16" thickBot="1">
+    <row r="355" spans="1:32" ht="15.75" thickBot="1">
       <c r="A355" s="96"/>
       <c r="B355" s="96"/>
       <c r="C355" s="96"/>
@@ -47049,7 +47059,7 @@
       <c r="AE355" s="96"/>
       <c r="AF355" s="96"/>
     </row>
-    <row r="356" spans="1:32" ht="16" thickBot="1">
+    <row r="356" spans="1:32" ht="15.75" thickBot="1">
       <c r="A356" s="96"/>
       <c r="B356" s="96"/>
       <c r="C356" s="96"/>
@@ -47083,7 +47093,7 @@
       <c r="AE356" s="96"/>
       <c r="AF356" s="96"/>
     </row>
-    <row r="357" spans="1:32" ht="16" thickBot="1">
+    <row r="357" spans="1:32" ht="15.75" thickBot="1">
       <c r="A357" s="96"/>
       <c r="B357" s="96"/>
       <c r="C357" s="96"/>
@@ -47117,7 +47127,7 @@
       <c r="AE357" s="96"/>
       <c r="AF357" s="96"/>
     </row>
-    <row r="358" spans="1:32" ht="16" thickBot="1">
+    <row r="358" spans="1:32" ht="15.75" thickBot="1">
       <c r="A358" s="96"/>
       <c r="B358" s="96"/>
       <c r="C358" s="96"/>
@@ -47151,7 +47161,7 @@
       <c r="AE358" s="96"/>
       <c r="AF358" s="96"/>
     </row>
-    <row r="359" spans="1:32" ht="16" thickBot="1">
+    <row r="359" spans="1:32" ht="15.75" thickBot="1">
       <c r="A359" s="96"/>
       <c r="B359" s="96"/>
       <c r="C359" s="96"/>
@@ -47185,7 +47195,7 @@
       <c r="AE359" s="96"/>
       <c r="AF359" s="96"/>
     </row>
-    <row r="360" spans="1:32" ht="16" thickBot="1">
+    <row r="360" spans="1:32" ht="15.75" thickBot="1">
       <c r="A360" s="96"/>
       <c r="B360" s="96"/>
       <c r="C360" s="96"/>
@@ -47219,7 +47229,7 @@
       <c r="AE360" s="96"/>
       <c r="AF360" s="96"/>
     </row>
-    <row r="361" spans="1:32" ht="16" thickBot="1">
+    <row r="361" spans="1:32" ht="15.75" thickBot="1">
       <c r="A361" s="96"/>
       <c r="B361" s="96"/>
       <c r="C361" s="96"/>
@@ -47253,7 +47263,7 @@
       <c r="AE361" s="96"/>
       <c r="AF361" s="96"/>
     </row>
-    <row r="362" spans="1:32" ht="16" thickBot="1">
+    <row r="362" spans="1:32" ht="15.75" thickBot="1">
       <c r="A362" s="96"/>
       <c r="B362" s="96"/>
       <c r="C362" s="96"/>
@@ -47287,7 +47297,7 @@
       <c r="AE362" s="96"/>
       <c r="AF362" s="96"/>
     </row>
-    <row r="363" spans="1:32" ht="16" thickBot="1">
+    <row r="363" spans="1:32" ht="15.75" thickBot="1">
       <c r="A363" s="96"/>
       <c r="B363" s="96"/>
       <c r="C363" s="96"/>
@@ -47321,7 +47331,7 @@
       <c r="AE363" s="96"/>
       <c r="AF363" s="96"/>
     </row>
-    <row r="364" spans="1:32" ht="16" thickBot="1">
+    <row r="364" spans="1:32" ht="15.75" thickBot="1">
       <c r="A364" s="96"/>
       <c r="B364" s="96"/>
       <c r="C364" s="96"/>
@@ -47355,7 +47365,7 @@
       <c r="AE364" s="96"/>
       <c r="AF364" s="96"/>
     </row>
-    <row r="365" spans="1:32" ht="16" thickBot="1">
+    <row r="365" spans="1:32" ht="15.75" thickBot="1">
       <c r="A365" s="96"/>
       <c r="B365" s="96"/>
       <c r="C365" s="96"/>
@@ -47389,7 +47399,7 @@
       <c r="AE365" s="96"/>
       <c r="AF365" s="96"/>
     </row>
-    <row r="366" spans="1:32" ht="16" thickBot="1">
+    <row r="366" spans="1:32" ht="15.75" thickBot="1">
       <c r="A366" s="96"/>
       <c r="B366" s="96"/>
       <c r="C366" s="96"/>
@@ -47423,7 +47433,7 @@
       <c r="AE366" s="96"/>
       <c r="AF366" s="96"/>
     </row>
-    <row r="367" spans="1:32" ht="16" thickBot="1">
+    <row r="367" spans="1:32" ht="15.75" thickBot="1">
       <c r="A367" s="96"/>
       <c r="B367" s="96"/>
       <c r="C367" s="96"/>
@@ -47457,7 +47467,7 @@
       <c r="AE367" s="96"/>
       <c r="AF367" s="96"/>
     </row>
-    <row r="368" spans="1:32" ht="16" thickBot="1">
+    <row r="368" spans="1:32" ht="15.75" thickBot="1">
       <c r="A368" s="96"/>
       <c r="B368" s="96"/>
       <c r="C368" s="96"/>
@@ -47491,7 +47501,7 @@
       <c r="AE368" s="96"/>
       <c r="AF368" s="96"/>
     </row>
-    <row r="369" spans="1:32" ht="16" thickBot="1">
+    <row r="369" spans="1:32" ht="15.75" thickBot="1">
       <c r="A369" s="96"/>
       <c r="B369" s="96"/>
       <c r="C369" s="96"/>
@@ -47525,7 +47535,7 @@
       <c r="AE369" s="96"/>
       <c r="AF369" s="96"/>
     </row>
-    <row r="370" spans="1:32" ht="16" thickBot="1">
+    <row r="370" spans="1:32" ht="15.75" thickBot="1">
       <c r="A370" s="96"/>
       <c r="B370" s="96"/>
       <c r="C370" s="96"/>
@@ -47559,7 +47569,7 @@
       <c r="AE370" s="96"/>
       <c r="AF370" s="96"/>
     </row>
-    <row r="371" spans="1:32" ht="16" thickBot="1">
+    <row r="371" spans="1:32" ht="15.75" thickBot="1">
       <c r="A371" s="96"/>
       <c r="B371" s="96"/>
       <c r="C371" s="96"/>
@@ -47593,7 +47603,7 @@
       <c r="AE371" s="96"/>
       <c r="AF371" s="96"/>
     </row>
-    <row r="372" spans="1:32" ht="16" thickBot="1">
+    <row r="372" spans="1:32" ht="15.75" thickBot="1">
       <c r="A372" s="96"/>
       <c r="B372" s="96"/>
       <c r="C372" s="96"/>
@@ -47627,7 +47637,7 @@
       <c r="AE372" s="96"/>
       <c r="AF372" s="96"/>
     </row>
-    <row r="373" spans="1:32" ht="16" thickBot="1">
+    <row r="373" spans="1:32" ht="15.75" thickBot="1">
       <c r="A373" s="96"/>
       <c r="B373" s="96"/>
       <c r="C373" s="96"/>
@@ -47661,7 +47671,7 @@
       <c r="AE373" s="96"/>
       <c r="AF373" s="96"/>
     </row>
-    <row r="374" spans="1:32" ht="16" thickBot="1">
+    <row r="374" spans="1:32" ht="15.75" thickBot="1">
       <c r="A374" s="96"/>
       <c r="B374" s="96"/>
       <c r="C374" s="96"/>
@@ -47695,7 +47705,7 @@
       <c r="AE374" s="96"/>
       <c r="AF374" s="96"/>
     </row>
-    <row r="375" spans="1:32" ht="16" thickBot="1">
+    <row r="375" spans="1:32" ht="15.75" thickBot="1">
       <c r="A375" s="96"/>
       <c r="B375" s="96"/>
       <c r="C375" s="96"/>
@@ -47729,7 +47739,7 @@
       <c r="AE375" s="96"/>
       <c r="AF375" s="96"/>
     </row>
-    <row r="376" spans="1:32" ht="16" thickBot="1">
+    <row r="376" spans="1:32" ht="15.75" thickBot="1">
       <c r="A376" s="96"/>
       <c r="B376" s="96"/>
       <c r="C376" s="96"/>
@@ -47763,7 +47773,7 @@
       <c r="AE376" s="96"/>
       <c r="AF376" s="96"/>
     </row>
-    <row r="377" spans="1:32" ht="16" thickBot="1">
+    <row r="377" spans="1:32" ht="15.75" thickBot="1">
       <c r="A377" s="96"/>
       <c r="B377" s="96"/>
       <c r="C377" s="96"/>
@@ -47797,7 +47807,7 @@
       <c r="AE377" s="96"/>
       <c r="AF377" s="96"/>
     </row>
-    <row r="378" spans="1:32" ht="16" thickBot="1">
+    <row r="378" spans="1:32" ht="15.75" thickBot="1">
       <c r="A378" s="96"/>
       <c r="B378" s="96"/>
       <c r="C378" s="96"/>
@@ -47831,7 +47841,7 @@
       <c r="AE378" s="96"/>
       <c r="AF378" s="96"/>
     </row>
-    <row r="379" spans="1:32" ht="16" thickBot="1">
+    <row r="379" spans="1:32" ht="15.75" thickBot="1">
       <c r="A379" s="96"/>
       <c r="B379" s="96"/>
       <c r="C379" s="96"/>
@@ -47865,7 +47875,7 @@
       <c r="AE379" s="96"/>
       <c r="AF379" s="96"/>
     </row>
-    <row r="380" spans="1:32" ht="16" thickBot="1">
+    <row r="380" spans="1:32" ht="15.75" thickBot="1">
       <c r="A380" s="96"/>
       <c r="B380" s="96"/>
       <c r="C380" s="96"/>
@@ -47899,7 +47909,7 @@
       <c r="AE380" s="96"/>
       <c r="AF380" s="96"/>
     </row>
-    <row r="381" spans="1:32" ht="16" thickBot="1">
+    <row r="381" spans="1:32" ht="15.75" thickBot="1">
       <c r="A381" s="96"/>
       <c r="B381" s="96"/>
       <c r="C381" s="96"/>
@@ -47933,7 +47943,7 @@
       <c r="AE381" s="96"/>
       <c r="AF381" s="96"/>
     </row>
-    <row r="382" spans="1:32" ht="16" thickBot="1">
+    <row r="382" spans="1:32" ht="15.75" thickBot="1">
       <c r="A382" s="96"/>
       <c r="B382" s="96"/>
       <c r="C382" s="96"/>
@@ -47967,7 +47977,7 @@
       <c r="AE382" s="96"/>
       <c r="AF382" s="96"/>
     </row>
-    <row r="383" spans="1:32" ht="16" thickBot="1">
+    <row r="383" spans="1:32" ht="15.75" thickBot="1">
       <c r="A383" s="96"/>
       <c r="B383" s="96"/>
       <c r="C383" s="96"/>
@@ -48001,7 +48011,7 @@
       <c r="AE383" s="96"/>
       <c r="AF383" s="96"/>
     </row>
-    <row r="384" spans="1:32" ht="16" thickBot="1">
+    <row r="384" spans="1:32" ht="15.75" thickBot="1">
       <c r="A384" s="96"/>
       <c r="B384" s="96"/>
       <c r="C384" s="96"/>
@@ -48035,7 +48045,7 @@
       <c r="AE384" s="96"/>
       <c r="AF384" s="96"/>
     </row>
-    <row r="385" spans="1:32" ht="16" thickBot="1">
+    <row r="385" spans="1:32" ht="15.75" thickBot="1">
       <c r="A385" s="96"/>
       <c r="B385" s="96"/>
       <c r="C385" s="96"/>
@@ -48069,7 +48079,7 @@
       <c r="AE385" s="96"/>
       <c r="AF385" s="96"/>
     </row>
-    <row r="386" spans="1:32" ht="16" thickBot="1">
+    <row r="386" spans="1:32" ht="15.75" thickBot="1">
       <c r="A386" s="96"/>
       <c r="B386" s="96"/>
       <c r="C386" s="96"/>
@@ -48103,7 +48113,7 @@
       <c r="AE386" s="96"/>
       <c r="AF386" s="96"/>
     </row>
-    <row r="387" spans="1:32" ht="16" thickBot="1">
+    <row r="387" spans="1:32" ht="15.75" thickBot="1">
       <c r="A387" s="96"/>
       <c r="B387" s="96"/>
       <c r="C387" s="96"/>
@@ -48137,7 +48147,7 @@
       <c r="AE387" s="96"/>
       <c r="AF387" s="96"/>
     </row>
-    <row r="388" spans="1:32" ht="16" thickBot="1">
+    <row r="388" spans="1:32" ht="15.75" thickBot="1">
       <c r="A388" s="96"/>
       <c r="B388" s="96"/>
       <c r="C388" s="96"/>
@@ -48171,7 +48181,7 @@
       <c r="AE388" s="96"/>
       <c r="AF388" s="96"/>
     </row>
-    <row r="389" spans="1:32" ht="16" thickBot="1">
+    <row r="389" spans="1:32" ht="15.75" thickBot="1">
       <c r="A389" s="96"/>
       <c r="B389" s="96"/>
       <c r="C389" s="96"/>
@@ -48205,7 +48215,7 @@
       <c r="AE389" s="96"/>
       <c r="AF389" s="96"/>
     </row>
-    <row r="390" spans="1:32" ht="16" thickBot="1">
+    <row r="390" spans="1:32" ht="15.75" thickBot="1">
       <c r="A390" s="96"/>
       <c r="B390" s="96"/>
       <c r="C390" s="96"/>
@@ -48239,7 +48249,7 @@
       <c r="AE390" s="96"/>
       <c r="AF390" s="96"/>
     </row>
-    <row r="391" spans="1:32" ht="16" thickBot="1">
+    <row r="391" spans="1:32" ht="15.75" thickBot="1">
       <c r="A391" s="96"/>
       <c r="B391" s="96"/>
       <c r="C391" s="96"/>
@@ -48273,7 +48283,7 @@
       <c r="AE391" s="96"/>
       <c r="AF391" s="96"/>
     </row>
-    <row r="392" spans="1:32" ht="16" thickBot="1">
+    <row r="392" spans="1:32" ht="15.75" thickBot="1">
       <c r="A392" s="96"/>
       <c r="B392" s="96"/>
       <c r="C392" s="96"/>
@@ -48307,7 +48317,7 @@
       <c r="AE392" s="96"/>
       <c r="AF392" s="96"/>
     </row>
-    <row r="393" spans="1:32" ht="16" thickBot="1">
+    <row r="393" spans="1:32" ht="15.75" thickBot="1">
       <c r="A393" s="96"/>
       <c r="B393" s="96"/>
       <c r="C393" s="96"/>
@@ -48341,7 +48351,7 @@
       <c r="AE393" s="96"/>
       <c r="AF393" s="96"/>
     </row>
-    <row r="394" spans="1:32" ht="16" thickBot="1">
+    <row r="394" spans="1:32" ht="15.75" thickBot="1">
       <c r="A394" s="96"/>
       <c r="B394" s="96"/>
       <c r="C394" s="96"/>
@@ -48375,7 +48385,7 @@
       <c r="AE394" s="96"/>
       <c r="AF394" s="96"/>
     </row>
-    <row r="395" spans="1:32" ht="16" thickBot="1">
+    <row r="395" spans="1:32" ht="15.75" thickBot="1">
       <c r="A395" s="96"/>
       <c r="B395" s="96"/>
       <c r="C395" s="96"/>
@@ -48409,7 +48419,7 @@
       <c r="AE395" s="96"/>
       <c r="AF395" s="96"/>
     </row>
-    <row r="396" spans="1:32" ht="16" thickBot="1">
+    <row r="396" spans="1:32" ht="15.75" thickBot="1">
       <c r="A396" s="96"/>
       <c r="B396" s="96"/>
       <c r="C396" s="96"/>
@@ -48443,7 +48453,7 @@
       <c r="AE396" s="96"/>
       <c r="AF396" s="96"/>
     </row>
-    <row r="397" spans="1:32" ht="16" thickBot="1">
+    <row r="397" spans="1:32" ht="15.75" thickBot="1">
       <c r="A397" s="96"/>
       <c r="B397" s="96"/>
       <c r="C397" s="96"/>
@@ -48477,7 +48487,7 @@
       <c r="AE397" s="96"/>
       <c r="AF397" s="96"/>
     </row>
-    <row r="398" spans="1:32" ht="16" thickBot="1">
+    <row r="398" spans="1:32" ht="15.75" thickBot="1">
       <c r="A398" s="96"/>
       <c r="B398" s="96"/>
       <c r="C398" s="96"/>
@@ -48511,7 +48521,7 @@
       <c r="AE398" s="96"/>
       <c r="AF398" s="96"/>
     </row>
-    <row r="399" spans="1:32" ht="16" thickBot="1">
+    <row r="399" spans="1:32" ht="15.75" thickBot="1">
       <c r="A399" s="96"/>
       <c r="B399" s="96"/>
       <c r="C399" s="96"/>
@@ -48545,7 +48555,7 @@
       <c r="AE399" s="96"/>
       <c r="AF399" s="96"/>
     </row>
-    <row r="400" spans="1:32" ht="16" thickBot="1">
+    <row r="400" spans="1:32" ht="15.75" thickBot="1">
       <c r="A400" s="96"/>
       <c r="B400" s="96"/>
       <c r="C400" s="96"/>
@@ -48579,7 +48589,7 @@
       <c r="AE400" s="96"/>
       <c r="AF400" s="96"/>
     </row>
-    <row r="401" spans="1:32" ht="16" thickBot="1">
+    <row r="401" spans="1:32" ht="15.75" thickBot="1">
       <c r="A401" s="96"/>
       <c r="B401" s="96"/>
       <c r="C401" s="96"/>
@@ -48613,7 +48623,7 @@
       <c r="AE401" s="96"/>
       <c r="AF401" s="96"/>
     </row>
-    <row r="402" spans="1:32" ht="16" thickBot="1">
+    <row r="402" spans="1:32" ht="15.75" thickBot="1">
       <c r="A402" s="96"/>
       <c r="B402" s="96"/>
       <c r="C402" s="96"/>
@@ -48647,7 +48657,7 @@
       <c r="AE402" s="96"/>
       <c r="AF402" s="96"/>
     </row>
-    <row r="403" spans="1:32" ht="16" thickBot="1">
+    <row r="403" spans="1:32" ht="15.75" thickBot="1">
       <c r="A403" s="96"/>
       <c r="B403" s="96"/>
       <c r="C403" s="96"/>
@@ -48681,7 +48691,7 @@
       <c r="AE403" s="96"/>
       <c r="AF403" s="96"/>
     </row>
-    <row r="404" spans="1:32" ht="16" thickBot="1">
+    <row r="404" spans="1:32" ht="15.75" thickBot="1">
       <c r="A404" s="96"/>
       <c r="B404" s="96"/>
       <c r="C404" s="96"/>
@@ -48715,7 +48725,7 @@
       <c r="AE404" s="96"/>
       <c r="AF404" s="96"/>
     </row>
-    <row r="405" spans="1:32" ht="16" thickBot="1">
+    <row r="405" spans="1:32" ht="15.75" thickBot="1">
       <c r="A405" s="96"/>
       <c r="B405" s="96"/>
       <c r="C405" s="96"/>
@@ -48749,7 +48759,7 @@
       <c r="AE405" s="96"/>
       <c r="AF405" s="96"/>
     </row>
-    <row r="406" spans="1:32" ht="16" thickBot="1">
+    <row r="406" spans="1:32" ht="15.75" thickBot="1">
       <c r="A406" s="96"/>
       <c r="B406" s="96"/>
       <c r="C406" s="96"/>
@@ -48783,7 +48793,7 @@
       <c r="AE406" s="96"/>
       <c r="AF406" s="96"/>
     </row>
-    <row r="407" spans="1:32" ht="16" thickBot="1">
+    <row r="407" spans="1:32" ht="15.75" thickBot="1">
       <c r="A407" s="96"/>
       <c r="B407" s="96"/>
       <c r="C407" s="96"/>
@@ -48817,7 +48827,7 @@
       <c r="AE407" s="96"/>
       <c r="AF407" s="96"/>
     </row>
-    <row r="408" spans="1:32" ht="16" thickBot="1">
+    <row r="408" spans="1:32" ht="15.75" thickBot="1">
       <c r="A408" s="96"/>
       <c r="B408" s="96"/>
       <c r="C408" s="96"/>
@@ -48851,7 +48861,7 @@
       <c r="AE408" s="96"/>
       <c r="AF408" s="96"/>
     </row>
-    <row r="409" spans="1:32" ht="16" thickBot="1">
+    <row r="409" spans="1:32" ht="15.75" thickBot="1">
       <c r="A409" s="96"/>
       <c r="B409" s="96"/>
       <c r="C409" s="96"/>
@@ -48885,7 +48895,7 @@
       <c r="AE409" s="96"/>
       <c r="AF409" s="96"/>
     </row>
-    <row r="410" spans="1:32" ht="16" thickBot="1">
+    <row r="410" spans="1:32" ht="15.75" thickBot="1">
       <c r="A410" s="96"/>
       <c r="B410" s="96"/>
       <c r="C410" s="96"/>
@@ -48919,7 +48929,7 @@
       <c r="AE410" s="96"/>
       <c r="AF410" s="96"/>
     </row>
-    <row r="411" spans="1:32" ht="16" thickBot="1">
+    <row r="411" spans="1:32" ht="15.75" thickBot="1">
       <c r="A411" s="96"/>
       <c r="B411" s="96"/>
       <c r="C411" s="96"/>
@@ -48953,7 +48963,7 @@
       <c r="AE411" s="96"/>
       <c r="AF411" s="96"/>
     </row>
-    <row r="412" spans="1:32" ht="16" thickBot="1">
+    <row r="412" spans="1:32" ht="15.75" thickBot="1">
       <c r="A412" s="96"/>
       <c r="B412" s="96"/>
       <c r="C412" s="96"/>
@@ -48987,7 +48997,7 @@
       <c r="AE412" s="96"/>
       <c r="AF412" s="96"/>
     </row>
-    <row r="413" spans="1:32" ht="16" thickBot="1">
+    <row r="413" spans="1:32" ht="15.75" thickBot="1">
       <c r="A413" s="96"/>
       <c r="B413" s="96"/>
       <c r="C413" s="96"/>
@@ -49021,7 +49031,7 @@
       <c r="AE413" s="96"/>
       <c r="AF413" s="96"/>
     </row>
-    <row r="414" spans="1:32" ht="16" thickBot="1">
+    <row r="414" spans="1:32" ht="15.75" thickBot="1">
       <c r="A414" s="96"/>
       <c r="B414" s="96"/>
       <c r="C414" s="96"/>
@@ -49055,7 +49065,7 @@
       <c r="AE414" s="96"/>
       <c r="AF414" s="96"/>
     </row>
-    <row r="415" spans="1:32" ht="16" thickBot="1">
+    <row r="415" spans="1:32" ht="15.75" thickBot="1">
       <c r="A415" s="96"/>
       <c r="B415" s="96"/>
       <c r="C415" s="96"/>
@@ -49089,7 +49099,7 @@
       <c r="AE415" s="96"/>
       <c r="AF415" s="96"/>
     </row>
-    <row r="416" spans="1:32" ht="16" thickBot="1">
+    <row r="416" spans="1:32" ht="15.75" thickBot="1">
       <c r="A416" s="96"/>
       <c r="B416" s="96"/>
       <c r="C416" s="96"/>
@@ -49123,7 +49133,7 @@
       <c r="AE416" s="96"/>
       <c r="AF416" s="96"/>
     </row>
-    <row r="417" spans="1:32" ht="16" thickBot="1">
+    <row r="417" spans="1:32" ht="15.75" thickBot="1">
       <c r="A417" s="96"/>
       <c r="B417" s="96"/>
       <c r="C417" s="96"/>
@@ -49157,7 +49167,7 @@
       <c r="AE417" s="96"/>
       <c r="AF417" s="96"/>
     </row>
-    <row r="418" spans="1:32" ht="16" thickBot="1">
+    <row r="418" spans="1:32" ht="15.75" thickBot="1">
       <c r="A418" s="96"/>
       <c r="B418" s="96"/>
       <c r="C418" s="96"/>
@@ -49191,7 +49201,7 @@
       <c r="AE418" s="96"/>
       <c r="AF418" s="96"/>
     </row>
-    <row r="419" spans="1:32" ht="16" thickBot="1">
+    <row r="419" spans="1:32" ht="15.75" thickBot="1">
       <c r="A419" s="96"/>
       <c r="B419" s="96"/>
       <c r="C419" s="96"/>
@@ -49225,7 +49235,7 @@
       <c r="AE419" s="96"/>
       <c r="AF419" s="96"/>
     </row>
-    <row r="420" spans="1:32" ht="16" thickBot="1">
+    <row r="420" spans="1:32" ht="15.75" thickBot="1">
       <c r="A420" s="96"/>
       <c r="B420" s="96"/>
       <c r="C420" s="96"/>
@@ -49259,7 +49269,7 @@
       <c r="AE420" s="96"/>
       <c r="AF420" s="96"/>
     </row>
-    <row r="421" spans="1:32" ht="16" thickBot="1">
+    <row r="421" spans="1:32" ht="15.75" thickBot="1">
       <c r="A421" s="96"/>
       <c r="B421" s="96"/>
       <c r="C421" s="96"/>
@@ -49293,7 +49303,7 @@
       <c r="AE421" s="96"/>
       <c r="AF421" s="96"/>
     </row>
-    <row r="422" spans="1:32" ht="16" thickBot="1">
+    <row r="422" spans="1:32" ht="15.75" thickBot="1">
       <c r="A422" s="96"/>
       <c r="B422" s="96"/>
       <c r="C422" s="96"/>
@@ -49327,7 +49337,7 @@
       <c r="AE422" s="96"/>
       <c r="AF422" s="96"/>
     </row>
-    <row r="423" spans="1:32" ht="16" thickBot="1">
+    <row r="423" spans="1:32" ht="15.75" thickBot="1">
       <c r="A423" s="96"/>
       <c r="B423" s="96"/>
       <c r="C423" s="96"/>
@@ -49361,7 +49371,7 @@
       <c r="AE423" s="96"/>
       <c r="AF423" s="96"/>
     </row>
-    <row r="424" spans="1:32" ht="16" thickBot="1">
+    <row r="424" spans="1:32" ht="15.75" thickBot="1">
       <c r="A424" s="96"/>
       <c r="B424" s="96"/>
       <c r="C424" s="96"/>
@@ -49395,7 +49405,7 @@
       <c r="AE424" s="96"/>
       <c r="AF424" s="96"/>
     </row>
-    <row r="425" spans="1:32" ht="16" thickBot="1">
+    <row r="425" spans="1:32" ht="15.75" thickBot="1">
       <c r="A425" s="96"/>
       <c r="B425" s="96"/>
       <c r="C425" s="96"/>
@@ -49429,7 +49439,7 @@
       <c r="AE425" s="96"/>
       <c r="AF425" s="96"/>
     </row>
-    <row r="426" spans="1:32" ht="16" thickBot="1">
+    <row r="426" spans="1:32" ht="15.75" thickBot="1">
       <c r="A426" s="96"/>
       <c r="B426" s="96"/>
       <c r="C426" s="96"/>
@@ -49463,7 +49473,7 @@
       <c r="AE426" s="96"/>
       <c r="AF426" s="96"/>
     </row>
-    <row r="427" spans="1:32" ht="16" thickBot="1">
+    <row r="427" spans="1:32" ht="15.75" thickBot="1">
       <c r="A427" s="96"/>
       <c r="B427" s="96"/>
       <c r="C427" s="96"/>
@@ -49497,7 +49507,7 @@
       <c r="AE427" s="96"/>
       <c r="AF427" s="96"/>
     </row>
-    <row r="428" spans="1:32" ht="16" thickBot="1">
+    <row r="428" spans="1:32" ht="15.75" thickBot="1">
       <c r="A428" s="96"/>
       <c r="B428" s="96"/>
       <c r="C428" s="96"/>
@@ -49531,7 +49541,7 @@
       <c r="AE428" s="96"/>
       <c r="AF428" s="96"/>
     </row>
-    <row r="429" spans="1:32" ht="16" thickBot="1">
+    <row r="429" spans="1:32" ht="15.75" thickBot="1">
       <c r="A429" s="96"/>
       <c r="B429" s="96"/>
       <c r="C429" s="96"/>
@@ -49565,7 +49575,7 @@
       <c r="AE429" s="96"/>
       <c r="AF429" s="96"/>
     </row>
-    <row r="430" spans="1:32" ht="16" thickBot="1">
+    <row r="430" spans="1:32" ht="15.75" thickBot="1">
       <c r="A430" s="96"/>
       <c r="B430" s="96"/>
       <c r="C430" s="96"/>
@@ -49599,7 +49609,7 @@
       <c r="AE430" s="96"/>
       <c r="AF430" s="96"/>
     </row>
-    <row r="431" spans="1:32" ht="16" thickBot="1">
+    <row r="431" spans="1:32" ht="15.75" thickBot="1">
       <c r="A431" s="96"/>
       <c r="B431" s="96"/>
       <c r="C431" s="96"/>
@@ -49633,7 +49643,7 @@
       <c r="AE431" s="96"/>
       <c r="AF431" s="96"/>
     </row>
-    <row r="432" spans="1:32" ht="16" thickBot="1">
+    <row r="432" spans="1:32" ht="15.75" thickBot="1">
       <c r="A432" s="96"/>
       <c r="B432" s="96"/>
       <c r="C432" s="96"/>
@@ -49667,7 +49677,7 @@
       <c r="AE432" s="96"/>
       <c r="AF432" s="96"/>
     </row>
-    <row r="433" spans="1:32" ht="16" thickBot="1">
+    <row r="433" spans="1:32" ht="15.75" thickBot="1">
       <c r="A433" s="96"/>
       <c r="B433" s="96"/>
       <c r="C433" s="96"/>
@@ -49701,7 +49711,7 @@
       <c r="AE433" s="96"/>
       <c r="AF433" s="96"/>
     </row>
-    <row r="434" spans="1:32" ht="16" thickBot="1">
+    <row r="434" spans="1:32" ht="15.75" thickBot="1">
       <c r="A434" s="96"/>
       <c r="B434" s="96"/>
       <c r="C434" s="96"/>
@@ -49735,7 +49745,7 @@
       <c r="AE434" s="96"/>
       <c r="AF434" s="96"/>
     </row>
-    <row r="435" spans="1:32" ht="16" thickBot="1">
+    <row r="435" spans="1:32" ht="15.75" thickBot="1">
       <c r="A435" s="96"/>
       <c r="B435" s="96"/>
       <c r="C435" s="96"/>
@@ -49769,7 +49779,7 @@
       <c r="AE435" s="96"/>
       <c r="AF435" s="96"/>
     </row>
-    <row r="436" spans="1:32" ht="16" thickBot="1">
+    <row r="436" spans="1:32" ht="15.75" thickBot="1">
       <c r="A436" s="96"/>
       <c r="B436" s="96"/>
       <c r="C436" s="96"/>
@@ -49803,7 +49813,7 @@
       <c r="AE436" s="96"/>
       <c r="AF436" s="96"/>
     </row>
-    <row r="437" spans="1:32" ht="16" thickBot="1">
+    <row r="437" spans="1:32" ht="15.75" thickBot="1">
       <c r="A437" s="96"/>
       <c r="B437" s="96"/>
       <c r="C437" s="96"/>
@@ -49837,7 +49847,7 @@
       <c r="AE437" s="96"/>
       <c r="AF437" s="96"/>
     </row>
-    <row r="438" spans="1:32" ht="16" thickBot="1">
+    <row r="438" spans="1:32" ht="15.75" thickBot="1">
       <c r="A438" s="96"/>
       <c r="B438" s="96"/>
       <c r="C438" s="96"/>
@@ -49871,7 +49881,7 @@
       <c r="AE438" s="96"/>
       <c r="AF438" s="96"/>
     </row>
-    <row r="439" spans="1:32" ht="16" thickBot="1">
+    <row r="439" spans="1:32" ht="15.75" thickBot="1">
       <c r="A439" s="96"/>
       <c r="B439" s="96"/>
       <c r="C439" s="96"/>
@@ -49905,7 +49915,7 @@
       <c r="AE439" s="96"/>
       <c r="AF439" s="96"/>
     </row>
-    <row r="440" spans="1:32" ht="16" thickBot="1">
+    <row r="440" spans="1:32" ht="15.75" thickBot="1">
       <c r="A440" s="96"/>
       <c r="B440" s="96"/>
       <c r="C440" s="96"/>
@@ -49939,7 +49949,7 @@
       <c r="AE440" s="96"/>
       <c r="AF440" s="96"/>
     </row>
-    <row r="441" spans="1:32" ht="16" thickBot="1">
+    <row r="441" spans="1:32" ht="15.75" thickBot="1">
       <c r="A441" s="96"/>
       <c r="B441" s="96"/>
       <c r="C441" s="96"/>
@@ -49973,7 +49983,7 @@
       <c r="AE441" s="96"/>
       <c r="AF441" s="96"/>
     </row>
-    <row r="442" spans="1:32" ht="16" thickBot="1">
+    <row r="442" spans="1:32" ht="15.75" thickBot="1">
       <c r="A442" s="96"/>
       <c r="B442" s="96"/>
       <c r="C442" s="96"/>
@@ -50007,7 +50017,7 @@
       <c r="AE442" s="96"/>
       <c r="AF442" s="96"/>
     </row>
-    <row r="443" spans="1:32" ht="16" thickBot="1">
+    <row r="443" spans="1:32" ht="15.75" thickBot="1">
       <c r="A443" s="96"/>
       <c r="B443" s="96"/>
       <c r="C443" s="96"/>
@@ -50041,7 +50051,7 @@
       <c r="AE443" s="96"/>
       <c r="AF443" s="96"/>
     </row>
-    <row r="444" spans="1:32" ht="16" thickBot="1">
+    <row r="444" spans="1:32" ht="15.75" thickBot="1">
       <c r="A444" s="96"/>
       <c r="B444" s="96"/>
       <c r="C444" s="96"/>
@@ -50075,7 +50085,7 @@
       <c r="AE444" s="96"/>
       <c r="AF444" s="96"/>
     </row>
-    <row r="445" spans="1:32" ht="16" thickBot="1">
+    <row r="445" spans="1:32" ht="15.75" thickBot="1">
       <c r="A445" s="96"/>
       <c r="B445" s="96"/>
       <c r="C445" s="96"/>
@@ -50109,7 +50119,7 @@
       <c r="AE445" s="96"/>
       <c r="AF445" s="96"/>
     </row>
-    <row r="446" spans="1:32" ht="16" thickBot="1">
+    <row r="446" spans="1:32" ht="15.75" thickBot="1">
       <c r="A446" s="96"/>
       <c r="B446" s="96"/>
       <c r="C446" s="96"/>
@@ -50143,7 +50153,7 @@
       <c r="AE446" s="96"/>
       <c r="AF446" s="96"/>
     </row>
-    <row r="447" spans="1:32" ht="16" thickBot="1">
+    <row r="447" spans="1:32" ht="15.75" thickBot="1">
       <c r="A447" s="96"/>
       <c r="B447" s="96"/>
       <c r="C447" s="96"/>
@@ -50177,7 +50187,7 @@
       <c r="AE447" s="96"/>
       <c r="AF447" s="96"/>
     </row>
-    <row r="448" spans="1:32" ht="16" thickBot="1">
+    <row r="448" spans="1:32" ht="15.75" thickBot="1">
       <c r="A448" s="96"/>
       <c r="B448" s="96"/>
       <c r="C448" s="96"/>
@@ -50211,7 +50221,7 @@
       <c r="AE448" s="96"/>
       <c r="AF448" s="96"/>
     </row>
-    <row r="449" spans="1:32" ht="16" thickBot="1">
+    <row r="449" spans="1:32" ht="15.75" thickBot="1">
       <c r="A449" s="96"/>
       <c r="B449" s="96"/>
       <c r="C449" s="96"/>
@@ -50245,7 +50255,7 @@
       <c r="AE449" s="96"/>
       <c r="AF449" s="96"/>
     </row>
-    <row r="450" spans="1:32" ht="16" thickBot="1">
+    <row r="450" spans="1:32" ht="15.75" thickBot="1">
       <c r="A450" s="96"/>
       <c r="B450" s="96"/>
       <c r="C450" s="96"/>
@@ -50279,7 +50289,7 @@
       <c r="AE450" s="96"/>
       <c r="AF450" s="96"/>
     </row>
-    <row r="451" spans="1:32" ht="16" thickBot="1">
+    <row r="451" spans="1:32" ht="15.75" thickBot="1">
       <c r="A451" s="96"/>
       <c r="B451" s="96"/>
       <c r="C451" s="96"/>
@@ -50313,7 +50323,7 @@
       <c r="AE451" s="96"/>
       <c r="AF451" s="96"/>
     </row>
-    <row r="452" spans="1:32" ht="16" thickBot="1">
+    <row r="452" spans="1:32" ht="15.75" thickBot="1">
       <c r="A452" s="96"/>
       <c r="B452" s="96"/>
       <c r="C452" s="96"/>
@@ -50347,7 +50357,7 @@
       <c r="AE452" s="96"/>
       <c r="AF452" s="96"/>
     </row>
-    <row r="453" spans="1:32" ht="16" thickBot="1">
+    <row r="453" spans="1:32" ht="15.75" thickBot="1">
       <c r="A453" s="96"/>
       <c r="B453" s="96"/>
       <c r="C453" s="96"/>
@@ -50381,7 +50391,7 @@
       <c r="AE453" s="96"/>
       <c r="AF453" s="96"/>
     </row>
-    <row r="454" spans="1:32" ht="16" thickBot="1">
+    <row r="454" spans="1:32" ht="15.75" thickBot="1">
       <c r="A454" s="96"/>
       <c r="B454" s="96"/>
       <c r="C454" s="96"/>
@@ -50415,7 +50425,7 @@
       <c r="AE454" s="96"/>
       <c r="AF454" s="96"/>
     </row>
-    <row r="455" spans="1:32" ht="16" thickBot="1">
+    <row r="455" spans="1:32" ht="15.75" thickBot="1">
       <c r="A455" s="96"/>
       <c r="B455" s="96"/>
       <c r="C455" s="96"/>
@@ -50449,7 +50459,7 @@
       <c r="AE455" s="96"/>
       <c r="AF455" s="96"/>
     </row>
-    <row r="456" spans="1:32" ht="16" thickBot="1">
+    <row r="456" spans="1:32" ht="15.75" thickBot="1">
       <c r="A456" s="96"/>
       <c r="B456" s="96"/>
       <c r="C456" s="96"/>
@@ -50483,7 +50493,7 @@
       <c r="AE456" s="96"/>
       <c r="AF456" s="96"/>
     </row>
-    <row r="457" spans="1:32" ht="16" thickBot="1">
+    <row r="457" spans="1:32" ht="15.75" thickBot="1">
       <c r="A457" s="96"/>
       <c r="B457" s="96"/>
       <c r="C457" s="96"/>
@@ -50517,7 +50527,7 @@
       <c r="AE457" s="96"/>
       <c r="AF457" s="96"/>
     </row>
-    <row r="458" spans="1:32" ht="16" thickBot="1">
+    <row r="458" spans="1:32" ht="15.75" thickBot="1">
       <c r="A458" s="96"/>
       <c r="B458" s="96"/>
       <c r="C458" s="96"/>
@@ -50551,7 +50561,7 @@
       <c r="AE458" s="96"/>
       <c r="AF458" s="96"/>
     </row>
-    <row r="459" spans="1:32" ht="16" thickBot="1">
+    <row r="459" spans="1:32" ht="15.75" thickBot="1">
       <c r="A459" s="96"/>
       <c r="B459" s="96"/>
       <c r="C459" s="96"/>
@@ -50585,7 +50595,7 @@
       <c r="AE459" s="96"/>
       <c r="AF459" s="96"/>
     </row>
-    <row r="460" spans="1:32" ht="16" thickBot="1">
+    <row r="460" spans="1:32" ht="15.75" thickBot="1">
       <c r="A460" s="96"/>
       <c r="B460" s="96"/>
       <c r="C460" s="96"/>
@@ -50619,7 +50629,7 @@
       <c r="AE460" s="96"/>
       <c r="AF460" s="96"/>
     </row>
-    <row r="461" spans="1:32" ht="16" thickBot="1">
+    <row r="461" spans="1:32" ht="15.75" thickBot="1">
       <c r="A461" s="96"/>
       <c r="B461" s="96"/>
       <c r="C461" s="96"/>
@@ -50653,7 +50663,7 @@
       <c r="AE461" s="96"/>
       <c r="AF461" s="96"/>
     </row>
-    <row r="462" spans="1:32" ht="16" thickBot="1">
+    <row r="462" spans="1:32" ht="15.75" thickBot="1">
       <c r="A462" s="96"/>
       <c r="B462" s="96"/>
       <c r="C462" s="96"/>
@@ -50687,7 +50697,7 @@
       <c r="AE462" s="96"/>
       <c r="AF462" s="96"/>
     </row>
-    <row r="463" spans="1:32" ht="16" thickBot="1">
+    <row r="463" spans="1:32" ht="15.75" thickBot="1">
       <c r="A463" s="96"/>
       <c r="B463" s="96"/>
       <c r="C463" s="96"/>
@@ -50721,7 +50731,7 @@
       <c r="AE463" s="96"/>
       <c r="AF463" s="96"/>
     </row>
-    <row r="464" spans="1:32" ht="16" thickBot="1">
+    <row r="464" spans="1:32" ht="15.75" thickBot="1">
       <c r="A464" s="96"/>
       <c r="B464" s="96"/>
       <c r="C464" s="96"/>
@@ -50755,7 +50765,7 @@
       <c r="AE464" s="96"/>
       <c r="AF464" s="96"/>
     </row>
-    <row r="465" spans="1:32" ht="16" thickBot="1">
+    <row r="465" spans="1:32" ht="15.75" thickBot="1">
       <c r="A465" s="96"/>
       <c r="B465" s="96"/>
       <c r="C465" s="96"/>
@@ -50789,7 +50799,7 @@
       <c r="AE465" s="96"/>
       <c r="AF465" s="96"/>
     </row>
-    <row r="466" spans="1:32" ht="16" thickBot="1">
+    <row r="466" spans="1:32" ht="15.75" thickBot="1">
       <c r="A466" s="96"/>
       <c r="B466" s="96"/>
       <c r="C466" s="96"/>
@@ -50823,7 +50833,7 @@
       <c r="AE466" s="96"/>
       <c r="AF466" s="96"/>
     </row>
-    <row r="467" spans="1:32" ht="16" thickBot="1">
+    <row r="467" spans="1:32" ht="15.75" thickBot="1">
       <c r="A467" s="96"/>
       <c r="B467" s="96"/>
       <c r="C467" s="96"/>
@@ -50857,7 +50867,7 @@
       <c r="AE467" s="96"/>
       <c r="AF467" s="96"/>
     </row>
-    <row r="468" spans="1:32" ht="16" thickBot="1">
+    <row r="468" spans="1:32" ht="15.75" thickBot="1">
       <c r="A468" s="96"/>
       <c r="B468" s="96"/>
       <c r="C468" s="96"/>
@@ -50891,7 +50901,7 @@
       <c r="AE468" s="96"/>
       <c r="AF468" s="96"/>
     </row>
-    <row r="469" spans="1:32" ht="16" thickBot="1">
+    <row r="469" spans="1:32" ht="15.75" thickBot="1">
       <c r="A469" s="96"/>
       <c r="B469" s="96"/>
       <c r="C469" s="96"/>
@@ -50925,7 +50935,7 @@
       <c r="AE469" s="96"/>
       <c r="AF469" s="96"/>
     </row>
-    <row r="470" spans="1:32" ht="16" thickBot="1">
+    <row r="470" spans="1:32" ht="15.75" thickBot="1">
       <c r="A470" s="96"/>
       <c r="B470" s="96"/>
       <c r="C470" s="96"/>
@@ -50959,7 +50969,7 @@
       <c r="AE470" s="96"/>
       <c r="AF470" s="96"/>
     </row>
-    <row r="471" spans="1:32" ht="16" thickBot="1">
+    <row r="471" spans="1:32" ht="15.75" thickBot="1">
       <c r="A471" s="96"/>
       <c r="B471" s="96"/>
       <c r="C471" s="96"/>
@@ -50993,7 +51003,7 @@
       <c r="AE471" s="96"/>
       <c r="AF471" s="96"/>
     </row>
-    <row r="472" spans="1:32" ht="16" thickBot="1">
+    <row r="472" spans="1:32" ht="15.75" thickBot="1">
       <c r="A472" s="96"/>
       <c r="B472" s="96"/>
       <c r="C472" s="96"/>
@@ -51027,7 +51037,7 @@
       <c r="AE472" s="96"/>
       <c r="AF472" s="96"/>
     </row>
-    <row r="473" spans="1:32" ht="16" thickBot="1">
+    <row r="473" spans="1:32" ht="15.75" thickBot="1">
       <c r="A473" s="96"/>
       <c r="B473" s="96"/>
       <c r="C473" s="96"/>
@@ -51061,7 +51071,7 @@
       <c r="AE473" s="96"/>
       <c r="AF473" s="96"/>
     </row>
-    <row r="474" spans="1:32" ht="16" thickBot="1">
+    <row r="474" spans="1:32" ht="15.75" thickBot="1">
       <c r="A474" s="96"/>
       <c r="B474" s="96"/>
       <c r="C474" s="96"/>
@@ -51095,7 +51105,7 @@
       <c r="AE474" s="96"/>
       <c r="AF474" s="96"/>
     </row>
-    <row r="475" spans="1:32" ht="16" thickBot="1">
+    <row r="475" spans="1:32" ht="15.75" thickBot="1">
       <c r="A475" s="96"/>
       <c r="B475" s="96"/>
       <c r="C475" s="96"/>
@@ -51129,7 +51139,7 @@
       <c r="AE475" s="96"/>
       <c r="AF475" s="96"/>
     </row>
-    <row r="476" spans="1:32" ht="16" thickBot="1">
+    <row r="476" spans="1:32" ht="15.75" thickBot="1">
       <c r="A476" s="96"/>
       <c r="B476" s="96"/>
       <c r="C476" s="96"/>
@@ -51163,7 +51173,7 @@
       <c r="AE476" s="96"/>
       <c r="AF476" s="96"/>
     </row>
-    <row r="477" spans="1:32" ht="16" thickBot="1">
+    <row r="477" spans="1:32" ht="15.75" thickBot="1">
       <c r="A477" s="96"/>
       <c r="B477" s="96"/>
       <c r="C477" s="96"/>
@@ -51197,7 +51207,7 @@
       <c r="AE477" s="96"/>
       <c r="AF477" s="96"/>
     </row>
-    <row r="478" spans="1:32" ht="16" thickBot="1">
+    <row r="478" spans="1:32" ht="15.75" thickBot="1">
       <c r="A478" s="96"/>
       <c r="B478" s="96"/>
       <c r="C478" s="96"/>
@@ -51231,7 +51241,7 @@
       <c r="AE478" s="96"/>
       <c r="AF478" s="96"/>
     </row>
-    <row r="479" spans="1:32" ht="16" thickBot="1">
+    <row r="479" spans="1:32" ht="15.75" thickBot="1">
       <c r="A479" s="96"/>
       <c r="B479" s="96"/>
       <c r="C479" s="96"/>
@@ -51265,7 +51275,7 @@
       <c r="AE479" s="96"/>
       <c r="AF479" s="96"/>
     </row>
-    <row r="480" spans="1:32" ht="16" thickBot="1">
+    <row r="480" spans="1:32" ht="15.75" thickBot="1">
       <c r="A480" s="96"/>
       <c r="B480" s="96"/>
       <c r="C480" s="96"/>
@@ -51299,7 +51309,7 @@
       <c r="AE480" s="96"/>
       <c r="AF480" s="96"/>
     </row>
-    <row r="481" spans="1:32" ht="16" thickBot="1">
+    <row r="481" spans="1:32" ht="15.75" thickBot="1">
       <c r="A481" s="96"/>
       <c r="B481" s="96"/>
       <c r="C481" s="96"/>
@@ -51333,7 +51343,7 @@
       <c r="AE481" s="96"/>
       <c r="AF481" s="96"/>
     </row>
-    <row r="482" spans="1:32" ht="16" thickBot="1">
+    <row r="482" spans="1:32" ht="15.75" thickBot="1">
       <c r="A482" s="96"/>
       <c r="B482" s="96"/>
       <c r="C482" s="96"/>
@@ -51367,7 +51377,7 @@
       <c r="AE482" s="96"/>
       <c r="AF482" s="96"/>
     </row>
-    <row r="483" spans="1:32" ht="16" thickBot="1">
+    <row r="483" spans="1:32" ht="15.75" thickBot="1">
       <c r="A483" s="96"/>
       <c r="B483" s="96"/>
       <c r="C483" s="96"/>
@@ -51401,7 +51411,7 @@
       <c r="AE483" s="96"/>
       <c r="AF483" s="96"/>
     </row>
-    <row r="484" spans="1:32" ht="16" thickBot="1">
+    <row r="484" spans="1:32" ht="15.75" thickBot="1">
       <c r="A484" s="96"/>
       <c r="B484" s="96"/>
       <c r="C484" s="96"/>
@@ -51435,7 +51445,7 @@
       <c r="AE484" s="96"/>
       <c r="AF484" s="96"/>
     </row>
-    <row r="485" spans="1:32" ht="16" thickBot="1">
+    <row r="485" spans="1:32" ht="15.75" thickBot="1">
       <c r="A485" s="96"/>
       <c r="B485" s="96"/>
       <c r="C485" s="96"/>
@@ -51469,7 +51479,7 @@
       <c r="AE485" s="96"/>
       <c r="AF485" s="96"/>
     </row>
-    <row r="486" spans="1:32" ht="16" thickBot="1">
+    <row r="486" spans="1:32" ht="15.75" thickBot="1">
       <c r="A486" s="96"/>
       <c r="B486" s="96"/>
       <c r="C486" s="96"/>
@@ -51503,7 +51513,7 @@
       <c r="AE486" s="96"/>
       <c r="AF486" s="96"/>
     </row>
-    <row r="487" spans="1:32" ht="16" thickBot="1">
+    <row r="487" spans="1:32" ht="15.75" thickBot="1">
       <c r="A487" s="96"/>
       <c r="B487" s="96"/>
       <c r="C487" s="96"/>
@@ -51537,7 +51547,7 @@
       <c r="AE487" s="96"/>
       <c r="AF487" s="96"/>
     </row>
-    <row r="488" spans="1:32" ht="16" thickBot="1">
+    <row r="488" spans="1:32" ht="15.75" thickBot="1">
       <c r="A488" s="96"/>
       <c r="B488" s="96"/>
       <c r="C488" s="96"/>
@@ -51571,7 +51581,7 @@
       <c r="AE488" s="96"/>
       <c r="AF488" s="96"/>
     </row>
-    <row r="489" spans="1:32" ht="16" thickBot="1">
+    <row r="489" spans="1:32" ht="15.75" thickBot="1">
       <c r="A489" s="96"/>
       <c r="B489" s="96"/>
       <c r="C489" s="96"/>
@@ -51605,7 +51615,7 @@
       <c r="AE489" s="96"/>
       <c r="AF489" s="96"/>
     </row>
-    <row r="490" spans="1:32" ht="16" thickBot="1">
+    <row r="490" spans="1:32" ht="15.75" thickBot="1">
       <c r="A490" s="96"/>
       <c r="B490" s="96"/>
       <c r="C490" s="96"/>
@@ -51639,7 +51649,7 @@
       <c r="AE490" s="96"/>
       <c r="AF490" s="96"/>
     </row>
-    <row r="491" spans="1:32" ht="16" thickBot="1">
+    <row r="491" spans="1:32" ht="15.75" thickBot="1">
       <c r="A491" s="96"/>
       <c r="B491" s="96"/>
       <c r="C491" s="96"/>
@@ -51673,7 +51683,7 @@
       <c r="AE491" s="96"/>
       <c r="AF491" s="96"/>
     </row>
-    <row r="492" spans="1:32" ht="16" thickBot="1">
+    <row r="492" spans="1:32" ht="15.75" thickBot="1">
       <c r="A492" s="96"/>
       <c r="B492" s="96"/>
       <c r="C492" s="96"/>
@@ -51707,7 +51717,7 @@
       <c r="AE492" s="96"/>
       <c r="AF492" s="96"/>
     </row>
-    <row r="493" spans="1:32" ht="16" thickBot="1">
+    <row r="493" spans="1:32" ht="15.75" thickBot="1">
       <c r="A493" s="96"/>
       <c r="B493" s="96"/>
       <c r="C493" s="96"/>
@@ -51741,7 +51751,7 @@
       <c r="AE493" s="96"/>
       <c r="AF493" s="96"/>
     </row>
-    <row r="494" spans="1:32" ht="16" thickBot="1">
+    <row r="494" spans="1:32" ht="15.75" thickBot="1">
       <c r="A494" s="96"/>
       <c r="B494" s="96"/>
       <c r="C494" s="96"/>
@@ -51775,7 +51785,7 @@
       <c r="AE494" s="96"/>
       <c r="AF494" s="96"/>
     </row>
-    <row r="495" spans="1:32" ht="16" thickBot="1">
+    <row r="495" spans="1:32" ht="15.75" thickBot="1">
       <c r="A495" s="96"/>
       <c r="B495" s="96"/>
       <c r="C495" s="96"/>
@@ -51809,7 +51819,7 @@
       <c r="AE495" s="96"/>
       <c r="AF495" s="96"/>
     </row>
-    <row r="496" spans="1:32" ht="16" thickBot="1">
+    <row r="496" spans="1:32" ht="15.75" thickBot="1">
       <c r="A496" s="96"/>
       <c r="B496" s="96"/>
       <c r="C496" s="96"/>
@@ -51843,7 +51853,7 @@
       <c r="AE496" s="96"/>
       <c r="AF496" s="96"/>
     </row>
-    <row r="497" spans="1:32" ht="16" thickBot="1">
+    <row r="497" spans="1:32" ht="15.75" thickBot="1">
       <c r="A497" s="96"/>
       <c r="B497" s="96"/>
       <c r="C497" s="96"/>
@@ -51877,7 +51887,7 @@
       <c r="AE497" s="96"/>
       <c r="AF497" s="96"/>
     </row>
-    <row r="498" spans="1:32" ht="16" thickBot="1">
+    <row r="498" spans="1:32" ht="15.75" thickBot="1">
       <c r="A498" s="96"/>
       <c r="B498" s="96"/>
       <c r="C498" s="96"/>
@@ -51911,7 +51921,7 @@
       <c r="AE498" s="96"/>
       <c r="AF498" s="96"/>
     </row>
-    <row r="499" spans="1:32" ht="16" thickBot="1">
+    <row r="499" spans="1:32" ht="15.75" thickBot="1">
       <c r="A499" s="96"/>
       <c r="B499" s="96"/>
       <c r="C499" s="96"/>
@@ -51945,7 +51955,7 @@
       <c r="AE499" s="96"/>
       <c r="AF499" s="96"/>
     </row>
-    <row r="500" spans="1:32" ht="16" thickBot="1">
+    <row r="500" spans="1:32" ht="15.75" thickBot="1">
       <c r="A500" s="96"/>
       <c r="B500" s="96"/>
       <c r="C500" s="96"/>
@@ -51979,7 +51989,7 @@
       <c r="AE500" s="96"/>
       <c r="AF500" s="96"/>
     </row>
-    <row r="501" spans="1:32" ht="16" thickBot="1">
+    <row r="501" spans="1:32" ht="15.75" thickBot="1">
       <c r="A501" s="96"/>
       <c r="B501" s="96"/>
       <c r="C501" s="96"/>
@@ -52013,7 +52023,7 @@
       <c r="AE501" s="96"/>
       <c r="AF501" s="96"/>
     </row>
-    <row r="502" spans="1:32" ht="16" thickBot="1">
+    <row r="502" spans="1:32" ht="15.75" thickBot="1">
       <c r="A502" s="96"/>
       <c r="B502" s="96"/>
       <c r="C502" s="96"/>
@@ -52047,7 +52057,7 @@
       <c r="AE502" s="96"/>
       <c r="AF502" s="96"/>
     </row>
-    <row r="503" spans="1:32" ht="16" thickBot="1">
+    <row r="503" spans="1:32" ht="15.75" thickBot="1">
       <c r="A503" s="96"/>
       <c r="B503" s="96"/>
       <c r="C503" s="96"/>
@@ -52081,7 +52091,7 @@
       <c r="AE503" s="96"/>
       <c r="AF503" s="96"/>
     </row>
-    <row r="504" spans="1:32" ht="16" thickBot="1">
+    <row r="504" spans="1:32" ht="15.75" thickBot="1">
       <c r="A504" s="96"/>
       <c r="B504" s="96"/>
       <c r="C504" s="96"/>
@@ -52115,7 +52125,7 @@
       <c r="AE504" s="96"/>
       <c r="AF504" s="96"/>
     </row>
-    <row r="505" spans="1:32" ht="16" thickBot="1">
+    <row r="505" spans="1:32" ht="15.75" thickBot="1">
       <c r="A505" s="96"/>
       <c r="B505" s="96"/>
       <c r="C505" s="96"/>
@@ -52149,7 +52159,7 @@
       <c r="AE505" s="96"/>
       <c r="AF505" s="96"/>
     </row>
-    <row r="506" spans="1:32" ht="16" thickBot="1">
+    <row r="506" spans="1:32" ht="15.75" thickBot="1">
       <c r="A506" s="96"/>
       <c r="B506" s="96"/>
       <c r="C506" s="96"/>
@@ -52183,7 +52193,7 @@
       <c r="AE506" s="96"/>
       <c r="AF506" s="96"/>
     </row>
-    <row r="507" spans="1:32" ht="16" thickBot="1">
+    <row r="507" spans="1:32" ht="15.75" thickBot="1">
       <c r="A507" s="96"/>
       <c r="B507" s="96"/>
       <c r="C507" s="96"/>
@@ -52217,7 +52227,7 @@
       <c r="AE507" s="96"/>
       <c r="AF507" s="96"/>
     </row>
-    <row r="508" spans="1:32" ht="16" thickBot="1">
+    <row r="508" spans="1:32" ht="15.75" thickBot="1">
       <c r="A508" s="96"/>
       <c r="B508" s="96"/>
       <c r="C508" s="96"/>
@@ -52251,7 +52261,7 @@
       <c r="AE508" s="96"/>
       <c r="AF508" s="96"/>
     </row>
-    <row r="509" spans="1:32" ht="16" thickBot="1">
+    <row r="509" spans="1:32" ht="15.75" thickBot="1">
       <c r="A509" s="96"/>
       <c r="B509" s="96"/>
       <c r="C509" s="96"/>
@@ -52285,7 +52295,7 @@
       <c r="AE509" s="96"/>
       <c r="AF509" s="96"/>
     </row>
-    <row r="510" spans="1:32" ht="16" thickBot="1">
+    <row r="510" spans="1:32" ht="15.75" thickBot="1">
       <c r="A510" s="96"/>
       <c r="B510" s="96"/>
       <c r="C510" s="96"/>
@@ -52319,7 +52329,7 @@
       <c r="AE510" s="96"/>
       <c r="AF510" s="96"/>
     </row>
-    <row r="511" spans="1:32" ht="16" thickBot="1">
+    <row r="511" spans="1:32" ht="15.75" thickBot="1">
       <c r="A511" s="96"/>
       <c r="B511" s="96"/>
       <c r="C511" s="96"/>
@@ -52353,7 +52363,7 @@
       <c r="AE511" s="96"/>
       <c r="AF511" s="96"/>
     </row>
-    <row r="512" spans="1:32" ht="16" thickBot="1">
+    <row r="512" spans="1:32" ht="15.75" thickBot="1">
       <c r="A512" s="96"/>
       <c r="B512" s="96"/>
       <c r="C512" s="96"/>
@@ -52387,7 +52397,7 @@
       <c r="AE512" s="96"/>
       <c r="AF512" s="96"/>
     </row>
-    <row r="513" spans="1:32" ht="16" thickBot="1">
+    <row r="513" spans="1:32" ht="15.75" thickBot="1">
       <c r="A513" s="96"/>
       <c r="B513" s="96"/>
       <c r="C513" s="96"/>
@@ -52421,7 +52431,7 @@
       <c r="AE513" s="96"/>
       <c r="AF513" s="96"/>
     </row>
-    <row r="514" spans="1:32" ht="16" thickBot="1">
+    <row r="514" spans="1:32" ht="15.75" thickBot="1">
       <c r="A514" s="96"/>
       <c r="B514" s="96"/>
       <c r="C514" s="96"/>
@@ -52455,7 +52465,7 @@
       <c r="AE514" s="96"/>
       <c r="AF514" s="96"/>
     </row>
-    <row r="515" spans="1:32" ht="16" thickBot="1">
+    <row r="515" spans="1:32" ht="15.75" thickBot="1">
       <c r="A515" s="96"/>
       <c r="B515" s="96"/>
       <c r="C515" s="96"/>
@@ -52489,7 +52499,7 @@
       <c r="AE515" s="96"/>
       <c r="AF515" s="96"/>
     </row>
-    <row r="516" spans="1:32" ht="16" thickBot="1">
+    <row r="516" spans="1:32" ht="15.75" thickBot="1">
       <c r="A516" s="96"/>
       <c r="B516" s="96"/>
       <c r="C516" s="96"/>
@@ -52523,7 +52533,7 @@
       <c r="AE516" s="96"/>
       <c r="AF516" s="96"/>
     </row>
-    <row r="517" spans="1:32" ht="16" thickBot="1">
+    <row r="517" spans="1:32" ht="15.75" thickBot="1">
       <c r="A517" s="96"/>
       <c r="B517" s="96"/>
       <c r="C517" s="96"/>
@@ -52557,7 +52567,7 @@
       <c r="AE517" s="96"/>
       <c r="AF517" s="96"/>
     </row>
-    <row r="518" spans="1:32" ht="16" thickBot="1">
+    <row r="518" spans="1:32" ht="15.75" thickBot="1">
       <c r="A518" s="96"/>
       <c r="B518" s="96"/>
       <c r="C518" s="96"/>
@@ -52591,7 +52601,7 @@
       <c r="AE518" s="96"/>
       <c r="AF518" s="96"/>
     </row>
-    <row r="519" spans="1:32" ht="16" thickBot="1">
+    <row r="519" spans="1:32" ht="15.75" thickBot="1">
       <c r="A519" s="96"/>
       <c r="B519" s="96"/>
       <c r="C519" s="96"/>
@@ -52625,7 +52635,7 @@
       <c r="AE519" s="96"/>
       <c r="AF519" s="96"/>
     </row>
-    <row r="520" spans="1:32" ht="16" thickBot="1">
+    <row r="520" spans="1:32" ht="15.75" thickBot="1">
       <c r="A520" s="96"/>
       <c r="B520" s="96"/>
       <c r="C520" s="96"/>
@@ -52659,7 +52669,7 @@
       <c r="AE520" s="96"/>
       <c r="AF520" s="96"/>
     </row>
-    <row r="521" spans="1:32" ht="16" thickBot="1">
+    <row r="521" spans="1:32" ht="15.75" thickBot="1">
       <c r="A521" s="96"/>
       <c r="B521" s="96"/>
       <c r="C521" s="96"/>
@@ -52693,7 +52703,7 @@
       <c r="AE521" s="96"/>
       <c r="AF521" s="96"/>
     </row>
-    <row r="522" spans="1:32" ht="16" thickBot="1">
+    <row r="522" spans="1:32" ht="15.75" thickBot="1">
       <c r="A522" s="96"/>
       <c r="B522" s="96"/>
       <c r="C522" s="96"/>
@@ -52727,7 +52737,7 @@
       <c r="AE522" s="96"/>
       <c r="AF522" s="96"/>
     </row>
-    <row r="523" spans="1:32" ht="16" thickBot="1">
+    <row r="523" spans="1:32" ht="15.75" thickBot="1">
       <c r="A523" s="96"/>
       <c r="B523" s="96"/>
       <c r="C523" s="96"/>
@@ -52761,7 +52771,7 @@
       <c r="AE523" s="96"/>
       <c r="AF523" s="96"/>
     </row>
-    <row r="524" spans="1:32" ht="16" thickBot="1">
+    <row r="524" spans="1:32" ht="15.75" thickBot="1">
       <c r="A524" s="96"/>
       <c r="B524" s="96"/>
       <c r="C524" s="96"/>
@@ -52795,7 +52805,7 @@
       <c r="AE524" s="96"/>
       <c r="AF524" s="96"/>
     </row>
-    <row r="525" spans="1:32" ht="16" thickBot="1">
+    <row r="525" spans="1:32" ht="15.75" thickBot="1">
       <c r="A525" s="96"/>
       <c r="B525" s="96"/>
       <c r="C525" s="96"/>
@@ -52829,7 +52839,7 @@
       <c r="AE525" s="96"/>
       <c r="AF525" s="96"/>
     </row>
-    <row r="526" spans="1:32" ht="16" thickBot="1">
+    <row r="526" spans="1:32" ht="15.75" thickBot="1">
       <c r="A526" s="96"/>
       <c r="B526" s="96"/>
       <c r="C526" s="96"/>
@@ -52863,7 +52873,7 @@
       <c r="AE526" s="96"/>
       <c r="AF526" s="96"/>
     </row>
-    <row r="527" spans="1:32" ht="16" thickBot="1">
+    <row r="527" spans="1:32" ht="15.75" thickBot="1">
       <c r="A527" s="96"/>
       <c r="B527" s="96"/>
       <c r="C527" s="96"/>
@@ -52897,7 +52907,7 @@
       <c r="AE527" s="96"/>
       <c r="AF527" s="96"/>
     </row>
-    <row r="528" spans="1:32" ht="16" thickBot="1">
+    <row r="528" spans="1:32" ht="15.75" thickBot="1">
       <c r="A528" s="96"/>
       <c r="B528" s="96"/>
       <c r="C528" s="96"/>
@@ -52931,7 +52941,7 @@
       <c r="AE528" s="96"/>
       <c r="AF528" s="96"/>
     </row>
-    <row r="529" spans="1:32" ht="16" thickBot="1">
+    <row r="529" spans="1:32" ht="15.75" thickBot="1">
       <c r="A529" s="96"/>
       <c r="B529" s="96"/>
       <c r="C529" s="96"/>
@@ -52965,7 +52975,7 @@
       <c r="AE529" s="96"/>
       <c r="AF529" s="96"/>
     </row>
-    <row r="530" spans="1:32" ht="16" thickBot="1">
+    <row r="530" spans="1:32" ht="15.75" thickBot="1">
       <c r="A530" s="96"/>
       <c r="B530" s="96"/>
       <c r="C530" s="96"/>
@@ -52999,7 +53009,7 @@
       <c r="AE530" s="96"/>
       <c r="AF530" s="96"/>
     </row>
-    <row r="531" spans="1:32" ht="16" thickBot="1">
+    <row r="531" spans="1:32" ht="15.75" thickBot="1">
       <c r="A531" s="96"/>
       <c r="B531" s="96"/>
       <c r="C531" s="96"/>
@@ -53033,7 +53043,7 @@
       <c r="AE531" s="96"/>
       <c r="AF531" s="96"/>
     </row>
-    <row r="532" spans="1:32" ht="16" thickBot="1">
+    <row r="532" spans="1:32" ht="15.75" thickBot="1">
       <c r="A532" s="96"/>
       <c r="B532" s="96"/>
       <c r="C532" s="96"/>
@@ -53067,7 +53077,7 @@
       <c r="AE532" s="96"/>
       <c r="AF532" s="96"/>
     </row>
-    <row r="533" spans="1:32" ht="16" thickBot="1">
+    <row r="533" spans="1:32" ht="15.75" thickBot="1">
       <c r="A533" s="96"/>
       <c r="B533" s="96"/>
       <c r="C533" s="96"/>
@@ -53101,7 +53111,7 @@
       <c r="AE533" s="96"/>
       <c r="AF533" s="96"/>
     </row>
-    <row r="534" spans="1:32" ht="16" thickBot="1">
+    <row r="534" spans="1:32" ht="15.75" thickBot="1">
       <c r="A534" s="96"/>
       <c r="B534" s="96"/>
       <c r="C534" s="96"/>
@@ -53135,7 +53145,7 @@
       <c r="AE534" s="96"/>
       <c r="AF534" s="96"/>
     </row>
-    <row r="535" spans="1:32" ht="16" thickBot="1">
+    <row r="535" spans="1:32" ht="15.75" thickBot="1">
       <c r="A535" s="96"/>
       <c r="B535" s="96"/>
       <c r="C535" s="96"/>
@@ -53169,7 +53179,7 @@
       <c r="AE535" s="96"/>
       <c r="AF535" s="96"/>
     </row>
-    <row r="536" spans="1:32" ht="16" thickBot="1">
+    <row r="536" spans="1:32" ht="15.75" thickBot="1">
       <c r="A536" s="96"/>
       <c r="B536" s="96"/>
       <c r="C536" s="96"/>
@@ -53203,7 +53213,7 @@
       <c r="AE536" s="96"/>
       <c r="AF536" s="96"/>
     </row>
-    <row r="537" spans="1:32" ht="16" thickBot="1">
+    <row r="537" spans="1:32" ht="15.75" thickBot="1">
       <c r="A537" s="96"/>
       <c r="B537" s="96"/>
       <c r="C537" s="96"/>
@@ -53237,7 +53247,7 @@
       <c r="AE537" s="96"/>
       <c r="AF537" s="96"/>
     </row>
-    <row r="538" spans="1:32" ht="16" thickBot="1">
+    <row r="538" spans="1:32" ht="15.75" thickBot="1">
       <c r="A538" s="96"/>
       <c r="B538" s="96"/>
       <c r="C538" s="96"/>
@@ -53271,7 +53281,7 @@
       <c r="AE538" s="96"/>
       <c r="AF538" s="96"/>
     </row>
-    <row r="539" spans="1:32" ht="16" thickBot="1">
+    <row r="539" spans="1:32" ht="15.75" thickBot="1">
       <c r="A539" s="96"/>
       <c r="B539" s="96"/>
       <c r="C539" s="96"/>
@@ -53305,7 +53315,7 @@
       <c r="AE539" s="96"/>
       <c r="AF539" s="96"/>
     </row>
-    <row r="540" spans="1:32" ht="16" thickBot="1">
+    <row r="540" spans="1:32" ht="15.75" thickBot="1">
       <c r="A540" s="96"/>
       <c r="B540" s="96"/>
       <c r="C540" s="96"/>
@@ -53339,7 +53349,7 @@
       <c r="AE540" s="96"/>
       <c r="AF540" s="96"/>
     </row>
-    <row r="541" spans="1:32" ht="16" thickBot="1">
+    <row r="541" spans="1:32" ht="15.75" thickBot="1">
       <c r="A541" s="96"/>
       <c r="B541" s="96"/>
       <c r="C541" s="96"/>
@@ -53373,7 +53383,7 @@
       <c r="AE541" s="96"/>
       <c r="AF541" s="96"/>
     </row>
-    <row r="542" spans="1:32" ht="16" thickBot="1">
+    <row r="542" spans="1:32" ht="15.75" thickBot="1">
       <c r="A542" s="96"/>
       <c r="B542" s="96"/>
       <c r="C542" s="96"/>
@@ -53407,7 +53417,7 @@
       <c r="AE542" s="96"/>
       <c r="AF542" s="96"/>
     </row>
-    <row r="543" spans="1:32" ht="16" thickBot="1">
+    <row r="543" spans="1:32" ht="15.75" thickBot="1">
       <c r="A543" s="96"/>
       <c r="B543" s="96"/>
       <c r="C543" s="96"/>
@@ -53441,7 +53451,7 @@
       <c r="AE543" s="96"/>
       <c r="AF543" s="96"/>
     </row>
-    <row r="544" spans="1:32" ht="16" thickBot="1">
+    <row r="544" spans="1:32" ht="15.75" thickBot="1">
       <c r="A544" s="96"/>
       <c r="B544" s="96"/>
       <c r="C544" s="96"/>
@@ -53475,7 +53485,7 @@
       <c r="AE544" s="96"/>
       <c r="AF544" s="96"/>
     </row>
-    <row r="545" spans="1:32" ht="16" thickBot="1">
+    <row r="545" spans="1:32" ht="15.75" thickBot="1">
       <c r="A545" s="96"/>
       <c r="B545" s="96"/>
       <c r="C545" s="96"/>
@@ -53509,7 +53519,7 @@
       <c r="AE545" s="96"/>
       <c r="AF545" s="96"/>
     </row>
-    <row r="546" spans="1:32" ht="16" thickBot="1">
+    <row r="546" spans="1:32" ht="15.75" thickBot="1">
       <c r="A546" s="96"/>
       <c r="B546" s="96"/>
       <c r="C546" s="96"/>
@@ -53543,7 +53553,7 @@
       <c r="AE546" s="96"/>
       <c r="AF546" s="96"/>
     </row>
-    <row r="547" spans="1:32" ht="16" thickBot="1">
+    <row r="547" spans="1:32" ht="15.75" thickBot="1">
       <c r="A547" s="96"/>
       <c r="B547" s="96"/>
       <c r="C547" s="96"/>
@@ -53577,7 +53587,7 @@
       <c r="AE547" s="96"/>
       <c r="AF547" s="96"/>
     </row>
-    <row r="548" spans="1:32" ht="16" thickBot="1">
+    <row r="548" spans="1:32" ht="15.75" thickBot="1">
       <c r="A548" s="96"/>
       <c r="B548" s="96"/>
       <c r="C548" s="96"/>
@@ -53611,7 +53621,7 @@
       <c r="AE548" s="96"/>
       <c r="AF548" s="96"/>
     </row>
-    <row r="549" spans="1:32" ht="16" thickBot="1">
+    <row r="549" spans="1:32" ht="15.75" thickBot="1">
       <c r="A549" s="96"/>
       <c r="B549" s="96"/>
       <c r="C549" s="96"/>
@@ -53645,7 +53655,7 @@
       <c r="AE549" s="96"/>
       <c r="AF549" s="96"/>
     </row>
-    <row r="550" spans="1:32" ht="16" thickBot="1">
+    <row r="550" spans="1:32" ht="15.75" thickBot="1">
       <c r="A550" s="96"/>
       <c r="B550" s="96"/>
       <c r="C550" s="96"/>
@@ -53679,7 +53689,7 @@
       <c r="AE550" s="96"/>
       <c r="AF550" s="96"/>
     </row>
-    <row r="551" spans="1:32" ht="16" thickBot="1">
+    <row r="551" spans="1:32" ht="15.75" thickBot="1">
       <c r="A551" s="96"/>
       <c r="B551" s="96"/>
       <c r="C551" s="96"/>
@@ -53713,7 +53723,7 @@
       <c r="AE551" s="96"/>
       <c r="AF551" s="96"/>
     </row>
-    <row r="552" spans="1:32" ht="16" thickBot="1">
+    <row r="552" spans="1:32" ht="15.75" thickBot="1">
       <c r="A552" s="96"/>
       <c r="B552" s="96"/>
       <c r="C552" s="96"/>
@@ -53747,7 +53757,7 @@
       <c r="AE552" s="96"/>
       <c r="AF552" s="96"/>
     </row>
-    <row r="553" spans="1:32" ht="16" thickBot="1">
+    <row r="553" spans="1:32" ht="15.75" thickBot="1">
       <c r="A553" s="96"/>
       <c r="B553" s="96"/>
       <c r="C553" s="96"/>
@@ -53781,7 +53791,7 @@
       <c r="AE553" s="96"/>
       <c r="AF553" s="96"/>
     </row>
-    <row r="554" spans="1:32" ht="16" thickBot="1">
+    <row r="554" spans="1:32" ht="15.75" thickBot="1">
       <c r="A554" s="96"/>
       <c r="B554" s="96"/>
       <c r="C554" s="96"/>
@@ -53815,7 +53825,7 @@
       <c r="AE554" s="96"/>
       <c r="AF554" s="96"/>
     </row>
-    <row r="555" spans="1:32" ht="16" thickBot="1">
+    <row r="555" spans="1:32" ht="15.75" thickBot="1">
       <c r="A555" s="96"/>
       <c r="B555" s="96"/>
       <c r="C555" s="96"/>
@@ -53849,7 +53859,7 @@
       <c r="AE555" s="96"/>
       <c r="AF555" s="96"/>
     </row>
-    <row r="556" spans="1:32" ht="16" thickBot="1">
+    <row r="556" spans="1:32" ht="15.75" thickBot="1">
       <c r="A556" s="96"/>
       <c r="B556" s="96"/>
       <c r="C556" s="96"/>
@@ -53883,7 +53893,7 @@
       <c r="AE556" s="96"/>
       <c r="AF556" s="96"/>
     </row>
-    <row r="557" spans="1:32" ht="16" thickBot="1">
+    <row r="557" spans="1:32" ht="15.75" thickBot="1">
       <c r="A557" s="96"/>
       <c r="B557" s="96"/>
       <c r="C557" s="96"/>
@@ -53917,7 +53927,7 @@
       <c r="AE557" s="96"/>
       <c r="AF557" s="96"/>
     </row>
-    <row r="558" spans="1:32" ht="16" thickBot="1">
+    <row r="558" spans="1:32" ht="15.75" thickBot="1">
       <c r="A558" s="96"/>
       <c r="B558" s="96"/>
       <c r="C558" s="96"/>
@@ -53951,7 +53961,7 @@
       <c r="AE558" s="96"/>
       <c r="AF558" s="96"/>
     </row>
-    <row r="559" spans="1:32" ht="16" thickBot="1">
+    <row r="559" spans="1:32" ht="15.75" thickBot="1">
       <c r="A559" s="96"/>
       <c r="B559" s="96"/>
       <c r="C559" s="96"/>
@@ -53985,7 +53995,7 @@
       <c r="AE559" s="96"/>
       <c r="AF559" s="96"/>
     </row>
-    <row r="560" spans="1:32" ht="16" thickBot="1">
+    <row r="560" spans="1:32" ht="15.75" thickBot="1">
       <c r="A560" s="96"/>
       <c r="B560" s="96"/>
       <c r="C560" s="96"/>
@@ -54019,7 +54029,7 @@
       <c r="AE560" s="96"/>
       <c r="AF560" s="96"/>
     </row>
-    <row r="561" spans="1:32" ht="16" thickBot="1">
+    <row r="561" spans="1:32" ht="15.75" thickBot="1">
       <c r="A561" s="96"/>
       <c r="B561" s="96"/>
       <c r="C561" s="96"/>
@@ -54053,7 +54063,7 @@
       <c r="AE561" s="96"/>
       <c r="AF561" s="96"/>
     </row>
-    <row r="562" spans="1:32" ht="16" thickBot="1">
+    <row r="562" spans="1:32" ht="15.75" thickBot="1">
       <c r="A562" s="96"/>
       <c r="B562" s="96"/>
       <c r="C562" s="96"/>
@@ -54087,7 +54097,7 @@
       <c r="AE562" s="96"/>
       <c r="AF562" s="96"/>
     </row>
-    <row r="563" spans="1:32" ht="16" thickBot="1">
+    <row r="563" spans="1:32" ht="15.75" thickBot="1">
       <c r="A563" s="96"/>
       <c r="B563" s="96"/>
       <c r="C563" s="96"/>
@@ -54121,7 +54131,7 @@
       <c r="AE563" s="96"/>
       <c r="AF563" s="96"/>
     </row>
-    <row r="564" spans="1:32" ht="16" thickBot="1">
+    <row r="564" spans="1:32" ht="15.75" thickBot="1">
       <c r="A564" s="96"/>
       <c r="B564" s="96"/>
       <c r="C564" s="96"/>
@@ -54155,7 +54165,7 @@
       <c r="AE564" s="96"/>
       <c r="AF564" s="96"/>
     </row>
-    <row r="565" spans="1:32" ht="16" thickBot="1">
+    <row r="565" spans="1:32" ht="15.75" thickBot="1">
       <c r="A565" s="96"/>
       <c r="B565" s="96"/>
       <c r="C565" s="96"/>
@@ -54189,7 +54199,7 @@
       <c r="AE565" s="96"/>
       <c r="AF565" s="96"/>
     </row>
-    <row r="566" spans="1:32" ht="16" thickBot="1">
+    <row r="566" spans="1:32" ht="15.75" thickBot="1">
       <c r="A566" s="96"/>
       <c r="B566" s="96"/>
       <c r="C566" s="96"/>
@@ -54223,7 +54233,7 @@
       <c r="AE566" s="96"/>
       <c r="AF566" s="96"/>
     </row>
-    <row r="567" spans="1:32" ht="16" thickBot="1">
+    <row r="567" spans="1:32" ht="15.75" thickBot="1">
       <c r="A567" s="96"/>
       <c r="B567" s="96"/>
       <c r="C567" s="96"/>
@@ -54257,7 +54267,7 @@
       <c r="AE567" s="96"/>
       <c r="AF567" s="96"/>
     </row>
-    <row r="568" spans="1:32" ht="16" thickBot="1">
+    <row r="568" spans="1:32" ht="15.75" thickBot="1">
       <c r="A568" s="96"/>
       <c r="B568" s="96"/>
       <c r="C568" s="96"/>
@@ -54291,7 +54301,7 @@
       <c r="AE568" s="96"/>
       <c r="AF568" s="96"/>
     </row>
-    <row r="569" spans="1:32" ht="16" thickBot="1">
+    <row r="569" spans="1:32" ht="15.75" thickBot="1">
       <c r="A569" s="96"/>
       <c r="B569" s="96"/>
       <c r="C569" s="96"/>
@@ -54325,7 +54335,7 @@
       <c r="AE569" s="96"/>
       <c r="AF569" s="96"/>
     </row>
-    <row r="570" spans="1:32" ht="16" thickBot="1">
+    <row r="570" spans="1:32" ht="15.75" thickBot="1">
       <c r="A570" s="96"/>
       <c r="B570" s="96"/>
       <c r="C570" s="96"/>
@@ -54359,7 +54369,7 @@
       <c r="AE570" s="96"/>
       <c r="AF570" s="96"/>
     </row>
-    <row r="571" spans="1:32" ht="16" thickBot="1">
+    <row r="571" spans="1:32" ht="15.75" thickBot="1">
       <c r="A571" s="96"/>
       <c r="B571" s="96"/>
       <c r="C571" s="96"/>
@@ -54393,7 +54403,7 @@
       <c r="AE571" s="96"/>
       <c r="AF571" s="96"/>
     </row>
-    <row r="572" spans="1:32" ht="16" thickBot="1">
+    <row r="572" spans="1:32" ht="15.75" thickBot="1">
       <c r="A572" s="96"/>
       <c r="B572" s="96"/>
       <c r="C572" s="96"/>
@@ -54427,7 +54437,7 @@
       <c r="AE572" s="96"/>
       <c r="AF572" s="96"/>
     </row>
-    <row r="573" spans="1:32" ht="16" thickBot="1">
+    <row r="573" spans="1:32" ht="15.75" thickBot="1">
       <c r="A573" s="96"/>
       <c r="B573" s="96"/>
       <c r="C573" s="96"/>
@@ -54461,7 +54471,7 @@
       <c r="AE573" s="96"/>
       <c r="AF573" s="96"/>
     </row>
-    <row r="574" spans="1:32" ht="16" thickBot="1">
+    <row r="574" spans="1:32" ht="15.75" thickBot="1">
       <c r="A574" s="96"/>
       <c r="B574" s="96"/>
       <c r="C574" s="96"/>
@@ -54495,7 +54505,7 @@
       <c r="AE574" s="96"/>
       <c r="AF574" s="96"/>
     </row>
-    <row r="575" spans="1:32" ht="16" thickBot="1">
+    <row r="575" spans="1:32" ht="15.75" thickBot="1">
       <c r="A575" s="96"/>
       <c r="B575" s="96"/>
       <c r="C575" s="96"/>
@@ -54529,7 +54539,7 @@
       <c r="AE575" s="96"/>
       <c r="AF575" s="96"/>
     </row>
-    <row r="576" spans="1:32" ht="16" thickBot="1">
+    <row r="576" spans="1:32" ht="15.75" thickBot="1">
       <c r="A576" s="96"/>
       <c r="B576" s="96"/>
       <c r="C576" s="96"/>
@@ -54563,7 +54573,7 @@
       <c r="AE576" s="96"/>
       <c r="AF576" s="96"/>
     </row>
-    <row r="577" spans="1:32" ht="16" thickBot="1">
+    <row r="577" spans="1:32" ht="15.75" thickBot="1">
       <c r="A577" s="96"/>
       <c r="B577" s="96"/>
       <c r="C577" s="96"/>
@@ -54597,7 +54607,7 @@
       <c r="AE577" s="96"/>
       <c r="AF577" s="96"/>
     </row>
-    <row r="578" spans="1:32" ht="16" thickBot="1">
+    <row r="578" spans="1:32" ht="15.75" thickBot="1">
       <c r="A578" s="96"/>
       <c r="B578" s="96"/>
       <c r="C578" s="96"/>
@@ -54631,7 +54641,7 @@
       <c r="AE578" s="96"/>
       <c r="AF578" s="96"/>
     </row>
-    <row r="579" spans="1:32" ht="16" thickBot="1">
+    <row r="579" spans="1:32" ht="15.75" thickBot="1">
       <c r="A579" s="96"/>
       <c r="B579" s="96"/>
       <c r="C579" s="96"/>
@@ -54665,7 +54675,7 @@
       <c r="AE579" s="96"/>
       <c r="AF579" s="96"/>
     </row>
-    <row r="580" spans="1:32" ht="16" thickBot="1">
+    <row r="580" spans="1:32" ht="15.75" thickBot="1">
       <c r="A580" s="96"/>
       <c r="B580" s="96"/>
       <c r="C580" s="96"/>
@@ -54699,7 +54709,7 @@
       <c r="AE580" s="96"/>
       <c r="AF580" s="96"/>
     </row>
-    <row r="581" spans="1:32" ht="16" thickBot="1">
+    <row r="581" spans="1:32" ht="15.75" thickBot="1">
       <c r="A581" s="96"/>
       <c r="B581" s="96"/>
       <c r="C581" s="96"/>
@@ -54733,7 +54743,7 @@
       <c r="AE581" s="96"/>
       <c r="AF581" s="96"/>
     </row>
-    <row r="582" spans="1:32" ht="16" thickBot="1">
+    <row r="582" spans="1:32" ht="15.75" thickBot="1">
       <c r="A582" s="96"/>
       <c r="B582" s="96"/>
       <c r="C582" s="96"/>
@@ -54767,7 +54777,7 @@
       <c r="AE582" s="96"/>
       <c r="AF582" s="96"/>
     </row>
-    <row r="583" spans="1:32" ht="16" thickBot="1">
+    <row r="583" spans="1:32" ht="15.75" thickBot="1">
       <c r="A583" s="96"/>
       <c r="B583" s="96"/>
       <c r="C583" s="96"/>
@@ -54801,7 +54811,7 @@
       <c r="AE583" s="96"/>
       <c r="AF583" s="96"/>
     </row>
-    <row r="584" spans="1:32" ht="16" thickBot="1">
+    <row r="584" spans="1:32" ht="15.75" thickBot="1">
       <c r="A584" s="96"/>
       <c r="B584" s="96"/>
       <c r="C584" s="96"/>
@@ -54835,7 +54845,7 @@
       <c r="AE584" s="96"/>
       <c r="AF584" s="96"/>
     </row>
-    <row r="585" spans="1:32" ht="16" thickBot="1">
+    <row r="585" spans="1:32" ht="15.75" thickBot="1">
       <c r="A585" s="96"/>
       <c r="B585" s="96"/>
       <c r="C585" s="96"/>
@@ -54869,7 +54879,7 @@
       <c r="AE585" s="96"/>
       <c r="AF585" s="96"/>
     </row>
-    <row r="586" spans="1:32" ht="16" thickBot="1">
+    <row r="586" spans="1:32" ht="15.75" thickBot="1">
       <c r="A586" s="96"/>
       <c r="B586" s="96"/>
       <c r="C586" s="96"/>
@@ -54903,7 +54913,7 @@
       <c r="AE586" s="96"/>
       <c r="AF586" s="96"/>
     </row>
-    <row r="587" spans="1:32" ht="16" thickBot="1">
+    <row r="587" spans="1:32" ht="15.75" thickBot="1">
       <c r="A587" s="96"/>
       <c r="B587" s="96"/>
       <c r="C587" s="96"/>
@@ -54937,7 +54947,7 @@
       <c r="AE587" s="96"/>
       <c r="AF587" s="96"/>
     </row>
-    <row r="588" spans="1:32" ht="16" thickBot="1">
+    <row r="588" spans="1:32" ht="15.75" thickBot="1">
       <c r="A588" s="96"/>
       <c r="B588" s="96"/>
       <c r="C588" s="96"/>
@@ -54971,7 +54981,7 @@
       <c r="AE588" s="96"/>
       <c r="AF588" s="96"/>
     </row>
-    <row r="589" spans="1:32" ht="16" thickBot="1">
+    <row r="589" spans="1:32" ht="15.75" thickBot="1">
       <c r="A589" s="96"/>
       <c r="B589" s="96"/>
       <c r="C589" s="96"/>
@@ -55005,7 +55015,7 @@
       <c r="AE589" s="96"/>
       <c r="AF589" s="96"/>
     </row>
-    <row r="590" spans="1:32" ht="16" thickBot="1">
+    <row r="590" spans="1:32" ht="15.75" thickBot="1">
       <c r="A590" s="96"/>
       <c r="B590" s="96"/>
       <c r="C590" s="96"/>
@@ -55039,7 +55049,7 @@
       <c r="AE590" s="96"/>
       <c r="AF590" s="96"/>
     </row>
-    <row r="591" spans="1:32" ht="16" thickBot="1">
+    <row r="591" spans="1:32" ht="15.75" thickBot="1">
       <c r="A591" s="96"/>
       <c r="B591" s="96"/>
       <c r="C591" s="96"/>
@@ -55073,7 +55083,7 @@
       <c r="AE591" s="96"/>
       <c r="AF591" s="96"/>
     </row>
-    <row r="592" spans="1:32" ht="16" thickBot="1">
+    <row r="592" spans="1:32" ht="15.75" thickBot="1">
       <c r="A592" s="96"/>
       <c r="B592" s="96"/>
       <c r="C592" s="96"/>
@@ -55107,7 +55117,7 @@
       <c r="AE592" s="96"/>
       <c r="AF592" s="96"/>
     </row>
-    <row r="593" spans="1:32" ht="16" thickBot="1">
+    <row r="593" spans="1:32" ht="15.75" thickBot="1">
       <c r="A593" s="96"/>
       <c r="B593" s="96"/>
       <c r="C593" s="96"/>
@@ -55141,7 +55151,7 @@
       <c r="AE593" s="96"/>
       <c r="AF593" s="96"/>
     </row>
-    <row r="594" spans="1:32" ht="16" thickBot="1">
+    <row r="594" spans="1:32" ht="15.75" thickBot="1">
       <c r="A594" s="96"/>
       <c r="B594" s="96"/>
       <c r="C594" s="96"/>
@@ -55175,7 +55185,7 @@
       <c r="AE594" s="96"/>
       <c r="AF594" s="96"/>
     </row>
-    <row r="595" spans="1:32" ht="16" thickBot="1">
+    <row r="595" spans="1:32" ht="15.75" thickBot="1">
       <c r="A595" s="96"/>
       <c r="B595" s="96"/>
       <c r="C595" s="96"/>
@@ -55209,7 +55219,7 @@
       <c r="AE595" s="96"/>
       <c r="AF595" s="96"/>
     </row>
-    <row r="596" spans="1:32" ht="16" thickBot="1">
+    <row r="596" spans="1:32" ht="15.75" thickBot="1">
       <c r="A596" s="96"/>
       <c r="B596" s="96"/>
       <c r="C596" s="96"/>
@@ -55243,7 +55253,7 @@
       <c r="AE596" s="96"/>
       <c r="AF596" s="96"/>
     </row>
-    <row r="597" spans="1:32" ht="16" thickBot="1">
+    <row r="597" spans="1:32" ht="15.75" thickBot="1">
       <c r="A597" s="96"/>
       <c r="B597" s="96"/>
       <c r="C597" s="96"/>
@@ -55277,7 +55287,7 @@
       <c r="AE597" s="96"/>
       <c r="AF597" s="96"/>
     </row>
-    <row r="598" spans="1:32" ht="16" thickBot="1">
+    <row r="598" spans="1:32" ht="15.75" thickBot="1">
       <c r="A598" s="96"/>
       <c r="B598" s="96"/>
       <c r="C598" s="96"/>
@@ -55311,7 +55321,7 @@
       <c r="AE598" s="96"/>
       <c r="AF598" s="96"/>
     </row>
-    <row r="599" spans="1:32" ht="16" thickBot="1">
+    <row r="599" spans="1:32" ht="15.75" thickBot="1">
       <c r="A599" s="96"/>
       <c r="B599" s="96"/>
       <c r="C599" s="96"/>
@@ -55345,7 +55355,7 @@
       <c r="AE599" s="96"/>
       <c r="AF599" s="96"/>
     </row>
-    <row r="600" spans="1:32" ht="16" thickBot="1">
+    <row r="600" spans="1:32" ht="15.75" thickBot="1">
       <c r="A600" s="96"/>
       <c r="B600" s="96"/>
       <c r="C600" s="96"/>
@@ -55379,7 +55389,7 @@
       <c r="AE600" s="96"/>
       <c r="AF600" s="96"/>
     </row>
-    <row r="601" spans="1:32" ht="16" thickBot="1">
+    <row r="601" spans="1:32" ht="15.75" thickBot="1">
       <c r="A601" s="96"/>
       <c r="B601" s="96"/>
       <c r="C601" s="96"/>
@@ -55413,7 +55423,7 @@
       <c r="AE601" s="96"/>
       <c r="AF601" s="96"/>
     </row>
-    <row r="602" spans="1:32" ht="16" thickBot="1">
+    <row r="602" spans="1:32" ht="15.75" thickBot="1">
       <c r="A602" s="96"/>
       <c r="B602" s="96"/>
       <c r="C602" s="96"/>
@@ -55447,7 +55457,7 @@
       <c r="AE602" s="96"/>
       <c r="AF602" s="96"/>
     </row>
-    <row r="603" spans="1:32" ht="16" thickBot="1">
+    <row r="603" spans="1:32" ht="15.75" thickBot="1">
       <c r="A603" s="96"/>
       <c r="B603" s="96"/>
       <c r="C603" s="96"/>
@@ -55481,7 +55491,7 @@
       <c r="AE603" s="96"/>
       <c r="AF603" s="96"/>
     </row>
-    <row r="604" spans="1:32" ht="16" thickBot="1">
+    <row r="604" spans="1:32" ht="15.75" thickBot="1">
       <c r="A604" s="96"/>
       <c r="B604" s="96"/>
       <c r="C604" s="96"/>
@@ -55515,7 +55525,7 @@
       <c r="AE604" s="96"/>
       <c r="AF604" s="96"/>
     </row>
-    <row r="605" spans="1:32" ht="16" thickBot="1">
+    <row r="605" spans="1:32" ht="15.75" thickBot="1">
       <c r="A605" s="96"/>
       <c r="B605" s="96"/>
       <c r="C605" s="96"/>
@@ -55549,7 +55559,7 @@
       <c r="AE605" s="96"/>
       <c r="AF605" s="96"/>
     </row>
-    <row r="606" spans="1:32" ht="16" thickBot="1">
+    <row r="606" spans="1:32" ht="15.75" thickBot="1">
       <c r="A606" s="96"/>
       <c r="B606" s="96"/>
       <c r="C606" s="96"/>
@@ -55583,7 +55593,7 @@
       <c r="AE606" s="96"/>
       <c r="AF606" s="96"/>
     </row>
-    <row r="607" spans="1:32" ht="16" thickBot="1">
+    <row r="607" spans="1:32" ht="15.75" thickBot="1">
       <c r="A607" s="96"/>
       <c r="B607" s="96"/>
       <c r="C607" s="96"/>
@@ -55617,7 +55627,7 @@
       <c r="AE607" s="96"/>
       <c r="AF607" s="96"/>
     </row>
-    <row r="608" spans="1:32" ht="16" thickBot="1">
+    <row r="608" spans="1:32" ht="15.75" thickBot="1">
       <c r="A608" s="96"/>
       <c r="B608" s="96"/>
       <c r="C608" s="96"/>
@@ -55651,7 +55661,7 @@
       <c r="AE608" s="96"/>
       <c r="AF608" s="96"/>
     </row>
-    <row r="609" spans="1:32" ht="16" thickBot="1">
+    <row r="609" spans="1:32" ht="15.75" thickBot="1">
       <c r="A609" s="96"/>
       <c r="B609" s="96"/>
       <c r="C609" s="96"/>
@@ -55685,7 +55695,7 @@
       <c r="AE609" s="96"/>
       <c r="AF609" s="96"/>
     </row>
-    <row r="610" spans="1:32" ht="16" thickBot="1">
+    <row r="610" spans="1:32" ht="15.75" thickBot="1">
       <c r="A610" s="96"/>
       <c r="B610" s="96"/>
       <c r="C610" s="96"/>
@@ -55719,7 +55729,7 @@
       <c r="AE610" s="96"/>
       <c r="AF610" s="96"/>
     </row>
-    <row r="611" spans="1:32" ht="16" thickBot="1">
+    <row r="611" spans="1:32" ht="15.75" thickBot="1">
       <c r="A611" s="96"/>
       <c r="B611" s="96"/>
       <c r="C611" s="96"/>
@@ -55753,7 +55763,7 @@
       <c r="AE611" s="96"/>
       <c r="AF611" s="96"/>
     </row>
-    <row r="612" spans="1:32" ht="16" thickBot="1">
+    <row r="612" spans="1:32" ht="15.75" thickBot="1">
       <c r="A612" s="96"/>
       <c r="B612" s="96"/>
       <c r="C612" s="96"/>
@@ -55787,7 +55797,7 @@
       <c r="AE612" s="96"/>
       <c r="AF612" s="96"/>
     </row>
-    <row r="613" spans="1:32" ht="16" thickBot="1">
+    <row r="613" spans="1:32" ht="15.75" thickBot="1">
       <c r="A613" s="96"/>
       <c r="B613" s="96"/>
       <c r="C613" s="96"/>
@@ -55821,7 +55831,7 @@
       <c r="AE613" s="96"/>
       <c r="AF613" s="96"/>
     </row>
-    <row r="614" spans="1:32" ht="16" thickBot="1">
+    <row r="614" spans="1:32" ht="15.75" thickBot="1">
       <c r="A614" s="96"/>
       <c r="B614" s="96"/>
       <c r="C614" s="96"/>
@@ -55855,7 +55865,7 @@
       <c r="AE614" s="96"/>
       <c r="AF614" s="96"/>
     </row>
-    <row r="615" spans="1:32" ht="16" thickBot="1">
+    <row r="615" spans="1:32" ht="15.75" thickBot="1">
       <c r="A615" s="96"/>
       <c r="B615" s="96"/>
       <c r="C615" s="96"/>
@@ -55889,7 +55899,7 @@
       <c r="AE615" s="96"/>
       <c r="AF615" s="96"/>
     </row>
-    <row r="616" spans="1:32" ht="16" thickBot="1">
+    <row r="616" spans="1:32" ht="15.75" thickBot="1">
       <c r="A616" s="96"/>
       <c r="B616" s="96"/>
       <c r="C616" s="96"/>
@@ -55923,7 +55933,7 @@
       <c r="AE616" s="96"/>
       <c r="AF616" s="96"/>
     </row>
-    <row r="617" spans="1:32" ht="16" thickBot="1">
+    <row r="617" spans="1:32" ht="15.75" thickBot="1">
       <c r="A617" s="96"/>
       <c r="B617" s="96"/>
       <c r="C617" s="96"/>
@@ -55957,7 +55967,7 @@
       <c r="AE617" s="96"/>
       <c r="AF617" s="96"/>
     </row>
-    <row r="618" spans="1:32" ht="16" thickBot="1">
+    <row r="618" spans="1:32" ht="15.75" thickBot="1">
       <c r="A618" s="96"/>
       <c r="B618" s="96"/>
       <c r="C618" s="96"/>
@@ -55991,7 +56001,7 @@
       <c r="AE618" s="96"/>
       <c r="AF618" s="96"/>
     </row>
-    <row r="619" spans="1:32" ht="16" thickBot="1">
+    <row r="619" spans="1:32" ht="15.75" thickBot="1">
       <c r="A619" s="96"/>
       <c r="B619" s="96"/>
       <c r="C619" s="96"/>
@@ -56025,7 +56035,7 @@
       <c r="AE619" s="96"/>
       <c r="AF619" s="96"/>
     </row>
-    <row r="620" spans="1:32" ht="16" thickBot="1">
+    <row r="620" spans="1:32" ht="15.75" thickBot="1">
       <c r="A620" s="96"/>
       <c r="B620" s="96"/>
       <c r="C620" s="96"/>
@@ -56059,7 +56069,7 @@
       <c r="AE620" s="96"/>
       <c r="AF620" s="96"/>
     </row>
-    <row r="621" spans="1:32" ht="16" thickBot="1">
+    <row r="621" spans="1:32" ht="15.75" thickBot="1">
       <c r="A621" s="96"/>
       <c r="B621" s="96"/>
       <c r="C621" s="96"/>
@@ -56093,7 +56103,7 @@
       <c r="AE621" s="96"/>
       <c r="AF621" s="96"/>
     </row>
-    <row r="622" spans="1:32" ht="16" thickBot="1">
+    <row r="622" spans="1:32" ht="15.75" thickBot="1">
       <c r="A622" s="96"/>
       <c r="B622" s="96"/>
       <c r="C622" s="96"/>
@@ -56127,7 +56137,7 @@
       <c r="AE622" s="96"/>
       <c r="AF622" s="96"/>
     </row>
-    <row r="623" spans="1:32" ht="16" thickBot="1">
+    <row r="623" spans="1:32" ht="15.75" thickBot="1">
       <c r="A623" s="96"/>
       <c r="B623" s="96"/>
       <c r="C623" s="96"/>
@@ -56161,7 +56171,7 @@
       <c r="AE623" s="96"/>
       <c r="AF623" s="96"/>
     </row>
-    <row r="624" spans="1:32" ht="16" thickBot="1">
+    <row r="624" spans="1:32" ht="15.75" thickBot="1">
       <c r="A624" s="96"/>
       <c r="B624" s="96"/>
       <c r="C624" s="96"/>
@@ -56195,7 +56205,7 @@
       <c r="AE624" s="96"/>
       <c r="AF624" s="96"/>
     </row>
-    <row r="625" spans="1:32" ht="16" thickBot="1">
+    <row r="625" spans="1:32" ht="15.75" thickBot="1">
       <c r="A625" s="96"/>
       <c r="B625" s="96"/>
       <c r="C625" s="96"/>
@@ -56229,7 +56239,7 @@
       <c r="AE625" s="96"/>
       <c r="AF625" s="96"/>
     </row>
-    <row r="626" spans="1:32" ht="16" thickBot="1">
+    <row r="626" spans="1:32" ht="15.75" thickBot="1">
       <c r="A626" s="96"/>
       <c r="B626" s="96"/>
       <c r="C626" s="96"/>
@@ -56263,7 +56273,7 @@
       <c r="AE626" s="96"/>
       <c r="AF626" s="96"/>
     </row>
-    <row r="627" spans="1:32" ht="16" thickBot="1">
+    <row r="627" spans="1:32" ht="15.75" thickBot="1">
       <c r="A627" s="96"/>
       <c r="B627" s="96"/>
       <c r="C627" s="96"/>
@@ -56297,7 +56307,7 @@
       <c r="AE627" s="96"/>
       <c r="AF627" s="96"/>
     </row>
-    <row r="628" spans="1:32" ht="16" thickBot="1">
+    <row r="628" spans="1:32" ht="15.75" thickBot="1">
       <c r="A628" s="96"/>
       <c r="B628" s="96"/>
       <c r="C628" s="96"/>
@@ -56331,7 +56341,7 @@
       <c r="AE628" s="96"/>
       <c r="AF628" s="96"/>
     </row>
-    <row r="629" spans="1:32" ht="16" thickBot="1">
+    <row r="629" spans="1:32" ht="15.75" thickBot="1">
       <c r="A629" s="96"/>
       <c r="B629" s="96"/>
       <c r="C629" s="96"/>
@@ -56365,7 +56375,7 @@
       <c r="AE629" s="96"/>
       <c r="AF629" s="96"/>
     </row>
-    <row r="630" spans="1:32" ht="16" thickBot="1">
+    <row r="630" spans="1:32" ht="15.75" thickBot="1">
       <c r="A630" s="96"/>
       <c r="B630" s="96"/>
       <c r="C630" s="96"/>
@@ -56399,7 +56409,7 @@
       <c r="AE630" s="96"/>
       <c r="AF630" s="96"/>
     </row>
-    <row r="631" spans="1:32" ht="16" thickBot="1">
+    <row r="631" spans="1:32" ht="15.75" thickBot="1">
       <c r="A631" s="96"/>
       <c r="B631" s="96"/>
       <c r="C631" s="96"/>
@@ -56433,7 +56443,7 @@
       <c r="AE631" s="96"/>
       <c r="AF631" s="96"/>
     </row>
-    <row r="632" spans="1:32" ht="16" thickBot="1">
+    <row r="632" spans="1:32" ht="15.75" thickBot="1">
       <c r="A632" s="96"/>
       <c r="B632" s="96"/>
       <c r="C632" s="96"/>
@@ -56467,7 +56477,7 @@
       <c r="AE632" s="96"/>
       <c r="AF632" s="96"/>
     </row>
-    <row r="633" spans="1:32" ht="16" thickBot="1">
+    <row r="633" spans="1:32" ht="15.75" thickBot="1">
       <c r="A633" s="96"/>
       <c r="B633" s="96"/>
       <c r="C633" s="96"/>
@@ -56501,7 +56511,7 @@
       <c r="AE633" s="96"/>
       <c r="AF633" s="96"/>
     </row>
-    <row r="634" spans="1:32" ht="16" thickBot="1">
+    <row r="634" spans="1:32" ht="15.75" thickBot="1">
       <c r="A634" s="96"/>
       <c r="B634" s="96"/>
       <c r="C634" s="96"/>
@@ -56535,7 +56545,7 @@
       <c r="AE634" s="96"/>
       <c r="AF634" s="96"/>
     </row>
-    <row r="635" spans="1:32" ht="16" thickBot="1">
+    <row r="635" spans="1:32" ht="15.75" thickBot="1">
       <c r="A635" s="96"/>
       <c r="B635" s="96"/>
       <c r="C635" s="96"/>
@@ -56569,7 +56579,7 @@
       <c r="AE635" s="96"/>
       <c r="AF635" s="96"/>
     </row>
-    <row r="636" spans="1:32" ht="16" thickBot="1">
+    <row r="636" spans="1:32" ht="15.75" thickBot="1">
       <c r="A636" s="96"/>
       <c r="B636" s="96"/>
       <c r="C636" s="96"/>
@@ -56603,7 +56613,7 @@
       <c r="AE636" s="96"/>
       <c r="AF636" s="96"/>
     </row>
-    <row r="637" spans="1:32" ht="16" thickBot="1">
+    <row r="637" spans="1:32" ht="15.75" thickBot="1">
       <c r="A637" s="96"/>
       <c r="B637" s="96"/>
       <c r="C637" s="96"/>
@@ -56637,7 +56647,7 @@
       <c r="AE637" s="96"/>
       <c r="AF637" s="96"/>
     </row>
-    <row r="638" spans="1:32" ht="16" thickBot="1">
+    <row r="638" spans="1:32" ht="15.75" thickBot="1">
       <c r="A638" s="96"/>
       <c r="B638" s="96"/>
       <c r="C638" s="96"/>
@@ -56671,7 +56681,7 @@
       <c r="AE638" s="96"/>
       <c r="AF638" s="96"/>
     </row>
-    <row r="639" spans="1:32" ht="16" thickBot="1">
+    <row r="639" spans="1:32" ht="15.75" thickBot="1">
       <c r="A639" s="96"/>
       <c r="B639" s="96"/>
       <c r="C639" s="96"/>
@@ -56705,7 +56715,7 @@
       <c r="AE639" s="96"/>
       <c r="AF639" s="96"/>
     </row>
-    <row r="640" spans="1:32" ht="16" thickBot="1">
+    <row r="640" spans="1:32" ht="15.75" thickBot="1">
       <c r="A640" s="96"/>
       <c r="B640" s="96"/>
       <c r="C640" s="96"/>
@@ -56739,7 +56749,7 @@
       <c r="AE640" s="96"/>
       <c r="AF640" s="96"/>
     </row>
-    <row r="641" spans="1:32" ht="16" thickBot="1">
+    <row r="641" spans="1:32" ht="15.75" thickBot="1">
       <c r="A641" s="96"/>
       <c r="B641" s="96"/>
       <c r="C641" s="96"/>
@@ -56773,7 +56783,7 @@
       <c r="AE641" s="96"/>
       <c r="AF641" s="96"/>
     </row>
-    <row r="642" spans="1:32" ht="16" thickBot="1">
+    <row r="642" spans="1:32" ht="15.75" thickBot="1">
       <c r="A642" s="96"/>
       <c r="B642" s="96"/>
       <c r="C642" s="96"/>
@@ -56807,7 +56817,7 @@
       <c r="AE642" s="96"/>
       <c r="AF642" s="96"/>
     </row>
-    <row r="643" spans="1:32" ht="16" thickBot="1">
+    <row r="643" spans="1:32" ht="15.75" thickBot="1">
       <c r="A643" s="96"/>
       <c r="B643" s="96"/>
       <c r="C643" s="96"/>
@@ -56841,7 +56851,7 @@
       <c r="AE643" s="96"/>
       <c r="AF643" s="96"/>
     </row>
-    <row r="644" spans="1:32" ht="16" thickBot="1">
+    <row r="644" spans="1:32" ht="15.75" thickBot="1">
       <c r="A644" s="96"/>
       <c r="B644" s="96"/>
       <c r="C644" s="96"/>
@@ -56875,7 +56885,7 @@
       <c r="AE644" s="96"/>
       <c r="AF644" s="96"/>
     </row>
-    <row r="645" spans="1:32" ht="16" thickBot="1">
+    <row r="645" spans="1:32" ht="15.75" thickBot="1">
       <c r="A645" s="96"/>
       <c r="B645" s="96"/>
       <c r="C645" s="96"/>
@@ -56909,7 +56919,7 @@
       <c r="AE645" s="96"/>
       <c r="AF645" s="96"/>
     </row>
-    <row r="646" spans="1:32" ht="16" thickBot="1">
+    <row r="646" spans="1:32" ht="15.75" thickBot="1">
       <c r="A646" s="96"/>
       <c r="B646" s="96"/>
       <c r="C646" s="96"/>
@@ -56943,7 +56953,7 @@
       <c r="AE646" s="96"/>
       <c r="AF646" s="96"/>
     </row>
-    <row r="647" spans="1:32" ht="16" thickBot="1">
+    <row r="647" spans="1:32" ht="15.75" thickBot="1">
       <c r="A647" s="96"/>
       <c r="B647" s="96"/>
       <c r="C647" s="96"/>
@@ -56977,7 +56987,7 @@
       <c r="AE647" s="96"/>
       <c r="AF647" s="96"/>
     </row>
-    <row r="648" spans="1:32" ht="16" thickBot="1">
+    <row r="648" spans="1:32" ht="15.75" thickBot="1">
       <c r="A648" s="96"/>
       <c r="B648" s="96"/>
       <c r="C648" s="96"/>
@@ -57011,7 +57021,7 @@
       <c r="AE648" s="96"/>
       <c r="AF648" s="96"/>
     </row>
-    <row r="649" spans="1:32" ht="16" thickBot="1">
+    <row r="649" spans="1:32" ht="15.75" thickBot="1">
       <c r="A649" s="96"/>
       <c r="B649" s="96"/>
       <c r="C649" s="96"/>
@@ -57045,7 +57055,7 @@
       <c r="AE649" s="96"/>
       <c r="AF649" s="96"/>
     </row>
-    <row r="650" spans="1:32" ht="16" thickBot="1">
+    <row r="650" spans="1:32" ht="15.75" thickBot="1">
       <c r="A650" s="96"/>
       <c r="B650" s="96"/>
       <c r="C650" s="96"/>
@@ -57079,7 +57089,7 @@
       <c r="AE650" s="96"/>
       <c r="AF650" s="96"/>
     </row>
-    <row r="651" spans="1:32" ht="16" thickBot="1">
+    <row r="651" spans="1:32" ht="15.75" thickBot="1">
       <c r="A651" s="96"/>
       <c r="B651" s="96"/>
       <c r="C651" s="96"/>
@@ -57113,7 +57123,7 @@
       <c r="AE651" s="96"/>
       <c r="AF651" s="96"/>
     </row>
-    <row r="652" spans="1:32" ht="16" thickBot="1">
+    <row r="652" spans="1:32" ht="15.75" thickBot="1">
       <c r="A652" s="96"/>
       <c r="B652" s="96"/>
       <c r="C652" s="96"/>
@@ -57147,7 +57157,7 @@
       <c r="AE652" s="96"/>
       <c r="AF652" s="96"/>
     </row>
-    <row r="653" spans="1:32" ht="16" thickBot="1">
+    <row r="653" spans="1:32" ht="15.75" thickBot="1">
       <c r="A653" s="96"/>
       <c r="B653" s="96"/>
       <c r="C653" s="96"/>
@@ -57181,7 +57191,7 @@
       <c r="AE653" s="96"/>
       <c r="AF653" s="96"/>
     </row>
-    <row r="654" spans="1:32" ht="16" thickBot="1">
+    <row r="654" spans="1:32" ht="15.75" thickBot="1">
       <c r="A654" s="96"/>
       <c r="B654" s="96"/>
       <c r="C654" s="96"/>
@@ -57215,7 +57225,7 @@
       <c r="AE654" s="96"/>
       <c r="AF654" s="96"/>
     </row>
-    <row r="655" spans="1:32" ht="16" thickBot="1">
+    <row r="655" spans="1:32" ht="15.75" thickBot="1">
       <c r="A655" s="96"/>
       <c r="B655" s="96"/>
       <c r="C655" s="96"/>
@@ -57249,7 +57259,7 @@
       <c r="AE655" s="96"/>
       <c r="AF655" s="96"/>
     </row>
-    <row r="656" spans="1:32" ht="16" thickBot="1">
+    <row r="656" spans="1:32" ht="15.75" thickBot="1">
       <c r="A656" s="96"/>
       <c r="B656" s="96"/>
       <c r="C656" s="96"/>
@@ -57283,7 +57293,7 @@
       <c r="AE656" s="96"/>
       <c r="AF656" s="96"/>
     </row>
-    <row r="657" spans="1:32" ht="16" thickBot="1">
+    <row r="657" spans="1:32" ht="15.75" thickBot="1">
       <c r="A657" s="96"/>
       <c r="B657" s="96"/>
       <c r="C657" s="96"/>
@@ -57317,7 +57327,7 @@
       <c r="AE657" s="96"/>
       <c r="AF657" s="96"/>
     </row>
-    <row r="658" spans="1:32" ht="16" thickBot="1">
+    <row r="658" spans="1:32" ht="15.75" thickBot="1">
       <c r="A658" s="96"/>
       <c r="B658" s="96"/>
       <c r="C658" s="96"/>
@@ -57351,7 +57361,7 @@
       <c r="AE658" s="96"/>
       <c r="AF658" s="96"/>
     </row>
-    <row r="659" spans="1:32" ht="16" thickBot="1">
+    <row r="659" spans="1:32" ht="15.75" thickBot="1">
       <c r="A659" s="96"/>
       <c r="B659" s="96"/>
       <c r="C659" s="96"/>
@@ -57385,7 +57395,7 @@
       <c r="AE659" s="96"/>
       <c r="AF659" s="96"/>
     </row>
-    <row r="660" spans="1:32" ht="16" thickBot="1">
+    <row r="660" spans="1:32" ht="15.75" thickBot="1">
       <c r="A660" s="96"/>
       <c r="B660" s="96"/>
       <c r="C660" s="96"/>
@@ -57419,7 +57429,7 @@
       <c r="AE660" s="96"/>
       <c r="AF660" s="96"/>
     </row>
-    <row r="661" spans="1:32" ht="16" thickBot="1">
+    <row r="661" spans="1:32" ht="15.75" thickBot="1">
       <c r="A661" s="96"/>
       <c r="B661" s="96"/>
       <c r="C661" s="96"/>
@@ -57453,7 +57463,7 @@
       <c r="AE661" s="96"/>
       <c r="AF661" s="96"/>
     </row>
-    <row r="662" spans="1:32" ht="16" thickBot="1">
+    <row r="662" spans="1:32" ht="15.75" thickBot="1">
       <c r="A662" s="96"/>
       <c r="B662" s="96"/>
       <c r="C662" s="96"/>
@@ -57487,7 +57497,7 @@
       <c r="AE662" s="96"/>
       <c r="AF662" s="96"/>
     </row>
-    <row r="663" spans="1:32" ht="16" thickBot="1">
+    <row r="663" spans="1:32" ht="15.75" thickBot="1">
       <c r="A663" s="96"/>
       <c r="B663" s="96"/>
       <c r="C663" s="96"/>
@@ -57521,7 +57531,7 @@
       <c r="AE663" s="96"/>
       <c r="AF663" s="96"/>
     </row>
-    <row r="664" spans="1:32" ht="16" thickBot="1">
+    <row r="664" spans="1:32" ht="15.75" thickBot="1">
       <c r="A664" s="96"/>
       <c r="B664" s="96"/>
       <c r="C664" s="96"/>
@@ -57555,7 +57565,7 @@
       <c r="AE664" s="96"/>
       <c r="AF664" s="96"/>
     </row>
-    <row r="665" spans="1:32" ht="16" thickBot="1">
+    <row r="665" spans="1:32" ht="15.75" thickBot="1">
       <c r="A665" s="96"/>
       <c r="B665" s="96"/>
       <c r="C665" s="96"/>
@@ -57589,7 +57599,7 @@
       <c r="AE665" s="96"/>
       <c r="AF665" s="96"/>
     </row>
-    <row r="666" spans="1:32" ht="16" thickBot="1">
+    <row r="666" spans="1:32" ht="15.75" thickBot="1">
       <c r="A666" s="96"/>
       <c r="B666" s="96"/>
       <c r="C666" s="96"/>
@@ -57623,7 +57633,7 @@
       <c r="AE666" s="96"/>
       <c r="AF666" s="96"/>
     </row>
-    <row r="667" spans="1:32" ht="16" thickBot="1">
+    <row r="667" spans="1:32" ht="15.75" thickBot="1">
       <c r="A667" s="96"/>
       <c r="B667" s="96"/>
       <c r="C667" s="96"/>
@@ -57657,7 +57667,7 @@
       <c r="AE667" s="96"/>
       <c r="AF667" s="96"/>
     </row>
-    <row r="668" spans="1:32" ht="16" thickBot="1">
+    <row r="668" spans="1:32" ht="15.75" thickBot="1">
       <c r="A668" s="96"/>
       <c r="B668" s="96"/>
       <c r="C668" s="96"/>
@@ -57691,7 +57701,7 @@
       <c r="AE668" s="96"/>
       <c r="AF668" s="96"/>
     </row>
-    <row r="669" spans="1:32" ht="16" thickBot="1">
+    <row r="669" spans="1:32" ht="15.75" thickBot="1">
       <c r="A669" s="96"/>
       <c r="B669" s="96"/>
       <c r="C669" s="96"/>
@@ -57725,7 +57735,7 @@
       <c r="AE669" s="96"/>
       <c r="AF669" s="96"/>
     </row>
-    <row r="670" spans="1:32" ht="16" thickBot="1">
+    <row r="670" spans="1:32" ht="15.75" thickBot="1">
       <c r="A670" s="96"/>
       <c r="B670" s="96"/>
       <c r="C670" s="96"/>
@@ -57759,7 +57769,7 @@
       <c r="AE670" s="96"/>
       <c r="AF670" s="96"/>
     </row>
-    <row r="671" spans="1:32" ht="16" thickBot="1">
+    <row r="671" spans="1:32" ht="15.75" thickBot="1">
       <c r="A671" s="96"/>
       <c r="B671" s="96"/>
       <c r="C671" s="96"/>
@@ -57793,7 +57803,7 @@
       <c r="AE671" s="96"/>
       <c r="AF671" s="96"/>
     </row>
-    <row r="672" spans="1:32" ht="16" thickBot="1">
+    <row r="672" spans="1:32" ht="15.75" thickBot="1">
       <c r="A672" s="96"/>
       <c r="B672" s="96"/>
       <c r="C672" s="96"/>
@@ -57827,7 +57837,7 @@
       <c r="AE672" s="96"/>
       <c r="AF672" s="96"/>
     </row>
-    <row r="673" spans="1:32" ht="16" thickBot="1">
+    <row r="673" spans="1:32" ht="15.75" thickBot="1">
       <c r="A673" s="96"/>
       <c r="B673" s="96"/>
       <c r="C673" s="96"/>
@@ -57861,7 +57871,7 @@
       <c r="AE673" s="96"/>
       <c r="AF673" s="96"/>
     </row>
-    <row r="674" spans="1:32" ht="16" thickBot="1">
+    <row r="674" spans="1:32" ht="15.75" thickBot="1">
       <c r="A674" s="96"/>
       <c r="B674" s="96"/>
       <c r="C674" s="96"/>
@@ -57895,7 +57905,7 @@
       <c r="AE674" s="96"/>
       <c r="AF674" s="96"/>
     </row>
-    <row r="675" spans="1:32" ht="16" thickBot="1">
+    <row r="675" spans="1:32" ht="15.75" thickBot="1">
       <c r="A675" s="96"/>
       <c r="B675" s="96"/>
       <c r="C675" s="96"/>
@@ -57929,7 +57939,7 @@
       <c r="AE675" s="96"/>
       <c r="AF675" s="96"/>
     </row>
-    <row r="676" spans="1:32" ht="16" thickBot="1">
+    <row r="676" spans="1:32" ht="15.75" thickBot="1">
       <c r="A676" s="96"/>
       <c r="B676" s="96"/>
       <c r="C676" s="96"/>
@@ -57963,7 +57973,7 @@
       <c r="AE676" s="96"/>
       <c r="AF676" s="96"/>
     </row>
-    <row r="677" spans="1:32" ht="16" thickBot="1">
+    <row r="677" spans="1:32" ht="15.75" thickBot="1">
       <c r="A677" s="96"/>
       <c r="B677" s="96"/>
       <c r="C677" s="96"/>
@@ -57997,7 +58007,7 @@
       <c r="AE677" s="96"/>
       <c r="AF677" s="96"/>
     </row>
-    <row r="678" spans="1:32" ht="16" thickBot="1">
+    <row r="678" spans="1:32" ht="15.75" thickBot="1">
       <c r="A678" s="96"/>
       <c r="B678" s="96"/>
       <c r="C678" s="96"/>
@@ -58031,7 +58041,7 @@
       <c r="AE678" s="96"/>
       <c r="AF678" s="96"/>
     </row>
-    <row r="679" spans="1:32" ht="16" thickBot="1">
+    <row r="679" spans="1:32" ht="15.75" thickBot="1">
       <c r="A679" s="96"/>
       <c r="B679" s="96"/>
       <c r="C679" s="96"/>
@@ -58065,7 +58075,7 @@
       <c r="AE679" s="96"/>
       <c r="AF679" s="96"/>
     </row>
-    <row r="680" spans="1:32" ht="16" thickBot="1">
+    <row r="680" spans="1:32" ht="15.75" thickBot="1">
       <c r="A680" s="96"/>
       <c r="B680" s="96"/>
       <c r="C680" s="96"/>
@@ -58099,7 +58109,7 @@
       <c r="AE680" s="96"/>
       <c r="AF680" s="96"/>
     </row>
-    <row r="681" spans="1:32" ht="16" thickBot="1">
+    <row r="681" spans="1:32" ht="15.75" thickBot="1">
       <c r="A681" s="96"/>
       <c r="B681" s="96"/>
       <c r="C681" s="96"/>
@@ -58133,7 +58143,7 @@
       <c r="AE681" s="96"/>
       <c r="AF681" s="96"/>
     </row>
-    <row r="682" spans="1:32" ht="16" thickBot="1">
+    <row r="682" spans="1:32" ht="15.75" thickBot="1">
       <c r="A682" s="96"/>
       <c r="B682" s="96"/>
       <c r="C682" s="96"/>
@@ -58167,7 +58177,7 @@
       <c r="AE682" s="96"/>
       <c r="AF682" s="96"/>
     </row>
-    <row r="683" spans="1:32" ht="16" thickBot="1">
+    <row r="683" spans="1:32" ht="15.75" thickBot="1">
       <c r="A683" s="96"/>
       <c r="B683" s="96"/>
       <c r="C683" s="96"/>
@@ -58201,7 +58211,7 @@
       <c r="AE683" s="96"/>
       <c r="AF683" s="96"/>
     </row>
-    <row r="684" spans="1:32" ht="16" thickBot="1">
+    <row r="684" spans="1:32" ht="15.75" thickBot="1">
       <c r="A684" s="96"/>
       <c r="B684" s="96"/>
       <c r="C684" s="96"/>
@@ -58235,7 +58245,7 @@
       <c r="AE684" s="96"/>
       <c r="AF684" s="96"/>
     </row>
-    <row r="685" spans="1:32" ht="16" thickBot="1">
+    <row r="685" spans="1:32" ht="15.75" thickBot="1">
       <c r="A685" s="96"/>
       <c r="B685" s="96"/>
       <c r="C685" s="96"/>
@@ -58269,7 +58279,7 @@
       <c r="AE685" s="96"/>
       <c r="AF685" s="96"/>
     </row>
-    <row r="686" spans="1:32" ht="16" thickBot="1">
+    <row r="686" spans="1:32" ht="15.75" thickBot="1">
       <c r="A686" s="96"/>
       <c r="B686" s="96"/>
       <c r="C686" s="96"/>
@@ -58303,7 +58313,7 @@
       <c r="AE686" s="96"/>
       <c r="AF686" s="96"/>
     </row>
-    <row r="687" spans="1:32" ht="16" thickBot="1">
+    <row r="687" spans="1:32" ht="15.75" thickBot="1">
       <c r="A687" s="96"/>
       <c r="B687" s="96"/>
       <c r="C687" s="96"/>
@@ -58337,7 +58347,7 @@
       <c r="AE687" s="96"/>
       <c r="AF687" s="96"/>
     </row>
-    <row r="688" spans="1:32" ht="16" thickBot="1">
+    <row r="688" spans="1:32" ht="15.75" thickBot="1">
       <c r="A688" s="96"/>
       <c r="B688" s="96"/>
       <c r="C688" s="96"/>
@@ -58371,7 +58381,7 @@
       <c r="AE688" s="96"/>
       <c r="AF688" s="96"/>
     </row>
-    <row r="689" spans="1:32" ht="16" thickBot="1">
+    <row r="689" spans="1:32" ht="15.75" thickBot="1">
       <c r="A689" s="96"/>
       <c r="B689" s="96"/>
       <c r="C689" s="96"/>
@@ -58405,7 +58415,7 @@
       <c r="AE689" s="96"/>
       <c r="AF689" s="96"/>
     </row>
-    <row r="690" spans="1:32" ht="16" thickBot="1">
+    <row r="690" spans="1:32" ht="15.75" thickBot="1">
       <c r="A690" s="96"/>
       <c r="B690" s="96"/>
       <c r="C690" s="96"/>
@@ -58439,7 +58449,7 @@
       <c r="AE690" s="96"/>
       <c r="AF690" s="96"/>
     </row>
-    <row r="691" spans="1:32" ht="16" thickBot="1">
+    <row r="691" spans="1:32" ht="15.75" thickBot="1">
       <c r="A691" s="96"/>
       <c r="B691" s="96"/>
       <c r="C691" s="96"/>
@@ -58473,7 +58483,7 @@
       <c r="AE691" s="96"/>
       <c r="AF691" s="96"/>
     </row>
-    <row r="692" spans="1:32" ht="16" thickBot="1">
+    <row r="692" spans="1:32" ht="15.75" thickBot="1">
       <c r="A692" s="96"/>
       <c r="B692" s="96"/>
       <c r="C692" s="96"/>
@@ -58507,7 +58517,7 @@
       <c r="AE692" s="96"/>
       <c r="AF692" s="96"/>
     </row>
-    <row r="693" spans="1:32" ht="16" thickBot="1">
+    <row r="693" spans="1:32" ht="15.75" thickBot="1">
       <c r="A693" s="96"/>
       <c r="B693" s="96"/>
       <c r="C693" s="96"/>
@@ -58541,7 +58551,7 @@
       <c r="AE693" s="96"/>
       <c r="AF693" s="96"/>
     </row>
-    <row r="694" spans="1:32" ht="16" thickBot="1">
+    <row r="694" spans="1:32" ht="15.75" thickBot="1">
       <c r="A694" s="96"/>
       <c r="B694" s="96"/>
       <c r="C694" s="96"/>
@@ -58575,7 +58585,7 @@
       <c r="AE694" s="96"/>
       <c r="AF694" s="96"/>
     </row>
-    <row r="695" spans="1:32" ht="16" thickBot="1">
+    <row r="695" spans="1:32" ht="15.75" thickBot="1">
       <c r="A695" s="96"/>
       <c r="B695" s="96"/>
       <c r="C695" s="96"/>
@@ -58609,7 +58619,7 @@
       <c r="AE695" s="96"/>
       <c r="AF695" s="96"/>
     </row>
-    <row r="696" spans="1:32" ht="16" thickBot="1">
+    <row r="696" spans="1:32" ht="15.75" thickBot="1">
       <c r="A696" s="96"/>
       <c r="B696" s="96"/>
       <c r="C696" s="96"/>
@@ -58643,7 +58653,7 @@
       <c r="AE696" s="96"/>
       <c r="AF696" s="96"/>
     </row>
-    <row r="697" spans="1:32" ht="16" thickBot="1">
+    <row r="697" spans="1:32" ht="15.75" thickBot="1">
       <c r="A697" s="96"/>
       <c r="B697" s="96"/>
       <c r="C697" s="96"/>
@@ -58677,7 +58687,7 @@
       <c r="AE697" s="96"/>
       <c r="AF697" s="96"/>
     </row>
-    <row r="698" spans="1:32" ht="16" thickBot="1">
+    <row r="698" spans="1:32" ht="15.75" thickBot="1">
       <c r="A698" s="96"/>
       <c r="B698" s="96"/>
       <c r="C698" s="96"/>
@@ -58711,7 +58721,7 @@
       <c r="AE698" s="96"/>
       <c r="AF698" s="96"/>
     </row>
-    <row r="699" spans="1:32" ht="16" thickBot="1">
+    <row r="699" spans="1:32" ht="15.75" thickBot="1">
       <c r="A699" s="96"/>
       <c r="B699" s="96"/>
       <c r="C699" s="96"/>
@@ -58745,7 +58755,7 @@
       <c r="AE699" s="96"/>
       <c r="AF699" s="96"/>
     </row>
-    <row r="700" spans="1:32" ht="16" thickBot="1">
+    <row r="700" spans="1:32" ht="15.75" thickBot="1">
       <c r="A700" s="96"/>
       <c r="B700" s="96"/>
       <c r="C700" s="96"/>
@@ -58779,7 +58789,7 @@
       <c r="AE700" s="96"/>
       <c r="AF700" s="96"/>
     </row>
-    <row r="701" spans="1:32" ht="16" thickBot="1">
+    <row r="701" spans="1:32" ht="15.75" thickBot="1">
       <c r="A701" s="96"/>
       <c r="B701" s="96"/>
       <c r="C701" s="96"/>
@@ -58813,7 +58823,7 @@
       <c r="AE701" s="96"/>
       <c r="AF701" s="96"/>
     </row>
-    <row r="702" spans="1:32" ht="16" thickBot="1">
+    <row r="702" spans="1:32" ht="15.75" thickBot="1">
       <c r="A702" s="96"/>
       <c r="B702" s="96"/>
       <c r="C702" s="96"/>
@@ -58847,7 +58857,7 @@
       <c r="AE702" s="96"/>
       <c r="AF702" s="96"/>
     </row>
-    <row r="703" spans="1:32" ht="16" thickBot="1">
+    <row r="703" spans="1:32" ht="15.75" thickBot="1">
       <c r="A703" s="96"/>
       <c r="B703" s="96"/>
       <c r="C703" s="96"/>
@@ -58881,7 +58891,7 @@
       <c r="AE703" s="96"/>
       <c r="AF703" s="96"/>
     </row>
-    <row r="704" spans="1:32" ht="16" thickBot="1">
+    <row r="704" spans="1:32" ht="15.75" thickBot="1">
       <c r="A704" s="96"/>
       <c r="B704" s="96"/>
       <c r="C704" s="96"/>
@@ -58915,7 +58925,7 @@
       <c r="AE704" s="96"/>
       <c r="AF704" s="96"/>
     </row>
-    <row r="705" spans="1:32" ht="16" thickBot="1">
+    <row r="705" spans="1:32" ht="15.75" thickBot="1">
       <c r="A705" s="96"/>
       <c r="B705" s="96"/>
       <c r="C705" s="96"/>
@@ -58949,7 +58959,7 @@
       <c r="AE705" s="96"/>
       <c r="AF705" s="96"/>
     </row>
-    <row r="706" spans="1:32" ht="16" thickBot="1">
+    <row r="706" spans="1:32" ht="15.75" thickBot="1">
       <c r="A706" s="96"/>
       <c r="B706" s="96"/>
       <c r="C706" s="96"/>
@@ -58983,7 +58993,7 @@
       <c r="AE706" s="96"/>
       <c r="AF706" s="96"/>
     </row>
-    <row r="707" spans="1:32" ht="16" thickBot="1">
+    <row r="707" spans="1:32" ht="15.75" thickBot="1">
       <c r="A707" s="96"/>
       <c r="B707" s="96"/>
       <c r="C707" s="96"/>
@@ -59017,7 +59027,7 @@
       <c r="AE707" s="96"/>
       <c r="AF707" s="96"/>
     </row>
-    <row r="708" spans="1:32" ht="16" thickBot="1">
+    <row r="708" spans="1:32" ht="15.75" thickBot="1">
       <c r="A708" s="96"/>
       <c r="B708" s="96"/>
       <c r="C708" s="96"/>
@@ -59051,7 +59061,7 @@
       <c r="AE708" s="96"/>
       <c r="AF708" s="96"/>
     </row>
-    <row r="709" spans="1:32" ht="16" thickBot="1">
+    <row r="709" spans="1:32" ht="15.75" thickBot="1">
       <c r="A709" s="96"/>
       <c r="B709" s="96"/>
       <c r="C709" s="96"/>
@@ -59085,7 +59095,7 @@
       <c r="AE709" s="96"/>
       <c r="AF709" s="96"/>
     </row>
-    <row r="710" spans="1:32" ht="16" thickBot="1">
+    <row r="710" spans="1:32" ht="15.75" thickBot="1">
       <c r="A710" s="96"/>
       <c r="B710" s="96"/>
       <c r="C710" s="96"/>
@@ -59119,7 +59129,7 @@
       <c r="AE710" s="96"/>
       <c r="AF710" s="96"/>
     </row>
-    <row r="711" spans="1:32" ht="16" thickBot="1">
+    <row r="711" spans="1:32" ht="15.75" thickBot="1">
       <c r="A711" s="96"/>
       <c r="B711" s="96"/>
       <c r="C711" s="96"/>
@@ -59153,7 +59163,7 @@
       <c r="AE711" s="96"/>
       <c r="AF711" s="96"/>
     </row>
-    <row r="712" spans="1:32" ht="16" thickBot="1">
+    <row r="712" spans="1:32" ht="15.75" thickBot="1">
       <c r="A712" s="96"/>
       <c r="B712" s="96"/>
       <c r="C712" s="96"/>
@@ -59187,7 +59197,7 @@
       <c r="AE712" s="96"/>
       <c r="AF712" s="96"/>
     </row>
-    <row r="713" spans="1:32" ht="16" thickBot="1">
+    <row r="713" spans="1:32" ht="15.75" thickBot="1">
       <c r="A713" s="96"/>
       <c r="B713" s="96"/>
       <c r="C713" s="96"/>
@@ -59221,7 +59231,7 @@
       <c r="AE713" s="96"/>
       <c r="AF713" s="96"/>
     </row>
-    <row r="714" spans="1:32" ht="16" thickBot="1">
+    <row r="714" spans="1:32" ht="15.75" thickBot="1">
       <c r="A714" s="96"/>
       <c r="B714" s="96"/>
       <c r="C714" s="96"/>
@@ -59255,7 +59265,7 @@
       <c r="AE714" s="96"/>
       <c r="AF714" s="96"/>
     </row>
-    <row r="715" spans="1:32" ht="16" thickBot="1">
+    <row r="715" spans="1:32" ht="15.75" thickBot="1">
       <c r="A715" s="96"/>
       <c r="B715" s="96"/>
       <c r="C715" s="96"/>
@@ -59289,7 +59299,7 @@
       <c r="AE715" s="96"/>
       <c r="AF715" s="96"/>
     </row>
-    <row r="716" spans="1:32" ht="16" thickBot="1">
+    <row r="716" spans="1:32" ht="15.75" thickBot="1">
       <c r="A716" s="96"/>
       <c r="B716" s="96"/>
       <c r="C716" s="96"/>
@@ -59323,7 +59333,7 @@
       <c r="AE716" s="96"/>
       <c r="AF716" s="96"/>
     </row>
-    <row r="717" spans="1:32" ht="16" thickBot="1">
+    <row r="717" spans="1:32" ht="15.75" thickBot="1">
       <c r="A717" s="96"/>
       <c r="B717" s="96"/>
       <c r="C717" s="96"/>
@@ -59357,7 +59367,7 @@
       <c r="AE717" s="96"/>
       <c r="AF717" s="96"/>
     </row>
-    <row r="718" spans="1:32" ht="16" thickBot="1">
+    <row r="718" spans="1:32" ht="15.75" thickBot="1">
       <c r="A718" s="96"/>
       <c r="B718" s="96"/>
       <c r="C718" s="96"/>
@@ -59391,7 +59401,7 @@
       <c r="AE718" s="96"/>
       <c r="AF718" s="96"/>
     </row>
-    <row r="719" spans="1:32" ht="16" thickBot="1">
+    <row r="719" spans="1:32" ht="15.75" thickBot="1">
       <c r="A719" s="96"/>
       <c r="B719" s="96"/>
       <c r="C719" s="96"/>
@@ -59425,7 +59435,7 @@
       <c r="AE719" s="96"/>
       <c r="AF719" s="96"/>
     </row>
-    <row r="720" spans="1:32" ht="16" thickBot="1">
+    <row r="720" spans="1:32" ht="15.75" thickBot="1">
       <c r="A720" s="96"/>
       <c r="B720" s="96"/>
       <c r="C720" s="96"/>
@@ -59459,7 +59469,7 @@
       <c r="AE720" s="96"/>
       <c r="AF720" s="96"/>
     </row>
-    <row r="721" spans="1:32" ht="16" thickBot="1">
+    <row r="721" spans="1:32" ht="15.75" thickBot="1">
       <c r="A721" s="96"/>
       <c r="B721" s="96"/>
       <c r="C721" s="96"/>
@@ -59493,7 +59503,7 @@
       <c r="AE721" s="96"/>
       <c r="AF721" s="96"/>
     </row>
-    <row r="722" spans="1:32" ht="16" thickBot="1">
+    <row r="722" spans="1:32" ht="15.75" thickBot="1">
       <c r="A722" s="96"/>
       <c r="B722" s="96"/>
       <c r="C722" s="96"/>
@@ -59527,7 +59537,7 @@
       <c r="AE722" s="96"/>
       <c r="AF722" s="96"/>
     </row>
-    <row r="723" spans="1:32" ht="16" thickBot="1">
+    <row r="723" spans="1:32" ht="15.75" thickBot="1">
       <c r="A723" s="96"/>
       <c r="B723" s="96"/>
       <c r="C723" s="96"/>
@@ -59561,7 +59571,7 @@
       <c r="AE723" s="96"/>
       <c r="AF723" s="96"/>
     </row>
-    <row r="724" spans="1:32" ht="16" thickBot="1">
+    <row r="724" spans="1:32" ht="15.75" thickBot="1">
       <c r="A724" s="96"/>
       <c r="B724" s="96"/>
       <c r="C724" s="96"/>
@@ -59595,7 +59605,7 @@
       <c r="AE724" s="96"/>
       <c r="AF724" s="96"/>
     </row>
-    <row r="725" spans="1:32" ht="16" thickBot="1">
+    <row r="725" spans="1:32" ht="15.75" thickBot="1">
       <c r="A725" s="96"/>
       <c r="B725" s="96"/>
       <c r="C725" s="96"/>
@@ -59629,7 +59639,7 @@
       <c r="AE725" s="96"/>
       <c r="AF725" s="96"/>
     </row>
-    <row r="726" spans="1:32" ht="16" thickBot="1">
+    <row r="726" spans="1:32" ht="15.75" thickBot="1">
       <c r="A726" s="96"/>
       <c r="B726" s="96"/>
       <c r="C726" s="96"/>
@@ -59663,7 +59673,7 @@
       <c r="AE726" s="96"/>
       <c r="AF726" s="96"/>
     </row>
-    <row r="727" spans="1:32" ht="16" thickBot="1">
+    <row r="727" spans="1:32" ht="15.75" thickBot="1">
       <c r="A727" s="96"/>
       <c r="B727" s="96"/>
       <c r="C727" s="96"/>
@@ -59697,7 +59707,7 @@
       <c r="AE727" s="96"/>
       <c r="AF727" s="96"/>
     </row>
-    <row r="728" spans="1:32" ht="16" thickBot="1">
+    <row r="728" spans="1:32" ht="15.75" thickBot="1">
       <c r="A728" s="96"/>
       <c r="B728" s="96"/>
       <c r="C728" s="96"/>
@@ -59731,7 +59741,7 @@
       <c r="AE728" s="96"/>
       <c r="AF728" s="96"/>
     </row>
-    <row r="729" spans="1:32" ht="16" thickBot="1">
+    <row r="729" spans="1:32" ht="15.75" thickBot="1">
       <c r="A729" s="96"/>
       <c r="B729" s="96"/>
       <c r="C729" s="96"/>
@@ -59765,7 +59775,7 @@
       <c r="AE729" s="96"/>
       <c r="AF729" s="96"/>
     </row>
-    <row r="730" spans="1:32" ht="16" thickBot="1">
+    <row r="730" spans="1:32" ht="15.75" thickBot="1">
       <c r="A730" s="96"/>
       <c r="B730" s="96"/>
       <c r="C730" s="96"/>
@@ -59799,7 +59809,7 @@
       <c r="AE730" s="96"/>
       <c r="AF730" s="96"/>
     </row>
-    <row r="731" spans="1:32" ht="16" thickBot="1">
+    <row r="731" spans="1:32" ht="15.75" thickBot="1">
       <c r="A731" s="96"/>
       <c r="B731" s="96"/>
       <c r="C731" s="96"/>
@@ -59833,7 +59843,7 @@
       <c r="AE731" s="96"/>
       <c r="AF731" s="96"/>
     </row>
-    <row r="732" spans="1:32" ht="16" thickBot="1">
+    <row r="732" spans="1:32" ht="15.75" thickBot="1">
       <c r="A732" s="96"/>
       <c r="B732" s="96"/>
       <c r="C732" s="96"/>
@@ -59867,7 +59877,7 @@
       <c r="AE732" s="96"/>
       <c r="AF732" s="96"/>
     </row>
-    <row r="733" spans="1:32" ht="16" thickBot="1">
+    <row r="733" spans="1:32" ht="15.75" thickBot="1">
       <c r="A733" s="96"/>
       <c r="B733" s="96"/>
       <c r="C733" s="96"/>
@@ -59901,7 +59911,7 @@
       <c r="AE733" s="96"/>
       <c r="AF733" s="96"/>
     </row>
-    <row r="734" spans="1:32" ht="16" thickBot="1">
+    <row r="734" spans="1:32" ht="15.75" thickBot="1">
       <c r="A734" s="96"/>
       <c r="B734" s="96"/>
       <c r="C734" s="96"/>
@@ -59935,7 +59945,7 @@
       <c r="AE734" s="96"/>
       <c r="AF734" s="96"/>
     </row>
-    <row r="735" spans="1:32" ht="16" thickBot="1">
+    <row r="735" spans="1:32" ht="15.75" thickBot="1">
       <c r="A735" s="96"/>
       <c r="B735" s="96"/>
       <c r="C735" s="96"/>
@@ -59969,7 +59979,7 @@
       <c r="AE735" s="96"/>
       <c r="AF735" s="96"/>
     </row>
-    <row r="736" spans="1:32" ht="16" thickBot="1">
+    <row r="736" spans="1:32" ht="15.75" thickBot="1">
       <c r="A736" s="96"/>
       <c r="B736" s="96"/>
       <c r="C736" s="96"/>
@@ -60003,7 +60013,7 @@
       <c r="AE736" s="96"/>
       <c r="AF736" s="96"/>
     </row>
-    <row r="737" spans="1:32" ht="16" thickBot="1">
+    <row r="737" spans="1:32" ht="15.75" thickBot="1">
       <c r="A737" s="96"/>
       <c r="B737" s="96"/>
       <c r="C737" s="96"/>
@@ -60037,7 +60047,7 @@
       <c r="AE737" s="96"/>
       <c r="AF737" s="96"/>
     </row>
-    <row r="738" spans="1:32" ht="16" thickBot="1">
+    <row r="738" spans="1:32" ht="15.75" thickBot="1">
       <c r="A738" s="96"/>
       <c r="B738" s="96"/>
       <c r="C738" s="96"/>
@@ -60071,7 +60081,7 @@
       <c r="AE738" s="96"/>
       <c r="AF738" s="96"/>
     </row>
-    <row r="739" spans="1:32" ht="16" thickBot="1">
+    <row r="739" spans="1:32" ht="15.75" thickBot="1">
       <c r="A739" s="96"/>
       <c r="B739" s="96"/>
       <c r="C739" s="96"/>
@@ -60105,7 +60115,7 @@
       <c r="AE739" s="96"/>
       <c r="AF739" s="96"/>
     </row>
-    <row r="740" spans="1:32" ht="16" thickBot="1">
+    <row r="740" spans="1:32" ht="15.75" thickBot="1">
       <c r="A740" s="96"/>
       <c r="B740" s="96"/>
       <c r="C740" s="96"/>
@@ -60139,7 +60149,7 @@
       <c r="AE740" s="96"/>
       <c r="AF740" s="96"/>
     </row>
-    <row r="741" spans="1:32" ht="16" thickBot="1">
+    <row r="741" spans="1:32" ht="15.75" thickBot="1">
       <c r="A741" s="96"/>
       <c r="B741" s="96"/>
       <c r="C741" s="96"/>
@@ -60173,7 +60183,7 @@
       <c r="AE741" s="96"/>
       <c r="AF741" s="96"/>
     </row>
-    <row r="742" spans="1:32" ht="16" thickBot="1">
+    <row r="742" spans="1:32" ht="15.75" thickBot="1">
       <c r="A742" s="96"/>
       <c r="B742" s="96"/>
       <c r="C742" s="96"/>
@@ -60207,7 +60217,7 @@
       <c r="AE742" s="96"/>
       <c r="AF742" s="96"/>
     </row>
-    <row r="743" spans="1:32" ht="16" thickBot="1">
+    <row r="743" spans="1:32" ht="15.75" thickBot="1">
       <c r="A743" s="96"/>
       <c r="B743" s="96"/>
       <c r="C743" s="96"/>
@@ -60241,7 +60251,7 @@
       <c r="AE743" s="96"/>
       <c r="AF743" s="96"/>
     </row>
-    <row r="744" spans="1:32" ht="16" thickBot="1">
+    <row r="744" spans="1:32" ht="15.75" thickBot="1">
       <c r="A744" s="96"/>
       <c r="B744" s="96"/>
       <c r="C744" s="96"/>
@@ -60275,7 +60285,7 @@
       <c r="AE744" s="96"/>
       <c r="AF744" s="96"/>
     </row>
-    <row r="745" spans="1:32" ht="16" thickBot="1">
+    <row r="745" spans="1:32" ht="15.75" thickBot="1">
       <c r="A745" s="96"/>
       <c r="B745" s="96"/>
       <c r="C745" s="96"/>
@@ -60309,7 +60319,7 @@
       <c r="AE745" s="96"/>
       <c r="AF745" s="96"/>
     </row>
-    <row r="746" spans="1:32" ht="16" thickBot="1">
+    <row r="746" spans="1:32" ht="15.75" thickBot="1">
       <c r="A746" s="96"/>
       <c r="B746" s="96"/>
       <c r="C746" s="96"/>
@@ -60343,7 +60353,7 @@
       <c r="AE746" s="96"/>
       <c r="AF746" s="96"/>
     </row>
-    <row r="747" spans="1:32" ht="16" thickBot="1">
+    <row r="747" spans="1:32" ht="15.75" thickBot="1">
       <c r="A747" s="96"/>
       <c r="B747" s="96"/>
       <c r="C747" s="96"/>
@@ -60377,7 +60387,7 @@
       <c r="AE747" s="96"/>
       <c r="AF747" s="96"/>
     </row>
-    <row r="748" spans="1:32" ht="16" thickBot="1">
+    <row r="748" spans="1:32" ht="15.75" thickBot="1">
       <c r="A748" s="96"/>
       <c r="B748" s="96"/>
       <c r="C748" s="96"/>
@@ -60411,7 +60421,7 @@
       <c r="AE748" s="96"/>
       <c r="AF748" s="96"/>
     </row>
-    <row r="749" spans="1:32" ht="16" thickBot="1">
+    <row r="749" spans="1:32" ht="15.75" thickBot="1">
       <c r="A749" s="96"/>
       <c r="B749" s="96"/>
       <c r="C749" s="96"/>
@@ -60445,7 +60455,7 @@
       <c r="AE749" s="96"/>
       <c r="AF749" s="96"/>
     </row>
-    <row r="750" spans="1:32" ht="16" thickBot="1">
+    <row r="750" spans="1:32" ht="15.75" thickBot="1">
       <c r="A750" s="96"/>
       <c r="B750" s="96"/>
       <c r="C750" s="96"/>
@@ -60479,7 +60489,7 @@
       <c r="AE750" s="96"/>
       <c r="AF750" s="96"/>
     </row>
-    <row r="751" spans="1:32" ht="16" thickBot="1">
+    <row r="751" spans="1:32" ht="15.75" thickBot="1">
       <c r="A751" s="96"/>
       <c r="B751" s="96"/>
       <c r="C751" s="96"/>
@@ -60513,7 +60523,7 @@
       <c r="AE751" s="96"/>
       <c r="AF751" s="96"/>
     </row>
-    <row r="752" spans="1:32" ht="16" thickBot="1">
+    <row r="752" spans="1:32" ht="15.75" thickBot="1">
       <c r="A752" s="96"/>
       <c r="B752" s="96"/>
       <c r="C752" s="96"/>
@@ -60547,7 +60557,7 @@
       <c r="AE752" s="96"/>
       <c r="AF752" s="96"/>
     </row>
-    <row r="753" spans="1:32" ht="16" thickBot="1">
+    <row r="753" spans="1:32" ht="15.75" thickBot="1">
       <c r="A753" s="96"/>
       <c r="B753" s="96"/>
       <c r="C753" s="96"/>
@@ -60581,7 +60591,7 @@
       <c r="AE753" s="96"/>
       <c r="AF753" s="96"/>
     </row>
-    <row r="754" spans="1:32" ht="16" thickBot="1">
+    <row r="754" spans="1:32" ht="15.75" thickBot="1">
       <c r="A754" s="96"/>
       <c r="B754" s="96"/>
       <c r="C754" s="96"/>
@@ -60615,7 +60625,7 @@
       <c r="AE754" s="96"/>
       <c r="AF754" s="96"/>
     </row>
-    <row r="755" spans="1:32" ht="16" thickBot="1">
+    <row r="755" spans="1:32" ht="15.75" thickBot="1">
       <c r="A755" s="96"/>
       <c r="B755" s="96"/>
       <c r="C755" s="96"/>
@@ -60649,7 +60659,7 @@
       <c r="AE755" s="96"/>
       <c r="AF755" s="96"/>
     </row>
-    <row r="756" spans="1:32" ht="16" thickBot="1">
+    <row r="756" spans="1:32" ht="15.75" thickBot="1">
       <c r="A756" s="96"/>
       <c r="B756" s="96"/>
       <c r="C756" s="96"/>
@@ -60683,7 +60693,7 @@
       <c r="AE756" s="96"/>
       <c r="AF756" s="96"/>
     </row>
-    <row r="757" spans="1:32" ht="16" thickBot="1">
+    <row r="757" spans="1:32" ht="15.75" thickBot="1">
       <c r="A757" s="96"/>
       <c r="B757" s="96"/>
       <c r="C757" s="96"/>
@@ -60717,7 +60727,7 @@
       <c r="AE757" s="96"/>
       <c r="AF757" s="96"/>
     </row>
-    <row r="758" spans="1:32" ht="16" thickBot="1">
+    <row r="758" spans="1:32" ht="15.75" thickBot="1">
       <c r="A758" s="96"/>
       <c r="B758" s="96"/>
       <c r="C758" s="96"/>
@@ -60751,7 +60761,7 @@
       <c r="AE758" s="96"/>
       <c r="AF758" s="96"/>
     </row>
-    <row r="759" spans="1:32" ht="16" thickBot="1">
+    <row r="759" spans="1:32" ht="15.75" thickBot="1">
       <c r="A759" s="96"/>
       <c r="B759" s="96"/>
       <c r="C759" s="96"/>
@@ -60785,7 +60795,7 @@
       <c r="AE759" s="96"/>
       <c r="AF759" s="96"/>
     </row>
-    <row r="760" spans="1:32" ht="16" thickBot="1">
+    <row r="760" spans="1:32" ht="15.75" thickBot="1">
       <c r="A760" s="96"/>
       <c r="B760" s="96"/>
       <c r="C760" s="96"/>
@@ -60819,7 +60829,7 @@
       <c r="AE760" s="96"/>
       <c r="AF760" s="96"/>
     </row>
-    <row r="761" spans="1:32" ht="16" thickBot="1">
+    <row r="761" spans="1:32" ht="15.75" thickBot="1">
       <c r="A761" s="96"/>
       <c r="B761" s="96"/>
       <c r="C761" s="96"/>
@@ -60853,7 +60863,7 @@
       <c r="AE761" s="96"/>
       <c r="AF761" s="96"/>
     </row>
-    <row r="762" spans="1:32" ht="16" thickBot="1">
+    <row r="762" spans="1:32" ht="15.75" thickBot="1">
       <c r="A762" s="96"/>
       <c r="B762" s="96"/>
       <c r="C762" s="96"/>
@@ -60887,7 +60897,7 @@
       <c r="AE762" s="96"/>
       <c r="AF762" s="96"/>
     </row>
-    <row r="763" spans="1:32" ht="16" thickBot="1">
+    <row r="763" spans="1:32" ht="15.75" thickBot="1">
       <c r="A763" s="96"/>
       <c r="B763" s="96"/>
       <c r="C763" s="96"/>
@@ -60921,7 +60931,7 @@
       <c r="AE763" s="96"/>
       <c r="AF763" s="96"/>
     </row>
-    <row r="764" spans="1:32" ht="16" thickBot="1">
+    <row r="764" spans="1:32" ht="15.75" thickBot="1">
       <c r="A764" s="96"/>
       <c r="B764" s="96"/>
       <c r="C764" s="96"/>
@@ -60955,7 +60965,7 @@
       <c r="AE764" s="96"/>
       <c r="AF764" s="96"/>
     </row>
-    <row r="765" spans="1:32" ht="16" thickBot="1">
+    <row r="765" spans="1:32" ht="15.75" thickBot="1">
       <c r="A765" s="96"/>
       <c r="B765" s="96"/>
       <c r="C765" s="96"/>
@@ -60989,7 +60999,7 @@
       <c r="AE765" s="96"/>
       <c r="AF765" s="96"/>
     </row>
-    <row r="766" spans="1:32" ht="16" thickBot="1">
+    <row r="766" spans="1:32" ht="15.75" thickBot="1">
       <c r="A766" s="96"/>
       <c r="B766" s="96"/>
       <c r="C766" s="96"/>
@@ -61023,7 +61033,7 @@
       <c r="AE766" s="96"/>
       <c r="AF766" s="96"/>
     </row>
-    <row r="767" spans="1:32" ht="16" thickBot="1">
+    <row r="767" spans="1:32" ht="15.75" thickBot="1">
       <c r="A767" s="96"/>
       <c r="B767" s="96"/>
       <c r="C767" s="96"/>
@@ -61057,7 +61067,7 @@
       <c r="AE767" s="96"/>
       <c r="AF767" s="96"/>
     </row>
-    <row r="768" spans="1:32" ht="16" thickBot="1">
+    <row r="768" spans="1:32" ht="15.75" thickBot="1">
       <c r="A768" s="96"/>
       <c r="B768" s="96"/>
       <c r="C768" s="96"/>
@@ -61091,7 +61101,7 @@
       <c r="AE768" s="96"/>
       <c r="AF768" s="96"/>
     </row>
-    <row r="769" spans="1:32" ht="16" thickBot="1">
+    <row r="769" spans="1:32" ht="15.75" thickBot="1">
       <c r="A769" s="96"/>
       <c r="B769" s="96"/>
       <c r="C769" s="96"/>
@@ -61125,7 +61135,7 @@
       <c r="AE769" s="96"/>
       <c r="AF769" s="96"/>
     </row>
-    <row r="770" spans="1:32" ht="16" thickBot="1">
+    <row r="770" spans="1:32" ht="15.75" thickBot="1">
       <c r="A770" s="96"/>
       <c r="B770" s="96"/>
       <c r="C770" s="96"/>
@@ -61159,7 +61169,7 @@
       <c r="AE770" s="96"/>
       <c r="AF770" s="96"/>
     </row>
-    <row r="771" spans="1:32" ht="16" thickBot="1">
+    <row r="771" spans="1:32" ht="15.75" thickBot="1">
       <c r="A771" s="96"/>
       <c r="B771" s="96"/>
       <c r="C771" s="96"/>
@@ -61193,7 +61203,7 @@
       <c r="AE771" s="96"/>
       <c r="AF771" s="96"/>
     </row>
-    <row r="772" spans="1:32" ht="16" thickBot="1">
+    <row r="772" spans="1:32" ht="15.75" thickBot="1">
       <c r="A772" s="96"/>
       <c r="B772" s="96"/>
       <c r="C772" s="96"/>
@@ -61227,7 +61237,7 @@
       <c r="AE772" s="96"/>
       <c r="AF772" s="96"/>
     </row>
-    <row r="773" spans="1:32" ht="16" thickBot="1">
+    <row r="773" spans="1:32" ht="15.75" thickBot="1">
       <c r="A773" s="96"/>
       <c r="B773" s="96"/>
       <c r="C773" s="96"/>
@@ -61261,7 +61271,7 @@
       <c r="AE773" s="96"/>
       <c r="AF773" s="96"/>
     </row>
-    <row r="774" spans="1:32" ht="16" thickBot="1">
+    <row r="774" spans="1:32" ht="15.75" thickBot="1">
       <c r="A774" s="96"/>
       <c r="B774" s="96"/>
       <c r="C774" s="96"/>
@@ -61295,7 +61305,7 @@
       <c r="AE774" s="96"/>
       <c r="AF774" s="96"/>
     </row>
-    <row r="775" spans="1:32" ht="16" thickBot="1">
+    <row r="775" spans="1:32" ht="15.75" thickBot="1">
       <c r="A775" s="96"/>
       <c r="B775" s="96"/>
       <c r="C775" s="96"/>
@@ -61329,7 +61339,7 @@
       <c r="AE775" s="96"/>
       <c r="AF775" s="96"/>
     </row>
-    <row r="776" spans="1:32" ht="16" thickBot="1">
+    <row r="776" spans="1:32" ht="15.75" thickBot="1">
       <c r="A776" s="96"/>
       <c r="B776" s="96"/>
       <c r="C776" s="96"/>
@@ -61363,7 +61373,7 @@
       <c r="AE776" s="96"/>
       <c r="AF776" s="96"/>
     </row>
-    <row r="777" spans="1:32" ht="16" thickBot="1">
+    <row r="777" spans="1:32" ht="15.75" thickBot="1">
       <c r="A777" s="96"/>
       <c r="B777" s="96"/>
       <c r="C777" s="96"/>
@@ -61397,7 +61407,7 @@
       <c r="AE777" s="96"/>
       <c r="AF777" s="96"/>
     </row>
-    <row r="778" spans="1:32" ht="16" thickBot="1">
+    <row r="778" spans="1:32" ht="15.75" thickBot="1">
       <c r="A778" s="96"/>
       <c r="B778" s="96"/>
       <c r="C778" s="96"/>
@@ -61431,7 +61441,7 @@
       <c r="AE778" s="96"/>
       <c r="AF778" s="96"/>
     </row>
-    <row r="779" spans="1:32" ht="16" thickBot="1">
+    <row r="779" spans="1:32" ht="15.75" thickBot="1">
       <c r="A779" s="96"/>
       <c r="B779" s="96"/>
       <c r="C779" s="96"/>
@@ -61465,7 +61475,7 @@
       <c r="AE779" s="96"/>
       <c r="AF779" s="96"/>
     </row>
-    <row r="780" spans="1:32" ht="16" thickBot="1">
+    <row r="780" spans="1:32" ht="15.75" thickBot="1">
       <c r="A780" s="96"/>
       <c r="B780" s="96"/>
       <c r="C780" s="96"/>
@@ -61499,7 +61509,7 @@
       <c r="AE780" s="96"/>
       <c r="AF780" s="96"/>
     </row>
-    <row r="781" spans="1:32" ht="16" thickBot="1">
+    <row r="781" spans="1:32" ht="15.75" thickBot="1">
       <c r="A781" s="96"/>
       <c r="B781" s="96"/>
       <c r="C781" s="96"/>
@@ -61533,7 +61543,7 @@
       <c r="AE781" s="96"/>
       <c r="AF781" s="96"/>
     </row>
-    <row r="782" spans="1:32" ht="16" thickBot="1">
+    <row r="782" spans="1:32" ht="15.75" thickBot="1">
       <c r="A782" s="96"/>
       <c r="B782" s="96"/>
       <c r="C782" s="96"/>
@@ -61567,7 +61577,7 @@
       <c r="AE782" s="96"/>
       <c r="AF782" s="96"/>
     </row>
-    <row r="783" spans="1:32" ht="16" thickBot="1">
+    <row r="783" spans="1:32" ht="15.75" thickBot="1">
       <c r="A783" s="96"/>
       <c r="B783" s="96"/>
       <c r="C783" s="96"/>
@@ -61601,7 +61611,7 @@
       <c r="AE783" s="96"/>
       <c r="AF783" s="96"/>
     </row>
-    <row r="784" spans="1:32" ht="16" thickBot="1">
+    <row r="784" spans="1:32" ht="15.75" thickBot="1">
       <c r="A784" s="96"/>
       <c r="B784" s="96"/>
       <c r="C784" s="96"/>
@@ -61635,7 +61645,7 @@
       <c r="AE784" s="96"/>
       <c r="AF784" s="96"/>
     </row>
-    <row r="785" spans="1:32" ht="16" thickBot="1">
+    <row r="785" spans="1:32" ht="15.75" thickBot="1">
       <c r="A785" s="96"/>
       <c r="B785" s="96"/>
       <c r="C785" s="96"/>
@@ -61669,7 +61679,7 @@
       <c r="AE785" s="96"/>
       <c r="AF785" s="96"/>
     </row>
-    <row r="786" spans="1:32" ht="16" thickBot="1">
+    <row r="786" spans="1:32" ht="15.75" thickBot="1">
       <c r="A786" s="96"/>
       <c r="B786" s="96"/>
       <c r="C786" s="96"/>
@@ -61703,7 +61713,7 @@
       <c r="AE786" s="96"/>
       <c r="AF786" s="96"/>
     </row>
-    <row r="787" spans="1:32" ht="16" thickBot="1">
+    <row r="787" spans="1:32" ht="15.75" thickBot="1">
       <c r="A787" s="96"/>
       <c r="B787" s="96"/>
       <c r="C787" s="96"/>
@@ -61737,7 +61747,7 @@
       <c r="AE787" s="96"/>
       <c r="AF787" s="96"/>
     </row>
-    <row r="788" spans="1:32" ht="16" thickBot="1">
+    <row r="788" spans="1:32" ht="15.75" thickBot="1">
       <c r="A788" s="96"/>
       <c r="B788" s="96"/>
       <c r="C788" s="96"/>
@@ -61771,7 +61781,7 @@
       <c r="AE788" s="96"/>
       <c r="AF788" s="96"/>
     </row>
-    <row r="789" spans="1:32" ht="16" thickBot="1">
+    <row r="789" spans="1:32" ht="15.75" thickBot="1">
       <c r="A789" s="96"/>
       <c r="B789" s="96"/>
       <c r="C789" s="96"/>
@@ -61805,7 +61815,7 @@
       <c r="AE789" s="96"/>
       <c r="AF789" s="96"/>
     </row>
-    <row r="790" spans="1:32" ht="16" thickBot="1">
+    <row r="790" spans="1:32" ht="15.75" thickBot="1">
       <c r="A790" s="96"/>
       <c r="B790" s="96"/>
       <c r="C790" s="96"/>
@@ -61839,7 +61849,7 @@
       <c r="AE790" s="96"/>
       <c r="AF790" s="96"/>
     </row>
-    <row r="791" spans="1:32" ht="16" thickBot="1">
+    <row r="791" spans="1:32" ht="15.75" thickBot="1">
       <c r="A791" s="96"/>
       <c r="B791" s="96"/>
       <c r="C791" s="96"/>
@@ -61873,7 +61883,7 @@
       <c r="AE791" s="96"/>
       <c r="AF791" s="96"/>
     </row>
-    <row r="792" spans="1:32" ht="16" thickBot="1">
+    <row r="792" spans="1:32" ht="15.75" thickBot="1">
       <c r="A792" s="96"/>
       <c r="B792" s="96"/>
       <c r="C792" s="96"/>
@@ -61907,7 +61917,7 @@
       <c r="AE792" s="96"/>
       <c r="AF792" s="96"/>
     </row>
-    <row r="793" spans="1:32" ht="16" thickBot="1">
+    <row r="793" spans="1:32" ht="15.75" thickBot="1">
       <c r="A793" s="96"/>
       <c r="B793" s="96"/>
       <c r="C793" s="96"/>
@@ -61941,7 +61951,7 @@
       <c r="AE793" s="96"/>
       <c r="AF793" s="96"/>
     </row>
-    <row r="794" spans="1:32" ht="16" thickBot="1">
+    <row r="794" spans="1:32" ht="15.75" thickBot="1">
       <c r="A794" s="96"/>
       <c r="B794" s="96"/>
       <c r="C794" s="96"/>
@@ -61975,7 +61985,7 @@
       <c r="AE794" s="96"/>
       <c r="AF794" s="96"/>
     </row>
-    <row r="795" spans="1:32" ht="16" thickBot="1">
+    <row r="795" spans="1:32" ht="15.75" thickBot="1">
       <c r="A795" s="96"/>
       <c r="B795" s="96"/>
       <c r="C795" s="96"/>
@@ -62009,7 +62019,7 @@
       <c r="AE795" s="96"/>
       <c r="AF795" s="96"/>
     </row>
-    <row r="796" spans="1:32" ht="16" thickBot="1">
+    <row r="796" spans="1:32" ht="15.75" thickBot="1">
       <c r="A796" s="96"/>
       <c r="B796" s="96"/>
       <c r="C796" s="96"/>
@@ -62043,7 +62053,7 @@
       <c r="AE796" s="96"/>
       <c r="AF796" s="96"/>
     </row>
-    <row r="797" spans="1:32" ht="16" thickBot="1">
+    <row r="797" spans="1:32" ht="15.75" thickBot="1">
       <c r="A797" s="96"/>
       <c r="B797" s="96"/>
       <c r="C797" s="96"/>
@@ -62077,7 +62087,7 @@
       <c r="AE797" s="96"/>
       <c r="AF797" s="96"/>
     </row>
-    <row r="798" spans="1:32" ht="16" thickBot="1">
+    <row r="798" spans="1:32" ht="15.75" thickBot="1">
       <c r="A798" s="96"/>
       <c r="B798" s="96"/>
       <c r="C798" s="96"/>
@@ -62111,7 +62121,7 @@
       <c r="AE798" s="96"/>
       <c r="AF798" s="96"/>
     </row>
-    <row r="799" spans="1:32" ht="16" thickBot="1">
+    <row r="799" spans="1:32" ht="15.75" thickBot="1">
       <c r="A799" s="96"/>
       <c r="B799" s="96"/>
       <c r="C799" s="96"/>
@@ -62145,7 +62155,7 @@
       <c r="AE799" s="96"/>
       <c r="AF799" s="96"/>
     </row>
-    <row r="800" spans="1:32" ht="16" thickBot="1">
+    <row r="800" spans="1:32" ht="15.75" thickBot="1">
       <c r="A800" s="96"/>
       <c r="B800" s="96"/>
       <c r="C800" s="96"/>
@@ -62179,7 +62189,7 @@
       <c r="AE800" s="96"/>
       <c r="AF800" s="96"/>
     </row>
-    <row r="801" spans="1:32" ht="16" thickBot="1">
+    <row r="801" spans="1:32" ht="15.75" thickBot="1">
       <c r="A801" s="96"/>
       <c r="B801" s="96"/>
       <c r="C801" s="96"/>
@@ -62213,7 +62223,7 @@
       <c r="AE801" s="96"/>
       <c r="AF801" s="96"/>
     </row>
-    <row r="802" spans="1:32" ht="16" thickBot="1">
+    <row r="802" spans="1:32" ht="15.75" thickBot="1">
       <c r="A802" s="96"/>
       <c r="B802" s="96"/>
       <c r="C802" s="96"/>
@@ -62247,7 +62257,7 @@
       <c r="AE802" s="96"/>
       <c r="AF802" s="96"/>
     </row>
-    <row r="803" spans="1:32" ht="16" thickBot="1">
+    <row r="803" spans="1:32" ht="15.75" thickBot="1">
       <c r="A803" s="96"/>
       <c r="B803" s="96"/>
       <c r="C803" s="96"/>
@@ -62281,7 +62291,7 @@
       <c r="AE803" s="96"/>
       <c r="AF803" s="96"/>
     </row>
-    <row r="804" spans="1:32" ht="16" thickBot="1">
+    <row r="804" spans="1:32" ht="15.75" thickBot="1">
       <c r="A804" s="96"/>
       <c r="B804" s="96"/>
       <c r="C804" s="96"/>
@@ -62315,7 +62325,7 @@
       <c r="AE804" s="96"/>
       <c r="AF804" s="96"/>
     </row>
-    <row r="805" spans="1:32" ht="16" thickBot="1">
+    <row r="805" spans="1:32" ht="15.75" thickBot="1">
       <c r="A805" s="96"/>
       <c r="B805" s="96"/>
       <c r="C805" s="96"/>
@@ -62349,7 +62359,7 @@
       <c r="AE805" s="96"/>
       <c r="AF805" s="96"/>
     </row>
-    <row r="806" spans="1:32" ht="16" thickBot="1">
+    <row r="806" spans="1:32" ht="15.75" thickBot="1">
       <c r="A806" s="96"/>
       <c r="B806" s="96"/>
       <c r="C806" s="96"/>
@@ -62383,7 +62393,7 @@
       <c r="AE806" s="96"/>
       <c r="AF806" s="96"/>
     </row>
-    <row r="807" spans="1:32" ht="16" thickBot="1">
+    <row r="807" spans="1:32" ht="15.75" thickBot="1">
       <c r="A807" s="96"/>
       <c r="B807" s="96"/>
       <c r="C807" s="96"/>
@@ -62417,7 +62427,7 @@
       <c r="AE807" s="96"/>
       <c r="AF807" s="96"/>
     </row>
-    <row r="808" spans="1:32" ht="16" thickBot="1">
+    <row r="808" spans="1:32" ht="15.75" thickBot="1">
       <c r="A808" s="96"/>
       <c r="B808" s="96"/>
       <c r="C808" s="96"/>
@@ -62451,7 +62461,7 @@
       <c r="AE808" s="96"/>
       <c r="AF808" s="96"/>
     </row>
-    <row r="809" spans="1:32" ht="16" thickBot="1">
+    <row r="809" spans="1:32" ht="15.75" thickBot="1">
       <c r="A809" s="96"/>
       <c r="B809" s="96"/>
       <c r="C809" s="96"/>
@@ -62485,7 +62495,7 @@
       <c r="AE809" s="96"/>
       <c r="AF809" s="96"/>
     </row>
-    <row r="810" spans="1:32" ht="16" thickBot="1">
+    <row r="810" spans="1:32" ht="15.75" thickBot="1">
       <c r="A810" s="96"/>
       <c r="B810" s="96"/>
       <c r="C810" s="96"/>
@@ -62519,7 +62529,7 @@
       <c r="AE810" s="96"/>
       <c r="AF810" s="96"/>
     </row>
-    <row r="811" spans="1:32" ht="16" thickBot="1">
+    <row r="811" spans="1:32" ht="15.75" thickBot="1">
       <c r="A811" s="96"/>
       <c r="B811" s="96"/>
       <c r="C811" s="96"/>
@@ -62553,7 +62563,7 @@
       <c r="AE811" s="96"/>
       <c r="AF811" s="96"/>
     </row>
-    <row r="812" spans="1:32" ht="16" thickBot="1">
+    <row r="812" spans="1:32" ht="15.75" thickBot="1">
       <c r="A812" s="96"/>
       <c r="B812" s="96"/>
       <c r="C812" s="96"/>
@@ -62587,7 +62597,7 @@
       <c r="AE812" s="96"/>
       <c r="AF812" s="96"/>
     </row>
-    <row r="813" spans="1:32" ht="16" thickBot="1">
+    <row r="813" spans="1:32" ht="15.75" thickBot="1">
       <c r="A813" s="96"/>
       <c r="B813" s="96"/>
       <c r="C813" s="96"/>
@@ -62621,7 +62631,7 @@
       <c r="AE813" s="96"/>
       <c r="AF813" s="96"/>
     </row>
-    <row r="814" spans="1:32" ht="16" thickBot="1">
+    <row r="814" spans="1:32" ht="15.75" thickBot="1">
       <c r="A814" s="96"/>
       <c r="B814" s="96"/>
       <c r="C814" s="96"/>
@@ -62655,7 +62665,7 @@
       <c r="AE814" s="96"/>
       <c r="AF814" s="96"/>
     </row>
-    <row r="815" spans="1:32" ht="16" thickBot="1">
+    <row r="815" spans="1:32" ht="15.75" thickBot="1">
       <c r="A815" s="96"/>
       <c r="B815" s="96"/>
       <c r="C815" s="96"/>
@@ -62689,7 +62699,7 @@
       <c r="AE815" s="96"/>
       <c r="AF815" s="96"/>
     </row>
-    <row r="816" spans="1:32" ht="16" thickBot="1">
+    <row r="816" spans="1:32" ht="15.75" thickBot="1">
       <c r="A816" s="96"/>
       <c r="B816" s="96"/>
       <c r="C816" s="96"/>
@@ -62723,7 +62733,7 @@
       <c r="AE816" s="96"/>
       <c r="AF816" s="96"/>
     </row>
-    <row r="817" spans="1:32" ht="16" thickBot="1">
+    <row r="817" spans="1:32" ht="15.75" thickBot="1">
       <c r="A817" s="96"/>
       <c r="B817" s="96"/>
       <c r="C817" s="96"/>
@@ -62757,7 +62767,7 @@
       <c r="AE817" s="96"/>
       <c r="AF817" s="96"/>
     </row>
-    <row r="818" spans="1:32" ht="16" thickBot="1">
+    <row r="818" spans="1:32" ht="15.75" thickBot="1">
       <c r="A818" s="96"/>
       <c r="B818" s="96"/>
       <c r="C818" s="96"/>
@@ -62791,7 +62801,7 @@
       <c r="AE818" s="96"/>
       <c r="AF818" s="96"/>
     </row>
-    <row r="819" spans="1:32" ht="16" thickBot="1">
+    <row r="819" spans="1:32" ht="15.75" thickBot="1">
       <c r="A819" s="96"/>
       <c r="B819" s="96"/>
       <c r="C819" s="96"/>
@@ -62825,7 +62835,7 @@
       <c r="AE819" s="96"/>
       <c r="AF819" s="96"/>
     </row>
-    <row r="820" spans="1:32" ht="16" thickBot="1">
+    <row r="820" spans="1:32" ht="15.75" thickBot="1">
       <c r="A820" s="96"/>
       <c r="B820" s="96"/>
       <c r="C820" s="96"/>
@@ -62859,7 +62869,7 @@
       <c r="AE820" s="96"/>
       <c r="AF820" s="96"/>
     </row>
-    <row r="821" spans="1:32" ht="16" thickBot="1">
+    <row r="821" spans="1:32" ht="15.75" thickBot="1">
       <c r="A821" s="96"/>
       <c r="B821" s="96"/>
       <c r="C821" s="96"/>
@@ -62893,7 +62903,7 @@
       <c r="AE821" s="96"/>
       <c r="AF821" s="96"/>
     </row>
-    <row r="822" spans="1:32" ht="16" thickBot="1">
+    <row r="822" spans="1:32" ht="15.75" thickBot="1">
       <c r="A822" s="96"/>
       <c r="B822" s="96"/>
       <c r="C822" s="96"/>
@@ -62927,7 +62937,7 @@
       <c r="AE822" s="96"/>
       <c r="AF822" s="96"/>
     </row>
-    <row r="823" spans="1:32" ht="16" thickBot="1">
+    <row r="823" spans="1:32" ht="15.75" thickBot="1">
       <c r="A823" s="96"/>
       <c r="B823" s="96"/>
       <c r="C823" s="96"/>
@@ -62961,7 +62971,7 @@
       <c r="AE823" s="96"/>
       <c r="AF823" s="96"/>
     </row>
-    <row r="824" spans="1:32" ht="16" thickBot="1">
+    <row r="824" spans="1:32" ht="15.75" thickBot="1">
       <c r="A824" s="96"/>
       <c r="B824" s="96"/>
       <c r="C824" s="96"/>
@@ -62995,7 +63005,7 @@
       <c r="AE824" s="96"/>
       <c r="AF824" s="96"/>
     </row>
-    <row r="825" spans="1:32" ht="16" thickBot="1">
+    <row r="825" spans="1:32" ht="15.75" thickBot="1">
       <c r="A825" s="96"/>
       <c r="B825" s="96"/>
       <c r="C825" s="96"/>
@@ -63029,7 +63039,7 @@
       <c r="AE825" s="96"/>
       <c r="AF825" s="96"/>
     </row>
-    <row r="826" spans="1:32" ht="16" thickBot="1">
+    <row r="826" spans="1:32" ht="15.75" thickBot="1">
       <c r="A826" s="96"/>
       <c r="B826" s="96"/>
       <c r="C826" s="96"/>
@@ -63063,7 +63073,7 @@
       <c r="AE826" s="96"/>
       <c r="AF826" s="96"/>
     </row>
-    <row r="827" spans="1:32" ht="16" thickBot="1">
+    <row r="827" spans="1:32" ht="15.75" thickBot="1">
       <c r="A827" s="96"/>
       <c r="B827" s="96"/>
       <c r="C827" s="96"/>
@@ -63097,7 +63107,7 @@
       <c r="AE827" s="96"/>
       <c r="AF827" s="96"/>
     </row>
-    <row r="828" spans="1:32" ht="16" thickBot="1">
+    <row r="828" spans="1:32" ht="15.75" thickBot="1">
       <c r="A828" s="96"/>
       <c r="B828" s="96"/>
       <c r="C828" s="96"/>
@@ -63131,7 +63141,7 @@
       <c r="AE828" s="96"/>
       <c r="AF828" s="96"/>
     </row>
-    <row r="829" spans="1:32" ht="16" thickBot="1">
+    <row r="829" spans="1:32" ht="15.75" thickBot="1">
       <c r="A829" s="96"/>
       <c r="B829" s="96"/>
       <c r="C829" s="96"/>
@@ -63165,7 +63175,7 @@
       <c r="AE829" s="96"/>
       <c r="AF829" s="96"/>
     </row>
-    <row r="830" spans="1:32" ht="16" thickBot="1">
+    <row r="830" spans="1:32" ht="15.75" thickBot="1">
       <c r="A830" s="96"/>
       <c r="B830" s="96"/>
       <c r="C830" s="96"/>
@@ -63199,7 +63209,7 @@
       <c r="AE830" s="96"/>
       <c r="AF830" s="96"/>
     </row>
-    <row r="831" spans="1:32" ht="16" thickBot="1">
+    <row r="831" spans="1:32" ht="15.75" thickBot="1">
       <c r="A831" s="96"/>
       <c r="B831" s="96"/>
       <c r="C831" s="96"/>
@@ -63233,7 +63243,7 @@
       <c r="AE831" s="96"/>
       <c r="AF831" s="96"/>
     </row>
-    <row r="832" spans="1:32" ht="16" thickBot="1">
+    <row r="832" spans="1:32" ht="15.75" thickBot="1">
       <c r="A832" s="96"/>
       <c r="B832" s="96"/>
       <c r="C832" s="96"/>
@@ -63267,7 +63277,7 @@
       <c r="AE832" s="96"/>
       <c r="AF832" s="96"/>
     </row>
-    <row r="833" spans="1:32" ht="16" thickBot="1">
+    <row r="833" spans="1:32" ht="15.75" thickBot="1">
       <c r="A833" s="96"/>
       <c r="B833" s="96"/>
       <c r="C833" s="96"/>
@@ -63301,7 +63311,7 @@
       <c r="AE833" s="96"/>
       <c r="AF833" s="96"/>
     </row>
-    <row r="834" spans="1:32" ht="16" thickBot="1">
+    <row r="834" spans="1:32" ht="15.75" thickBot="1">
       <c r="A834" s="96"/>
       <c r="B834" s="96"/>
       <c r="C834" s="96"/>
@@ -63335,7 +63345,7 @@
       <c r="AE834" s="96"/>
       <c r="AF834" s="96"/>
     </row>
-    <row r="835" spans="1:32" ht="16" thickBot="1">
+    <row r="835" spans="1:32" ht="15.75" thickBot="1">
       <c r="A835" s="96"/>
       <c r="B835" s="96"/>
       <c r="C835" s="96"/>
@@ -63369,7 +63379,7 @@
       <c r="AE835" s="96"/>
       <c r="AF835" s="96"/>
     </row>
-    <row r="836" spans="1:32" ht="16" thickBot="1">
+    <row r="836" spans="1:32" ht="15.75" thickBot="1">
       <c r="A836" s="96"/>
       <c r="B836" s="96"/>
       <c r="C836" s="96"/>
@@ -63403,7 +63413,7 @@
       <c r="AE836" s="96"/>
       <c r="AF836" s="96"/>
     </row>
-    <row r="837" spans="1:32" ht="16" thickBot="1">
+    <row r="837" spans="1:32" ht="15.75" thickBot="1">
       <c r="A837" s="96"/>
       <c r="B837" s="96"/>
       <c r="C837" s="96"/>
@@ -63437,7 +63447,7 @@
       <c r="AE837" s="96"/>
       <c r="AF837" s="96"/>
     </row>
-    <row r="838" spans="1:32" ht="16" thickBot="1">
+    <row r="838" spans="1:32" ht="15.75" thickBot="1">
       <c r="A838" s="96"/>
       <c r="B838" s="96"/>
       <c r="C838" s="96"/>
@@ -63471,7 +63481,7 @@
       <c r="AE838" s="96"/>
       <c r="AF838" s="96"/>
     </row>
-    <row r="839" spans="1:32" ht="16" thickBot="1">
+    <row r="839" spans="1:32" ht="15.75" thickBot="1">
       <c r="A839" s="96"/>
       <c r="B839" s="96"/>
       <c r="C839" s="96"/>
@@ -63505,7 +63515,7 @@
       <c r="AE839" s="96"/>
       <c r="AF839" s="96"/>
     </row>
-    <row r="840" spans="1:32" ht="16" thickBot="1">
+    <row r="840" spans="1:32" ht="15.75" thickBot="1">
       <c r="A840" s="96"/>
       <c r="B840" s="96"/>
       <c r="C840" s="96"/>
@@ -63539,7 +63549,7 @@
       <c r="AE840" s="96"/>
       <c r="AF840" s="96"/>
     </row>
-    <row r="841" spans="1:32" ht="16" thickBot="1">
+    <row r="841" spans="1:32" ht="15.75" thickBot="1">
       <c r="A841" s="96"/>
       <c r="B841" s="96"/>
       <c r="C841" s="96"/>
@@ -63573,7 +63583,7 @@
       <c r="AE841" s="96"/>
       <c r="AF841" s="96"/>
     </row>
-    <row r="842" spans="1:32" ht="16" thickBot="1">
+    <row r="842" spans="1:32" ht="15.75" thickBot="1">
       <c r="A842" s="96"/>
       <c r="B842" s="96"/>
       <c r="C842" s="96"/>
@@ -63607,7 +63617,7 @@
       <c r="AE842" s="96"/>
       <c r="AF842" s="96"/>
     </row>
-    <row r="843" spans="1:32" ht="16" thickBot="1">
+    <row r="843" spans="1:32" ht="15.75" thickBot="1">
       <c r="A843" s="96"/>
       <c r="B843" s="96"/>
       <c r="C843" s="96"/>
@@ -63641,7 +63651,7 @@
       <c r="AE843" s="96"/>
       <c r="AF843" s="96"/>
     </row>
-    <row r="844" spans="1:32" ht="16" thickBot="1">
+    <row r="844" spans="1:32" ht="15.75" thickBot="1">
       <c r="A844" s="96"/>
       <c r="B844" s="96"/>
       <c r="C844" s="96"/>
@@ -63675,7 +63685,7 @@
       <c r="AE844" s="96"/>
       <c r="AF844" s="96"/>
     </row>
-    <row r="845" spans="1:32" ht="16" thickBot="1">
+    <row r="845" spans="1:32" ht="15.75" thickBot="1">
       <c r="A845" s="96"/>
       <c r="B845" s="96"/>
       <c r="C845" s="96"/>
@@ -63709,7 +63719,7 @@
       <c r="AE845" s="96"/>
       <c r="AF845" s="96"/>
     </row>
-    <row r="846" spans="1:32" ht="16" thickBot="1">
+    <row r="846" spans="1:32" ht="15.75" thickBot="1">
       <c r="A846" s="96"/>
       <c r="B846" s="96"/>
       <c r="C846" s="96"/>
@@ -63743,7 +63753,7 @@
       <c r="AE846" s="96"/>
       <c r="AF846" s="96"/>
     </row>
-    <row r="847" spans="1:32" ht="16" thickBot="1">
+    <row r="847" spans="1:32" ht="15.75" thickBot="1">
       <c r="A847" s="96"/>
       <c r="B847" s="96"/>
       <c r="C847" s="96"/>
@@ -63777,7 +63787,7 @@
       <c r="AE847" s="96"/>
       <c r="AF847" s="96"/>
     </row>
-    <row r="848" spans="1:32" ht="16" thickBot="1">
+    <row r="848" spans="1:32" ht="15.75" thickBot="1">
       <c r="A848" s="96"/>
       <c r="B848" s="96"/>
       <c r="C848" s="96"/>
@@ -63811,7 +63821,7 @@
       <c r="AE848" s="96"/>
       <c r="AF848" s="96"/>
     </row>
-    <row r="849" spans="1:32" ht="16" thickBot="1">
+    <row r="849" spans="1:32" ht="15.75" thickBot="1">
       <c r="A849" s="96"/>
       <c r="B849" s="96"/>
       <c r="C849" s="96"/>
@@ -63845,7 +63855,7 @@
       <c r="AE849" s="96"/>
       <c r="AF849" s="96"/>
     </row>
-    <row r="850" spans="1:32" ht="16" thickBot="1">
+    <row r="850" spans="1:32" ht="15.75" thickBot="1">
       <c r="A850" s="96"/>
       <c r="B850" s="96"/>
       <c r="C850" s="96"/>
@@ -63879,7 +63889,7 @@
       <c r="AE850" s="96"/>
       <c r="AF850" s="96"/>
     </row>
-    <row r="851" spans="1:32" ht="16" thickBot="1">
+    <row r="851" spans="1:32" ht="15.75" thickBot="1">
       <c r="A851" s="96"/>
       <c r="B851" s="96"/>
       <c r="C851" s="96"/>
@@ -63913,7 +63923,7 @@
       <c r="AE851" s="96"/>
       <c r="AF851" s="96"/>
     </row>
-    <row r="852" spans="1:32" ht="16" thickBot="1">
+    <row r="852" spans="1:32" ht="15.75" thickBot="1">
       <c r="A852" s="96"/>
       <c r="B852" s="96"/>
       <c r="C852" s="96"/>
@@ -63947,7 +63957,7 @@
       <c r="AE852" s="96"/>
       <c r="AF852" s="96"/>
     </row>
-    <row r="853" spans="1:32" ht="16" thickBot="1">
+    <row r="853" spans="1:32" ht="15.75" thickBot="1">
       <c r="A853" s="96"/>
       <c r="B853" s="96"/>
       <c r="C853" s="96"/>
@@ -63981,7 +63991,7 @@
       <c r="AE853" s="96"/>
       <c r="AF853" s="96"/>
     </row>
-    <row r="854" spans="1:32" ht="16" thickBot="1">
+    <row r="854" spans="1:32" ht="15.75" thickBot="1">
       <c r="A854" s="96"/>
       <c r="B854" s="96"/>
       <c r="C854" s="96"/>
@@ -64015,7 +64025,7 @@
       <c r="AE854" s="96"/>
       <c r="AF854" s="96"/>
     </row>
-    <row r="855" spans="1:32" ht="16" thickBot="1">
+    <row r="855" spans="1:32" ht="15.75" thickBot="1">
       <c r="A855" s="96"/>
       <c r="B855" s="96"/>
       <c r="C855" s="96"/>
@@ -64049,7 +64059,7 @@
       <c r="AE855" s="96"/>
       <c r="AF855" s="96"/>
     </row>
-    <row r="856" spans="1:32" ht="16" thickBot="1">
+    <row r="856" spans="1:32" ht="15.75" thickBot="1">
       <c r="A856" s="96"/>
       <c r="B856" s="96"/>
       <c r="C856" s="96"/>
@@ -64083,7 +64093,7 @@
       <c r="AE856" s="96"/>
       <c r="AF856" s="96"/>
     </row>
-    <row r="857" spans="1:32" ht="16" thickBot="1">
+    <row r="857" spans="1:32" ht="15.75" thickBot="1">
       <c r="A857" s="96"/>
       <c r="B857" s="96"/>
       <c r="C857" s="96"/>
@@ -64117,7 +64127,7 @@
       <c r="AE857" s="96"/>
       <c r="AF857" s="96"/>
     </row>
-    <row r="858" spans="1:32" ht="16" thickBot="1">
+    <row r="858" spans="1:32" ht="15.75" thickBot="1">
       <c r="A858" s="96"/>
       <c r="B858" s="96"/>
       <c r="C858" s="96"/>
@@ -64151,7 +64161,7 @@
       <c r="AE858" s="96"/>
       <c r="AF858" s="96"/>
     </row>
-    <row r="859" spans="1:32" ht="16" thickBot="1">
+    <row r="859" spans="1:32" ht="15.75" thickBot="1">
       <c r="A859" s="96"/>
       <c r="B859" s="96"/>
       <c r="C859" s="96"/>
@@ -64185,7 +64195,7 @@
       <c r="AE859" s="96"/>
       <c r="AF859" s="96"/>
     </row>
-    <row r="860" spans="1:32" ht="16" thickBot="1">
+    <row r="860" spans="1:32" ht="15.75" thickBot="1">
       <c r="A860" s="96"/>
       <c r="B860" s="96"/>
       <c r="C860" s="96"/>
@@ -64219,7 +64229,7 @@
       <c r="AE860" s="96"/>
       <c r="AF860" s="96"/>
     </row>
-    <row r="861" spans="1:32" ht="16" thickBot="1">
+    <row r="861" spans="1:32" ht="15.75" thickBot="1">
       <c r="A861" s="96"/>
       <c r="B861" s="96"/>
       <c r="C861" s="96"/>
@@ -64253,7 +64263,7 @@
       <c r="AE861" s="96"/>
       <c r="AF861" s="96"/>
     </row>
-    <row r="862" spans="1:32" ht="16" thickBot="1">
+    <row r="862" spans="1:32" ht="15.75" thickBot="1">
       <c r="A862" s="96"/>
       <c r="B862" s="96"/>
       <c r="C862" s="96"/>
@@ -64287,7 +64297,7 @@
       <c r="AE862" s="96"/>
       <c r="AF862" s="96"/>
     </row>
-    <row r="863" spans="1:32" ht="16" thickBot="1">
+    <row r="863" spans="1:32" ht="15.75" thickBot="1">
       <c r="A863" s="96"/>
       <c r="B863" s="96"/>
       <c r="C863" s="96"/>
@@ -64321,7 +64331,7 @@
       <c r="AE863" s="96"/>
       <c r="AF863" s="96"/>
     </row>
-    <row r="864" spans="1:32" ht="16" thickBot="1">
+    <row r="864" spans="1:32" ht="15.75" thickBot="1">
       <c r="A864" s="96"/>
       <c r="B864" s="96"/>
       <c r="C864" s="96"/>
@@ -64355,7 +64365,7 @@
       <c r="AE864" s="96"/>
       <c r="AF864" s="96"/>
     </row>
-    <row r="865" spans="1:32" ht="16" thickBot="1">
+    <row r="865" spans="1:32" ht="15.75" thickBot="1">
       <c r="A865" s="96"/>
       <c r="B865" s="96"/>
       <c r="C865" s="96"/>
@@ -64389,7 +64399,7 @@
       <c r="AE865" s="96"/>
       <c r="AF865" s="96"/>
     </row>
-    <row r="866" spans="1:32" ht="16" thickBot="1">
+    <row r="866" spans="1:32" ht="15.75" thickBot="1">
       <c r="A866" s="96"/>
       <c r="B866" s="96"/>
       <c r="C866" s="96"/>
@@ -64423,7 +64433,7 @@
       <c r="AE866" s="96"/>
       <c r="AF866" s="96"/>
     </row>
-    <row r="867" spans="1:32" ht="16" thickBot="1">
+    <row r="867" spans="1:32" ht="15.75" thickBot="1">
       <c r="A867" s="96"/>
       <c r="B867" s="96"/>
       <c r="C867" s="96"/>
@@ -64457,7 +64467,7 @@
       <c r="AE867" s="96"/>
       <c r="AF867" s="96"/>
     </row>
-    <row r="868" spans="1:32" ht="16" thickBot="1">
+    <row r="868" spans="1:32" ht="15.75" thickBot="1">
       <c r="A868" s="96"/>
       <c r="B868" s="96"/>
       <c r="C868" s="96"/>
@@ -64491,7 +64501,7 @@
       <c r="AE868" s="96"/>
       <c r="AF868" s="96"/>
     </row>
-    <row r="869" spans="1:32" ht="16" thickBot="1">
+    <row r="869" spans="1:32" ht="15.75" thickBot="1">
       <c r="A869" s="96"/>
       <c r="B869" s="96"/>
       <c r="C869" s="96"/>
@@ -64525,7 +64535,7 @@
       <c r="AE869" s="96"/>
       <c r="AF869" s="96"/>
     </row>
-    <row r="870" spans="1:32" ht="16" thickBot="1">
+    <row r="870" spans="1:32" ht="15.75" thickBot="1">
       <c r="A870" s="96"/>
       <c r="B870" s="96"/>
       <c r="C870" s="96"/>
@@ -64559,7 +64569,7 @@
       <c r="AE870" s="96"/>
       <c r="AF870" s="96"/>
     </row>
-    <row r="871" spans="1:32" ht="16" thickBot="1">
+    <row r="871" spans="1:32" ht="15.75" thickBot="1">
       <c r="A871" s="96"/>
       <c r="B871" s="96"/>
       <c r="C871" s="96"/>
@@ -64593,7 +64603,7 @@
       <c r="AE871" s="96"/>
       <c r="AF871" s="96"/>
     </row>
-    <row r="872" spans="1:32" ht="16" thickBot="1">
+    <row r="872" spans="1:32" ht="15.75" thickBot="1">
       <c r="A872" s="96"/>
       <c r="B872" s="96"/>
       <c r="C872" s="96"/>
@@ -64627,7 +64637,7 @@
       <c r="AE872" s="96"/>
       <c r="AF872" s="96"/>
     </row>
-    <row r="873" spans="1:32" ht="16" thickBot="1">
+    <row r="873" spans="1:32" ht="15.75" thickBot="1">
       <c r="A873" s="96"/>
       <c r="B873" s="96"/>
       <c r="C873" s="96"/>
@@ -64661,7 +64671,7 @@
       <c r="AE873" s="96"/>
       <c r="AF873" s="96"/>
     </row>
-    <row r="874" spans="1:32" ht="16" thickBot="1">
+    <row r="874" spans="1:32" ht="15.75" thickBot="1">
       <c r="A874" s="96"/>
       <c r="B874" s="96"/>
       <c r="C874" s="96"/>
@@ -64695,7 +64705,7 @@
       <c r="AE874" s="96"/>
       <c r="AF874" s="96"/>
     </row>
-    <row r="875" spans="1:32" ht="16" thickBot="1">
+    <row r="875" spans="1:32" ht="15.75" thickBot="1">
       <c r="A875" s="96"/>
       <c r="B875" s="96"/>
       <c r="C875" s="96"/>
@@ -64729,7 +64739,7 @@
       <c r="AE875" s="96"/>
       <c r="AF875" s="96"/>
     </row>
-    <row r="876" spans="1:32" ht="16" thickBot="1">
+    <row r="876" spans="1:32" ht="15.75" thickBot="1">
       <c r="A876" s="96"/>
       <c r="B876" s="96"/>
       <c r="C876" s="96"/>
@@ -64763,7 +64773,7 @@
       <c r="AE876" s="96"/>
       <c r="AF876" s="96"/>
     </row>
-    <row r="877" spans="1:32" ht="16" thickBot="1">
+    <row r="877" spans="1:32" ht="15.75" thickBot="1">
       <c r="A877" s="96"/>
       <c r="B877" s="96"/>
       <c r="C877" s="96"/>
@@ -64797,7 +64807,7 @@
       <c r="AE877" s="96"/>
       <c r="AF877" s="96"/>
     </row>
-    <row r="878" spans="1:32" ht="16" thickBot="1">
+    <row r="878" spans="1:32" ht="15.75" thickBot="1">
       <c r="A878" s="96"/>
       <c r="B878" s="96"/>
       <c r="C878" s="96"/>
@@ -64831,7 +64841,7 @@
       <c r="AE878" s="96"/>
       <c r="AF878" s="96"/>
     </row>
-    <row r="879" spans="1:32" ht="16" thickBot="1">
+    <row r="879" spans="1:32" ht="15.75" thickBot="1">
       <c r="A879" s="96"/>
       <c r="B879" s="96"/>
       <c r="C879" s="96"/>
@@ -64865,7 +64875,7 @@
       <c r="AE879" s="96"/>
       <c r="AF879" s="96"/>
     </row>
-    <row r="880" spans="1:32" ht="16" thickBot="1">
+    <row r="880" spans="1:32" ht="15.75" thickBot="1">
       <c r="A880" s="96"/>
       <c r="B880" s="96"/>
       <c r="C880" s="96"/>
@@ -64899,7 +64909,7 @@
       <c r="AE880" s="96"/>
       <c r="AF880" s="96"/>
     </row>
-    <row r="881" spans="1:32" ht="16" thickBot="1">
+    <row r="881" spans="1:32" ht="15.75" thickBot="1">
       <c r="A881" s="96"/>
       <c r="B881" s="96"/>
       <c r="C881" s="96"/>
@@ -64933,7 +64943,7 @@
       <c r="AE881" s="96"/>
       <c r="AF881" s="96"/>
     </row>
-    <row r="882" spans="1:32" ht="16" thickBot="1">
+    <row r="882" spans="1:32" ht="15.75" thickBot="1">
       <c r="A882" s="96"/>
       <c r="B882" s="96"/>
       <c r="C882" s="96"/>
@@ -64967,7 +64977,7 @@
       <c r="AE882" s="96"/>
       <c r="AF882" s="96"/>
     </row>
-    <row r="883" spans="1:32" ht="16" thickBot="1">
+    <row r="883" spans="1:32" ht="15.75" thickBot="1">
       <c r="A883" s="96"/>
       <c r="B883" s="96"/>
       <c r="C883" s="96"/>
@@ -65001,7 +65011,7 @@
       <c r="AE883" s="96"/>
       <c r="AF883" s="96"/>
     </row>
-    <row r="884" spans="1:32" ht="16" thickBot="1">
+    <row r="884" spans="1:32" ht="15.75" thickBot="1">
       <c r="A884" s="96"/>
       <c r="B884" s="96"/>
       <c r="C884" s="96"/>
@@ -65035,7 +65045,7 @@
       <c r="AE884" s="96"/>
       <c r="AF884" s="96"/>
     </row>
-    <row r="885" spans="1:32" ht="16" thickBot="1">
+    <row r="885" spans="1:32" ht="15.75" thickBot="1">
       <c r="A885" s="96"/>
       <c r="B885" s="96"/>
       <c r="C885" s="96"/>
@@ -65069,7 +65079,7 @@
       <c r="AE885" s="96"/>
       <c r="AF885" s="96"/>
     </row>
-    <row r="886" spans="1:32" ht="16" thickBot="1">
+    <row r="886" spans="1:32" ht="15.75" thickBot="1">
       <c r="A886" s="96"/>
       <c r="B886" s="96"/>
       <c r="C886" s="96"/>
@@ -65103,7 +65113,7 @@
       <c r="AE886" s="96"/>
       <c r="AF886" s="96"/>
     </row>
-    <row r="887" spans="1:32" ht="16" thickBot="1">
+    <row r="887" spans="1:32" ht="15.75" thickBot="1">
       <c r="A887" s="96"/>
       <c r="B887" s="96"/>
       <c r="C887" s="96"/>
@@ -65137,7 +65147,7 @@
       <c r="AE887" s="96"/>
       <c r="AF887" s="96"/>
     </row>
-    <row r="888" spans="1:32" ht="16" thickBot="1">
+    <row r="888" spans="1:32" ht="15.75" thickBot="1">
       <c r="A888" s="96"/>
       <c r="B888" s="96"/>
       <c r="C888" s="96"/>
@@ -65171,7 +65181,7 @@
       <c r="AE888" s="96"/>
       <c r="AF888" s="96"/>
     </row>
-    <row r="889" spans="1:32" ht="16" thickBot="1">
+    <row r="889" spans="1:32" ht="15.75" thickBot="1">
       <c r="A889" s="96"/>
       <c r="B889" s="96"/>
       <c r="C889" s="96"/>
@@ -65205,7 +65215,7 @@
       <c r="AE889" s="96"/>
       <c r="AF889" s="96"/>
     </row>
-    <row r="890" spans="1:32" ht="16" thickBot="1">
+    <row r="890" spans="1:32" ht="15.75" thickBot="1">
       <c r="A890" s="96"/>
       <c r="B890" s="96"/>
       <c r="C890" s="96"/>
@@ -65239,7 +65249,7 @@
       <c r="AE890" s="96"/>
       <c r="AF890" s="96"/>
     </row>
-    <row r="891" spans="1:32" ht="16" thickBot="1">
+    <row r="891" spans="1:32" ht="15.75" thickBot="1">
       <c r="A891" s="96"/>
       <c r="B891" s="96"/>
       <c r="C891" s="96"/>
@@ -65273,7 +65283,7 @@
       <c r="AE891" s="96"/>
       <c r="AF891" s="96"/>
     </row>
-    <row r="892" spans="1:32" ht="16" thickBot="1">
+    <row r="892" spans="1:32" ht="15.75" thickBot="1">
       <c r="A892" s="96"/>
       <c r="B892" s="96"/>
       <c r="C892" s="96"/>
@@ -65307,7 +65317,7 @@
       <c r="AE892" s="96"/>
       <c r="AF892" s="96"/>
     </row>
-    <row r="893" spans="1:32" ht="16" thickBot="1">
+    <row r="893" spans="1:32" ht="15.75" thickBot="1">
       <c r="A893" s="96"/>
       <c r="B893" s="96"/>
       <c r="C893" s="96"/>
@@ -65341,7 +65351,7 @@
       <c r="AE893" s="96"/>
       <c r="AF893" s="96"/>
     </row>
-    <row r="894" spans="1:32" ht="16" thickBot="1">
+    <row r="894" spans="1:32" ht="15.75" thickBot="1">
       <c r="A894" s="96"/>
       <c r="B894" s="96"/>
       <c r="C894" s="96"/>
@@ -65375,7 +65385,7 @@
       <c r="AE894" s="96"/>
       <c r="AF894" s="96"/>
     </row>
-    <row r="895" spans="1:32" ht="16" thickBot="1">
+    <row r="895" spans="1:32" ht="15.75" thickBot="1">
       <c r="A895" s="96"/>
       <c r="B895" s="96"/>
       <c r="C895" s="96"/>
@@ -65409,7 +65419,7 @@
       <c r="AE895" s="96"/>
       <c r="AF895" s="96"/>
     </row>
-    <row r="896" spans="1:32" ht="16" thickBot="1">
+    <row r="896" spans="1:32" ht="15.75" thickBot="1">
       <c r="A896" s="96"/>
       <c r="B896" s="96"/>
       <c r="C896" s="96"/>
@@ -65443,7 +65453,7 @@
       <c r="AE896" s="96"/>
       <c r="AF896" s="96"/>
     </row>
-    <row r="897" spans="1:32" ht="16" thickBot="1">
+    <row r="897" spans="1:32" ht="15.75" thickBot="1">
       <c r="A897" s="96"/>
       <c r="B897" s="96"/>
       <c r="C897" s="96"/>
@@ -65477,7 +65487,7 @@
       <c r="AE897" s="96"/>
       <c r="AF897" s="96"/>
     </row>
-    <row r="898" spans="1:32" ht="16" thickBot="1">
+    <row r="898" spans="1:32" ht="15.75" thickBot="1">
       <c r="A898" s="96"/>
       <c r="B898" s="96"/>
       <c r="C898" s="96"/>
@@ -65511,7 +65521,7 @@
       <c r="AE898" s="96"/>
       <c r="AF898" s="96"/>
     </row>
-    <row r="899" spans="1:32" ht="16" thickBot="1">
+    <row r="899" spans="1:32" ht="15.75" thickBot="1">
       <c r="A899" s="96"/>
       <c r="B899" s="96"/>
       <c r="C899" s="96"/>
@@ -65545,7 +65555,7 @@
       <c r="AE899" s="96"/>
       <c r="AF899" s="96"/>
     </row>
-    <row r="900" spans="1:32" ht="16" thickBot="1">
+    <row r="900" spans="1:32" ht="15.75" thickBot="1">
       <c r="A900" s="96"/>
       <c r="B900" s="96"/>
       <c r="C900" s="96"/>
@@ -65579,7 +65589,7 @@
       <c r="AE900" s="96"/>
       <c r="AF900" s="96"/>
     </row>
-    <row r="901" spans="1:32" ht="16" thickBot="1">
+    <row r="901" spans="1:32" ht="15.75" thickBot="1">
       <c r="A901" s="96"/>
       <c r="B901" s="96"/>
       <c r="C901" s="96"/>
@@ -65613,7 +65623,7 @@
       <c r="AE901" s="96"/>
       <c r="AF901" s="96"/>
     </row>
-    <row r="902" spans="1:32" ht="16" thickBot="1">
+    <row r="902" spans="1:32" ht="15.75" thickBot="1">
       <c r="A902" s="96"/>
       <c r="B902" s="96"/>
       <c r="C902" s="96"/>
@@ -65647,7 +65657,7 @@
       <c r="AE902" s="96"/>
       <c r="AF902" s="96"/>
     </row>
-    <row r="903" spans="1:32" ht="16" thickBot="1">
+    <row r="903" spans="1:32" ht="15.75" thickBot="1">
       <c r="A903" s="96"/>
       <c r="B903" s="96"/>
       <c r="C903" s="96"/>
@@ -65681,7 +65691,7 @@
       <c r="AE903" s="96"/>
       <c r="AF903" s="96"/>
     </row>
-    <row r="904" spans="1:32" ht="16" thickBot="1">
+    <row r="904" spans="1:32" ht="15.75" thickBot="1">
       <c r="A904" s="96"/>
       <c r="B904" s="96"/>
       <c r="C904" s="96"/>
@@ -65715,7 +65725,7 @@
       <c r="AE904" s="96"/>
       <c r="AF904" s="96"/>
     </row>
-    <row r="905" spans="1:32" ht="16" thickBot="1">
+    <row r="905" spans="1:32" ht="15.75" thickBot="1">
       <c r="A905" s="96"/>
       <c r="B905" s="96"/>
       <c r="C905" s="96"/>
@@ -65749,7 +65759,7 @@
       <c r="AE905" s="96"/>
       <c r="AF905" s="96"/>
     </row>
-    <row r="906" spans="1:32" ht="16" thickBot="1">
+    <row r="906" spans="1:32" ht="15.75" thickBot="1">
       <c r="A906" s="96"/>
       <c r="B906" s="96"/>
       <c r="C906" s="96"/>
@@ -65783,7 +65793,7 @@
       <c r="AE906" s="96"/>
       <c r="AF906" s="96"/>
     </row>
-    <row r="907" spans="1:32" ht="16" thickBot="1">
+    <row r="907" spans="1:32" ht="15.75" thickBot="1">
       <c r="A907" s="96"/>
       <c r="B907" s="96"/>
       <c r="C907" s="96"/>
@@ -65817,7 +65827,7 @@
       <c r="AE907" s="96"/>
       <c r="AF907" s="96"/>
     </row>
-    <row r="908" spans="1:32" ht="16" thickBot="1">
+    <row r="908" spans="1:32" ht="15.75" thickBot="1">
       <c r="A908" s="96"/>
       <c r="B908" s="96"/>
       <c r="C908" s="96"/>
@@ -65851,7 +65861,7 @@
       <c r="AE908" s="96"/>
       <c r="AF908" s="96"/>
     </row>
-    <row r="909" spans="1:32" ht="16" thickBot="1">
+    <row r="909" spans="1:32" ht="15.75" thickBot="1">
       <c r="A909" s="96"/>
       <c r="B909" s="96"/>
       <c r="C909" s="96"/>
@@ -65885,7 +65895,7 @@
       <c r="AE909" s="96"/>
       <c r="AF909" s="96"/>
     </row>
-    <row r="910" spans="1:32" ht="16" thickBot="1">
+    <row r="910" spans="1:32" ht="15.75" thickBot="1">
       <c r="A910" s="96"/>
       <c r="B910" s="96"/>
       <c r="C910" s="96"/>
@@ -65919,7 +65929,7 @@
       <c r="AE910" s="96"/>
       <c r="AF910" s="96"/>
     </row>
-    <row r="911" spans="1:32" ht="16" thickBot="1">
+    <row r="911" spans="1:32" ht="15.75" thickBot="1">
       <c r="A911" s="96"/>
       <c r="B911" s="96"/>
       <c r="C911" s="96"/>
@@ -65953,7 +65963,7 @@
       <c r="AE911" s="96"/>
       <c r="AF911" s="96"/>
     </row>
-    <row r="912" spans="1:32" ht="16" thickBot="1">
+    <row r="912" spans="1:32" ht="15.75" thickBot="1">
       <c r="A912" s="96"/>
       <c r="B912" s="96"/>
       <c r="C912" s="96"/>
@@ -65987,7 +65997,7 @@
       <c r="AE912" s="96"/>
       <c r="AF912" s="96"/>
     </row>
-    <row r="913" spans="1:32" ht="16" thickBot="1">
+    <row r="913" spans="1:32" ht="15.75" thickBot="1">
       <c r="A913" s="96"/>
       <c r="B913" s="96"/>
       <c r="C913" s="96"/>
@@ -66021,7 +66031,7 @@
       <c r="AE913" s="96"/>
       <c r="AF913" s="96"/>
     </row>
-    <row r="914" spans="1:32" ht="16" thickBot="1">
+    <row r="914" spans="1:32" ht="15.75" thickBot="1">
       <c r="A914" s="96"/>
       <c r="B914" s="96"/>
       <c r="C914" s="96"/>
@@ -66055,7 +66065,7 @@
       <c r="AE914" s="96"/>
       <c r="AF914" s="96"/>
     </row>
-    <row r="915" spans="1:32" ht="16" thickBot="1">
+    <row r="915" spans="1:32" ht="15.75" thickBot="1">
       <c r="A915" s="96"/>
       <c r="B915" s="96"/>
       <c r="C915" s="96"/>
@@ -66089,7 +66099,7 @@
       <c r="AE915" s="96"/>
       <c r="AF915" s="96"/>
     </row>
-    <row r="916" spans="1:32" ht="16" thickBot="1">
+    <row r="916" spans="1:32" ht="15.75" thickBot="1">
       <c r="A916" s="96"/>
       <c r="B916" s="96"/>
       <c r="C916" s="96"/>
@@ -66123,7 +66133,7 @@
       <c r="AE916" s="96"/>
       <c r="AF916" s="96"/>
     </row>
-    <row r="917" spans="1:32" ht="16" thickBot="1">
+    <row r="917" spans="1:32" ht="15.75" thickBot="1">
       <c r="A917" s="96"/>
       <c r="B917" s="96"/>
       <c r="C917" s="96"/>
@@ -66157,7 +66167,7 @@
       <c r="AE917" s="96"/>
       <c r="AF917" s="96"/>
     </row>
-    <row r="918" spans="1:32" ht="16" thickBot="1">
+    <row r="918" spans="1:32" ht="15.75" thickBot="1">
       <c r="A918" s="96"/>
       <c r="B918" s="96"/>
       <c r="C918" s="96"/>
@@ -66191,7 +66201,7 @@
       <c r="AE918" s="96"/>
       <c r="AF918" s="96"/>
     </row>
-    <row r="919" spans="1:32" ht="16" thickBot="1">
+    <row r="919" spans="1:32" ht="15.75" thickBot="1">
       <c r="A919" s="96"/>
       <c r="B919" s="96"/>
       <c r="C919" s="96"/>
@@ -66225,7 +66235,7 @@
       <c r="AE919" s="96"/>
       <c r="AF919" s="96"/>
     </row>
-    <row r="920" spans="1:32" ht="16" thickBot="1">
+    <row r="920" spans="1:32" ht="15.75" thickBot="1">
       <c r="A920" s="96"/>
       <c r="B920" s="96"/>
       <c r="C920" s="96"/>
@@ -66259,7 +66269,7 @@
       <c r="AE920" s="96"/>
       <c r="AF920" s="96"/>
     </row>
-    <row r="921" spans="1:32" ht="16" thickBot="1">
+    <row r="921" spans="1:32" ht="15.75" thickBot="1">
       <c r="A921" s="96"/>
       <c r="B921" s="96"/>
       <c r="C921" s="96"/>
@@ -66293,7 +66303,7 @@
       <c r="AE921" s="96"/>
       <c r="AF921" s="96"/>
     </row>
-    <row r="922" spans="1:32" ht="16" thickBot="1">
+    <row r="922" spans="1:32" ht="15.75" thickBot="1">
       <c r="A922" s="96"/>
       <c r="B922" s="96"/>
       <c r="C922" s="96"/>
@@ -66327,7 +66337,7 @@
       <c r="AE922" s="96"/>
       <c r="AF922" s="96"/>
     </row>
-    <row r="923" spans="1:32" ht="16" thickBot="1">
+    <row r="923" spans="1:32" ht="15.75" thickBot="1">
       <c r="A923" s="96"/>
       <c r="B923" s="96"/>
       <c r="C923" s="96"/>
@@ -66361,7 +66371,7 @@
       <c r="AE923" s="96"/>
       <c r="AF923" s="96"/>
     </row>
-    <row r="924" spans="1:32" ht="16" thickBot="1">
+    <row r="924" spans="1:32" ht="15.75" thickBot="1">
       <c r="A924" s="96"/>
       <c r="B924" s="96"/>
       <c r="C924" s="96"/>
@@ -66395,7 +66405,7 @@
       <c r="AE924" s="96"/>
       <c r="AF924" s="96"/>
     </row>
-    <row r="925" spans="1:32" ht="16" thickBot="1">
+    <row r="925" spans="1:32" ht="15.75" thickBot="1">
       <c r="A925" s="96"/>
       <c r="B925" s="96"/>
       <c r="C925" s="96"/>
@@ -66429,7 +66439,7 @@
       <c r="AE925" s="96"/>
       <c r="AF925" s="96"/>
     </row>
-    <row r="926" spans="1:32" ht="16" thickBot="1">
+    <row r="926" spans="1:32" ht="15.75" thickBot="1">
       <c r="A926" s="96"/>
       <c r="B926" s="96"/>
       <c r="C926" s="96"/>
@@ -66463,7 +66473,7 @@
       <c r="AE926" s="96"/>
       <c r="AF926" s="96"/>
     </row>
-    <row r="927" spans="1:32" ht="16" thickBot="1">
+    <row r="927" spans="1:32" ht="15.75" thickBot="1">
       <c r="A927" s="96"/>
       <c r="B927" s="96"/>
       <c r="C927" s="96"/>
@@ -66497,7 +66507,7 @@
       <c r="AE927" s="96"/>
       <c r="AF927" s="96"/>
     </row>
-    <row r="928" spans="1:32" ht="16" thickBot="1">
+    <row r="928" spans="1:32" ht="15.75" thickBot="1">
       <c r="A928" s="96"/>
       <c r="B928" s="96"/>
       <c r="C928" s="96"/>
@@ -66531,7 +66541,7 @@
       <c r="AE928" s="96"/>
       <c r="AF928" s="96"/>
     </row>
-    <row r="929" spans="1:32" ht="16" thickBot="1">
+    <row r="929" spans="1:32" ht="15.75" thickBot="1">
       <c r="A929" s="96"/>
       <c r="B929" s="96"/>
       <c r="C929" s="96"/>
@@ -66565,7 +66575,7 @@
       <c r="AE929" s="96"/>
       <c r="AF929" s="96"/>
     </row>
-    <row r="930" spans="1:32" ht="16" thickBot="1">
+    <row r="930" spans="1:32" ht="15.75" thickBot="1">
       <c r="A930" s="96"/>
       <c r="B930" s="96"/>
       <c r="C930" s="96"/>
@@ -66599,7 +66609,7 @@
       <c r="AE930" s="96"/>
       <c r="AF930" s="96"/>
     </row>
-    <row r="931" spans="1:32" ht="16" thickBot="1">
+    <row r="931" spans="1:32" ht="15.75" thickBot="1">
       <c r="A931" s="96"/>
       <c r="B931" s="96"/>
       <c r="C931" s="96"/>
@@ -66633,7 +66643,7 @@
       <c r="AE931" s="96"/>
       <c r="AF931" s="96"/>
     </row>
-    <row r="932" spans="1:32" ht="16" thickBot="1">
+    <row r="932" spans="1:32" ht="15.75" thickBot="1">
       <c r="A932" s="96"/>
       <c r="B932" s="96"/>
       <c r="C932" s="96"/>
@@ -66667,7 +66677,7 @@
       <c r="AE932" s="96"/>
       <c r="AF932" s="96"/>
     </row>
-    <row r="933" spans="1:32" ht="16" thickBot="1">
+    <row r="933" spans="1:32" ht="15.75" thickBot="1">
       <c r="A933" s="96"/>
       <c r="B933" s="96"/>
       <c r="C933" s="96"/>
@@ -66701,7 +66711,7 @@
       <c r="AE933" s="96"/>
       <c r="AF933" s="96"/>
     </row>
-    <row r="934" spans="1:32" ht="16" thickBot="1">
+    <row r="934" spans="1:32" ht="15.75" thickBot="1">
       <c r="A934" s="96"/>
       <c r="B934" s="96"/>
       <c r="C934" s="96"/>
@@ -66735,7 +66745,7 @@
       <c r="AE934" s="96"/>
       <c r="AF934" s="96"/>
     </row>
-    <row r="935" spans="1:32" ht="16" thickBot="1">
+    <row r="935" spans="1:32" ht="15.75" thickBot="1">
       <c r="A935" s="96"/>
       <c r="B935" s="96"/>
       <c r="C935" s="96"/>
@@ -66769,7 +66779,7 @@
       <c r="AE935" s="96"/>
       <c r="AF935" s="96"/>
     </row>
-    <row r="936" spans="1:32" ht="16" thickBot="1">
+    <row r="936" spans="1:32" ht="15.75" thickBot="1">
       <c r="A936" s="96"/>
       <c r="B936" s="96"/>
       <c r="C936" s="96"/>
@@ -66803,7 +66813,7 @@
       <c r="AE936" s="96"/>
       <c r="AF936" s="96"/>
     </row>
-    <row r="937" spans="1:32" ht="16" thickBot="1">
+    <row r="937" spans="1:32" ht="15.75" thickBot="1">
       <c r="A937" s="96"/>
       <c r="B937" s="96"/>
       <c r="C937" s="96"/>
@@ -66837,7 +66847,7 @@
       <c r="AE937" s="96"/>
       <c r="AF937" s="96"/>
     </row>
-    <row r="938" spans="1:32" ht="16" thickBot="1">
+    <row r="938" spans="1:32" ht="15.75" thickBot="1">
       <c r="A938" s="96"/>
       <c r="B938" s="96"/>
       <c r="C938" s="96"/>
@@ -66871,7 +66881,7 @@
       <c r="AE938" s="96"/>
       <c r="AF938" s="96"/>
     </row>
-    <row r="939" spans="1:32" ht="16" thickBot="1">
+    <row r="939" spans="1:32" ht="15.75" thickBot="1">
       <c r="A939" s="96"/>
       <c r="B939" s="96"/>
       <c r="C939" s="96"/>
@@ -66905,7 +66915,7 @@
       <c r="AE939" s="96"/>
       <c r="AF939" s="96"/>
     </row>
-    <row r="940" spans="1:32" ht="16" thickBot="1">
+    <row r="940" spans="1:32" ht="15.75" thickBot="1">
       <c r="A940" s="96"/>
       <c r="B940" s="96"/>
       <c r="C940" s="96"/>
@@ -66939,7 +66949,7 @@
       <c r="AE940" s="96"/>
       <c r="AF940" s="96"/>
     </row>
-    <row r="941" spans="1:32" ht="16" thickBot="1">
+    <row r="941" spans="1:32" ht="15.75" thickBot="1">
       <c r="A941" s="96"/>
       <c r="B941" s="96"/>
       <c r="C941" s="96"/>
@@ -66973,7 +66983,7 @@
       <c r="AE941" s="96"/>
       <c r="AF941" s="96"/>
     </row>
-    <row r="942" spans="1:32" ht="16" thickBot="1">
+    <row r="942" spans="1:32" ht="15.75" thickBot="1">
       <c r="A942" s="96"/>
       <c r="B942" s="96"/>
       <c r="C942" s="96"/>
@@ -67007,7 +67017,7 @@
       <c r="AE942" s="96"/>
       <c r="AF942" s="96"/>
     </row>
-    <row r="943" spans="1:32" ht="16" thickBot="1">
+    <row r="943" spans="1:32" ht="15.75" thickBot="1">
       <c r="A943" s="96"/>
       <c r="B943" s="96"/>
       <c r="C943" s="96"/>
@@ -67041,7 +67051,7 @@
       <c r="AE943" s="96"/>
       <c r="AF943" s="96"/>
     </row>
-    <row r="944" spans="1:32" ht="16" thickBot="1">
+    <row r="944" spans="1:32" ht="15.75" thickBot="1">
       <c r="A944" s="96"/>
       <c r="B944" s="96"/>
       <c r="C944" s="96"/>
@@ -67075,7 +67085,7 @@
       <c r="AE944" s="96"/>
       <c r="AF944" s="96"/>
     </row>
-    <row r="945" spans="1:32" ht="16" thickBot="1">
+    <row r="945" spans="1:32" ht="15.75" thickBot="1">
       <c r="A945" s="96"/>
       <c r="B945" s="96"/>
       <c r="C945" s="96"/>
@@ -67109,7 +67119,7 @@
       <c r="AE945" s="96"/>
       <c r="AF945" s="96"/>
     </row>
-    <row r="946" spans="1:32" ht="16" thickBot="1">
+    <row r="946" spans="1:32" ht="15.75" thickBot="1">
       <c r="A946" s="96"/>
       <c r="B946" s="96"/>
       <c r="C946" s="96"/>
@@ -67143,7 +67153,7 @@
       <c r="AE946" s="96"/>
       <c r="AF946" s="96"/>
     </row>
-    <row r="947" spans="1:32" ht="16" thickBot="1">
+    <row r="947" spans="1:32" ht="15.75" thickBot="1">
       <c r="A947" s="96"/>
       <c r="B947" s="96"/>
       <c r="C947" s="96"/>
@@ -67177,7 +67187,7 @@
       <c r="AE947" s="96"/>
       <c r="AF947" s="96"/>
     </row>
-    <row r="948" spans="1:32" ht="16" thickBot="1">
+    <row r="948" spans="1:32" ht="15.75" thickBot="1">
       <c r="A948" s="96"/>
       <c r="B948" s="96"/>
       <c r="C948" s="96"/>
@@ -67211,7 +67221,7 @@
       <c r="AE948" s="96"/>
       <c r="AF948" s="96"/>
     </row>
-    <row r="949" spans="1:32" ht="16" thickBot="1">
+    <row r="949" spans="1:32" ht="15.75" thickBot="1">
       <c r="A949" s="96"/>
       <c r="B949" s="96"/>
       <c r="C949" s="96"/>
@@ -67245,7 +67255,7 @@
       <c r="AE949" s="96"/>
       <c r="AF949" s="96"/>
     </row>
-    <row r="950" spans="1:32" ht="16" thickBot="1">
+    <row r="950" spans="1:32" ht="15.75" thickBot="1">
       <c r="A950" s="96"/>
       <c r="B950" s="96"/>
       <c r="C950" s="96"/>
@@ -67279,7 +67289,7 @@
       <c r="AE950" s="96"/>
       <c r="AF950" s="96"/>
     </row>
-    <row r="951" spans="1:32" ht="16" thickBot="1">
+    <row r="951" spans="1:32" ht="15.75" thickBot="1">
       <c r="A951" s="96"/>
       <c r="B951" s="96"/>
       <c r="C951" s="96"/>
@@ -67313,7 +67323,7 @@
       <c r="AE951" s="96"/>
       <c r="AF951" s="96"/>
     </row>
-    <row r="952" spans="1:32" ht="16" thickBot="1">
+    <row r="952" spans="1:32" ht="15.75" thickBot="1">
       <c r="A952" s="96"/>
       <c r="B952" s="96"/>
       <c r="C952" s="96"/>
@@ -67347,7 +67357,7 @@
       <c r="AE952" s="96"/>
       <c r="AF952" s="96"/>
     </row>
-    <row r="953" spans="1:32" ht="16" thickBot="1">
+    <row r="953" spans="1:32" ht="15.75" thickBot="1">
       <c r="A953" s="96"/>
       <c r="B953" s="96"/>
       <c r="C953" s="96"/>
@@ -67381,7 +67391,7 @@
       <c r="AE953" s="96"/>
       <c r="AF953" s="96"/>
     </row>
-    <row r="954" spans="1:32" ht="16" thickBot="1">
+    <row r="954" spans="1:32" ht="15.75" thickBot="1">
       <c r="A954" s="96"/>
       <c r="B954" s="96"/>
       <c r="C954" s="96"/>
@@ -67415,7 +67425,7 @@
       <c r="AE954" s="96"/>
       <c r="AF954" s="96"/>
     </row>
-    <row r="955" spans="1:32" ht="16" thickBot="1">
+    <row r="955" spans="1:32" ht="15.75" thickBot="1">
       <c r="A955" s="96"/>
       <c r="B955" s="96"/>
       <c r="C955" s="96"/>
@@ -67449,7 +67459,7 @@
       <c r="AE955" s="96"/>
       <c r="AF955" s="96"/>
     </row>
-    <row r="956" spans="1:32" ht="16" thickBot="1">
+    <row r="956" spans="1:32" ht="15.75" thickBot="1">
       <c r="A956" s="96"/>
       <c r="B956" s="96"/>
       <c r="C956" s="96"/>
@@ -67483,7 +67493,7 @@
       <c r="AE956" s="96"/>
       <c r="AF956" s="96"/>
     </row>
-    <row r="957" spans="1:32" ht="16" thickBot="1">
+    <row r="957" spans="1:32" ht="15.75" thickBot="1">
       <c r="A957" s="96"/>
       <c r="B957" s="96"/>
       <c r="C957" s="96"/>
@@ -67517,7 +67527,7 @@
       <c r="AE957" s="96"/>
       <c r="AF957" s="96"/>
     </row>
-    <row r="958" spans="1:32" ht="16" thickBot="1">
+    <row r="958" spans="1:32" ht="15.75" thickBot="1">
       <c r="A958" s="96"/>
       <c r="B958" s="96"/>
       <c r="C958" s="96"/>
@@ -67551,7 +67561,7 @@
       <c r="AE958" s="96"/>
       <c r="AF958" s="96"/>
     </row>
-    <row r="959" spans="1:32" ht="16" thickBot="1">
+    <row r="959" spans="1:32" ht="15.75" thickBot="1">
       <c r="A959" s="96"/>
       <c r="B959" s="96"/>
       <c r="C959" s="96"/>
@@ -67585,7 +67595,7 @@
       <c r="AE959" s="96"/>
       <c r="AF959" s="96"/>
     </row>
-    <row r="960" spans="1:32" ht="16" thickBot="1">
+    <row r="960" spans="1:32" ht="15.75" thickBot="1">
       <c r="A960" s="96"/>
       <c r="B960" s="96"/>
       <c r="C960" s="96"/>
@@ -67619,7 +67629,7 @@
       <c r="AE960" s="96"/>
       <c r="AF960" s="96"/>
     </row>
-    <row r="961" spans="1:32" ht="16" thickBot="1">
+    <row r="961" spans="1:32" ht="15.75" thickBot="1">
       <c r="A961" s="96"/>
       <c r="B961" s="96"/>
       <c r="C961" s="96"/>
@@ -67653,7 +67663,7 @@
       <c r="AE961" s="96"/>
       <c r="AF961" s="96"/>
     </row>
-    <row r="962" spans="1:32" ht="16" thickBot="1">
+    <row r="962" spans="1:32" ht="15.75" thickBot="1">
       <c r="A962" s="96"/>
       <c r="B962" s="96"/>
       <c r="C962" s="96"/>
@@ -67687,7 +67697,7 @@
       <c r="AE962" s="96"/>
       <c r="AF962" s="96"/>
     </row>
-    <row r="963" spans="1:32" ht="16" thickBot="1">
+    <row r="963" spans="1:32" ht="15.75" thickBot="1">
       <c r="A963" s="96"/>
       <c r="B963" s="96"/>
       <c r="C963" s="96"/>
@@ -67721,7 +67731,7 @@
       <c r="AE963" s="96"/>
       <c r="AF963" s="96"/>
     </row>
-    <row r="964" spans="1:32" ht="16" thickBot="1">
+    <row r="964" spans="1:32" ht="15.75" thickBot="1">
       <c r="A964" s="96"/>
       <c r="B964" s="96"/>
       <c r="C964" s="96"/>
@@ -67755,7 +67765,7 @@
       <c r="AE964" s="96"/>
       <c r="AF964" s="96"/>
     </row>
-    <row r="965" spans="1:32" ht="16" thickBot="1">
+    <row r="965" spans="1:32" ht="15.75" thickBot="1">
       <c r="A965" s="96"/>
       <c r="B965" s="96"/>
       <c r="C965" s="96"/>
@@ -67789,7 +67799,7 @@
       <c r="AE965" s="96"/>
       <c r="AF965" s="96"/>
     </row>
-    <row r="966" spans="1:32" ht="16" thickBot="1">
+    <row r="966" spans="1:32" ht="15.75" thickBot="1">
       <c r="A966" s="96"/>
       <c r="B966" s="96"/>
       <c r="C966" s="96"/>
@@ -67823,7 +67833,7 @@
       <c r="AE966" s="96"/>
       <c r="AF966" s="96"/>
     </row>
-    <row r="967" spans="1:32" ht="16" thickBot="1">
+    <row r="967" spans="1:32" ht="15.75" thickBot="1">
       <c r="A967" s="96"/>
       <c r="B967" s="96"/>
       <c r="C967" s="96"/>
@@ -67857,7 +67867,7 @@
       <c r="AE967" s="96"/>
       <c r="AF967" s="96"/>
     </row>
-    <row r="968" spans="1:32" ht="16" thickBot="1">
+    <row r="968" spans="1:32" ht="15.75" thickBot="1">
       <c r="A968" s="96"/>
       <c r="B968" s="96"/>
       <c r="C968" s="96"/>
@@ -67891,7 +67901,7 @@
       <c r="AE968" s="96"/>
       <c r="AF968" s="96"/>
     </row>
-    <row r="969" spans="1:32" ht="16" thickBot="1">
+    <row r="969" spans="1:32" ht="15.75" thickBot="1">
       <c r="A969" s="96"/>
       <c r="B969" s="96"/>
       <c r="C969" s="96"/>
@@ -67925,7 +67935,7 @@
       <c r="AE969" s="96"/>
       <c r="AF969" s="96"/>
     </row>
-    <row r="970" spans="1:32" ht="16" thickBot="1">
+    <row r="970" spans="1:32" ht="15.75" thickBot="1">
       <c r="A970" s="96"/>
       <c r="B970" s="96"/>
       <c r="C970" s="96"/>
@@ -67959,7 +67969,7 @@
       <c r="AE970" s="96"/>
       <c r="AF970" s="96"/>
     </row>
-    <row r="971" spans="1:32" ht="16" thickBot="1">
+    <row r="971" spans="1:32" ht="15.75" thickBot="1">
       <c r="A971" s="96"/>
       <c r="B971" s="96"/>
       <c r="C971" s="96"/>
@@ -67993,7 +68003,7 @@
       <c r="AE971" s="96"/>
       <c r="AF971" s="96"/>
     </row>
-    <row r="972" spans="1:32" ht="16" thickBot="1">
+    <row r="972" spans="1:32" ht="15.75" thickBot="1">
       <c r="A972" s="96"/>
       <c r="B972" s="96"/>
       <c r="C972" s="96"/>
@@ -68027,7 +68037,7 @@
       <c r="AE972" s="96"/>
       <c r="AF972" s="96"/>
     </row>
-    <row r="973" spans="1:32" ht="16" thickBot="1">
+    <row r="973" spans="1:32" ht="15.75" thickBot="1">
       <c r="A973" s="96"/>
       <c r="B973" s="96"/>
       <c r="C973" s="96"/>
@@ -68061,7 +68071,7 @@
       <c r="AE973" s="96"/>
       <c r="AF973" s="96"/>
     </row>
-    <row r="974" spans="1:32" ht="16" thickBot="1">
+    <row r="974" spans="1:32" ht="15.75" thickBot="1">
       <c r="A974" s="96"/>
       <c r="B974" s="96"/>
       <c r="C974" s="96"/>
@@ -68095,7 +68105,7 @@
       <c r="AE974" s="96"/>
       <c r="AF974" s="96"/>
     </row>
-    <row r="975" spans="1:32" ht="16" thickBot="1">
+    <row r="975" spans="1:32" ht="15.75" thickBot="1">
       <c r="A975" s="96"/>
       <c r="B975" s="96"/>
       <c r="C975" s="96"/>
@@ -68129,7 +68139,7 @@
       <c r="AE975" s="96"/>
       <c r="AF975" s="96"/>
     </row>
-    <row r="976" spans="1:32" ht="16" thickBot="1">
+    <row r="976" spans="1:32" ht="15.75" thickBot="1">
       <c r="A976" s="96"/>
       <c r="B976" s="96"/>
       <c r="C976" s="96"/>
@@ -68163,7 +68173,7 @@
       <c r="AE976" s="96"/>
       <c r="AF976" s="96"/>
     </row>
-    <row r="977" spans="1:32" ht="16" thickBot="1">
+    <row r="977" spans="1:32" ht="15.75" thickBot="1">
       <c r="A977" s="96"/>
       <c r="B977" s="96"/>
       <c r="C977" s="96"/>
@@ -68197,7 +68207,7 @@
       <c r="AE977" s="96"/>
       <c r="AF977" s="96"/>
     </row>
-    <row r="978" spans="1:32" ht="16" thickBot="1">
+    <row r="978" spans="1:32" ht="15.75" thickBot="1">
       <c r="A978" s="96"/>
       <c r="B978" s="96"/>
       <c r="C978" s="96"/>
@@ -68231,7 +68241,7 @@
       <c r="AE978" s="96"/>
       <c r="AF978" s="96"/>
     </row>
-    <row r="979" spans="1:32" ht="16" thickBot="1">
+    <row r="979" spans="1:32" ht="15.75" thickBot="1">
       <c r="A979" s="96"/>
       <c r="B979" s="96"/>
       <c r="C979" s="96"/>
@@ -68265,7 +68275,7 @@
       <c r="AE979" s="96"/>
       <c r="AF979" s="96"/>
     </row>
-    <row r="980" spans="1:32" ht="16" thickBot="1">
+    <row r="980" spans="1:32" ht="15.75" thickBot="1">
       <c r="A980" s="96"/>
       <c r="B980" s="96"/>
       <c r="C980" s="96"/>
@@ -68299,7 +68309,7 @@
       <c r="AE980" s="96"/>
       <c r="AF980" s="96"/>
     </row>
-    <row r="981" spans="1:32" ht="16" thickBot="1">
+    <row r="981" spans="1:32" ht="15.75" thickBot="1">
       <c r="A981" s="96"/>
       <c r="B981" s="96"/>
       <c r="C981" s="96"/>
@@ -68333,7 +68343,7 @@
       <c r="AE981" s="96"/>
       <c r="AF981" s="96"/>
     </row>
-    <row r="982" spans="1:32" ht="16" thickBot="1">
+    <row r="982" spans="1:32" ht="15.75" thickBot="1">
       <c r="A982" s="96"/>
       <c r="B982" s="96"/>
       <c r="C982" s="96"/>
@@ -68367,7 +68377,7 @@
       <c r="AE982" s="96"/>
       <c r="AF982" s="96"/>
     </row>
-    <row r="983" spans="1:32" ht="16" thickBot="1">
+    <row r="983" spans="1:32" ht="15.75" thickBot="1">
       <c r="A983" s="96"/>
       <c r="B983" s="96"/>
       <c r="C983" s="96"/>
@@ -68401,7 +68411,7 @@
       <c r="AE983" s="96"/>
       <c r="AF983" s="96"/>
     </row>
-    <row r="984" spans="1:32" ht="16" thickBot="1">
+    <row r="984" spans="1:32" ht="15.75" thickBot="1">
       <c r="A984" s="96"/>
       <c r="B984" s="96"/>
       <c r="C984" s="96"/>
@@ -68435,7 +68445,7 @@
       <c r="AE984" s="96"/>
       <c r="AF984" s="96"/>
     </row>
-    <row r="985" spans="1:32" ht="16" thickBot="1">
+    <row r="985" spans="1:32" ht="15.75" thickBot="1">
       <c r="A985" s="96"/>
       <c r="B985" s="96"/>
       <c r="C985" s="96"/>
@@ -68469,7 +68479,7 @@
       <c r="AE985" s="96"/>
       <c r="AF985" s="96"/>
     </row>
-    <row r="986" spans="1:32" ht="16" thickBot="1">
+    <row r="986" spans="1:32" ht="15.75" thickBot="1">
       <c r="A986" s="96"/>
       <c r="B986" s="96"/>
       <c r="C986" s="96"/>
@@ -68503,7 +68513,7 @@
       <c r="AE986" s="96"/>
       <c r="AF986" s="96"/>
     </row>
-    <row r="987" spans="1:32" ht="16" thickBot="1">
+    <row r="987" spans="1:32" ht="15.75" thickBot="1">
       <c r="A987" s="96"/>
       <c r="B987" s="96"/>
       <c r="C987" s="96"/>
@@ -68537,7 +68547,7 @@
       <c r="AE987" s="96"/>
       <c r="AF987" s="96"/>
     </row>
-    <row r="988" spans="1:32" ht="16" thickBot="1">
+    <row r="988" spans="1:32" ht="15.75" thickBot="1">
       <c r="A988" s="96"/>
       <c r="B988" s="96"/>
       <c r="C988" s="96"/>
@@ -68571,7 +68581,7 @@
       <c r="AE988" s="96"/>
       <c r="AF988" s="96"/>
     </row>
-    <row r="989" spans="1:32" ht="16" thickBot="1">
+    <row r="989" spans="1:32" ht="15.75" thickBot="1">
       <c r="A989" s="96"/>
       <c r="B989" s="96"/>
       <c r="C989" s="96"/>
@@ -68605,7 +68615,7 @@
       <c r="AE989" s="96"/>
       <c r="AF989" s="96"/>
     </row>
-    <row r="990" spans="1:32" ht="16" thickBot="1">
+    <row r="990" spans="1:32" ht="15.75" thickBot="1">
       <c r="A990" s="96"/>
       <c r="B990" s="96"/>
       <c r="C990" s="96"/>
@@ -68639,7 +68649,7 @@
       <c r="AE990" s="96"/>
       <c r="AF990" s="96"/>
     </row>
-    <row r="991" spans="1:32" ht="16" thickBot="1">
+    <row r="991" spans="1:32" ht="15.75" thickBot="1">
       <c r="A991" s="96"/>
       <c r="B991" s="96"/>
       <c r="C991" s="96"/>
@@ -68673,7 +68683,7 @@
       <c r="AE991" s="96"/>
       <c r="AF991" s="96"/>
     </row>
-    <row r="992" spans="1:32" ht="16" thickBot="1">
+    <row r="992" spans="1:32" ht="15.75" thickBot="1">
       <c r="A992" s="96"/>
       <c r="B992" s="96"/>
       <c r="C992" s="96"/>
@@ -68707,7 +68717,7 @@
       <c r="AE992" s="96"/>
       <c r="AF992" s="96"/>
     </row>
-    <row r="993" spans="1:32" ht="16" thickBot="1">
+    <row r="993" spans="1:32" ht="15.75" thickBot="1">
       <c r="A993" s="96"/>
       <c r="B993" s="96"/>
       <c r="C993" s="96"/>
@@ -68741,7 +68751,7 @@
       <c r="AE993" s="96"/>
       <c r="AF993" s="96"/>
     </row>
-    <row r="994" spans="1:32" ht="16" thickBot="1">
+    <row r="994" spans="1:32" ht="15.75" thickBot="1">
       <c r="A994" s="96"/>
       <c r="B994" s="96"/>
       <c r="C994" s="96"/>
@@ -68775,7 +68785,7 @@
       <c r="AE994" s="96"/>
       <c r="AF994" s="96"/>
     </row>
-    <row r="995" spans="1:32" ht="16" thickBot="1">
+    <row r="995" spans="1:32" ht="15.75" thickBot="1">
       <c r="A995" s="96"/>
       <c r="B995" s="96"/>
       <c r="C995" s="96"/>
@@ -68809,7 +68819,7 @@
       <c r="AE995" s="96"/>
       <c r="AF995" s="96"/>
     </row>
-    <row r="996" spans="1:32" ht="16" thickBot="1">
+    <row r="996" spans="1:32" ht="15.75" thickBot="1">
       <c r="A996" s="96"/>
       <c r="B996" s="96"/>
       <c r="C996" s="96"/>
@@ -68843,7 +68853,7 @@
       <c r="AE996" s="96"/>
       <c r="AF996" s="96"/>
     </row>
-    <row r="997" spans="1:32" ht="16" thickBot="1">
+    <row r="997" spans="1:32" ht="15.75" thickBot="1">
       <c r="A997" s="96"/>
       <c r="B997" s="96"/>
       <c r="C997" s="96"/>
@@ -68877,7 +68887,7 @@
       <c r="AE997" s="96"/>
       <c r="AF997" s="96"/>
     </row>
-    <row r="998" spans="1:32" ht="16" thickBot="1">
+    <row r="998" spans="1:32" ht="15.75" thickBot="1">
       <c r="A998" s="96"/>
       <c r="B998" s="96"/>
       <c r="C998" s="96"/>
@@ -68911,7 +68921,7 @@
       <c r="AE998" s="96"/>
       <c r="AF998" s="96"/>
     </row>
-    <row r="999" spans="1:32" ht="16" thickBot="1">
+    <row r="999" spans="1:32" ht="15.75" thickBot="1">
       <c r="A999" s="96"/>
       <c r="B999" s="96"/>
       <c r="C999" s="96"/>
@@ -68945,7 +68955,7 @@
       <c r="AE999" s="96"/>
       <c r="AF999" s="96"/>
     </row>
-    <row r="1000" spans="1:32" ht="16" thickBot="1">
+    <row r="1000" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1000" s="96"/>
       <c r="B1000" s="96"/>
       <c r="C1000" s="96"/>
@@ -68979,7 +68989,7 @@
       <c r="AE1000" s="96"/>
       <c r="AF1000" s="96"/>
     </row>
-    <row r="1001" spans="1:32" ht="16" thickBot="1">
+    <row r="1001" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1001" s="96"/>
       <c r="B1001" s="96"/>
       <c r="C1001" s="96"/>
@@ -69013,7 +69023,7 @@
       <c r="AE1001" s="96"/>
       <c r="AF1001" s="96"/>
     </row>
-    <row r="1002" spans="1:32" ht="16" thickBot="1">
+    <row r="1002" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1002" s="96"/>
       <c r="B1002" s="96"/>
       <c r="C1002" s="96"/>
@@ -69047,7 +69057,7 @@
       <c r="AE1002" s="96"/>
       <c r="AF1002" s="96"/>
     </row>
-    <row r="1003" spans="1:32" ht="16" thickBot="1">
+    <row r="1003" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1003" s="96"/>
       <c r="B1003" s="96"/>
       <c r="C1003" s="96"/>
@@ -69081,7 +69091,7 @@
       <c r="AE1003" s="96"/>
       <c r="AF1003" s="96"/>
     </row>
-    <row r="1004" spans="1:32" ht="16" thickBot="1">
+    <row r="1004" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1004" s="96"/>
       <c r="B1004" s="96"/>
       <c r="C1004" s="96"/>
@@ -69115,7 +69125,7 @@
       <c r="AE1004" s="96"/>
       <c r="AF1004" s="96"/>
     </row>
-    <row r="1005" spans="1:32" ht="16" thickBot="1">
+    <row r="1005" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1005" s="96"/>
       <c r="B1005" s="96"/>
       <c r="C1005" s="96"/>
@@ -69149,7 +69159,7 @@
       <c r="AE1005" s="96"/>
       <c r="AF1005" s="96"/>
     </row>
-    <row r="1006" spans="1:32" ht="16" thickBot="1">
+    <row r="1006" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1006" s="96"/>
       <c r="B1006" s="96"/>
       <c r="C1006" s="96"/>
@@ -69183,7 +69193,7 @@
       <c r="AE1006" s="96"/>
       <c r="AF1006" s="96"/>
     </row>
-    <row r="1007" spans="1:32" ht="16" thickBot="1">
+    <row r="1007" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1007" s="96"/>
       <c r="B1007" s="96"/>
       <c r="C1007" s="96"/>
@@ -69217,7 +69227,7 @@
       <c r="AE1007" s="96"/>
       <c r="AF1007" s="96"/>
     </row>
-    <row r="1008" spans="1:32" ht="16" thickBot="1">
+    <row r="1008" spans="1:32" ht="15.75" thickBot="1">
       <c r="A1008" s="96"/>
       <c r="B1008" s="96"/>
       <c r="C1008" s="96"/>
@@ -69267,16 +69277,16 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -69412,7 +69422,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16">
+    <row r="6" spans="1:10">
       <c r="A6" s="19" t="s">
         <v>196</v>
       </c>
